--- a/Projects/CCTH/Data/Template_TT_2018.xlsx
+++ b/Projects/CCTH/Data/Template_TT_2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,31 +19,32 @@
     <sheet name="Info" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
     <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">Survey_questions!$A$1:$I$96</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$45</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$1</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">Survey_questions!$A$1:$I$96</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">Survey_questions!$A$1:$I$96</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Survey_questions!$A$1:$I$96</definedName>
@@ -55,6 +56,7 @@
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Survey_questions!$A$1:$I$96</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Survey_questions!$A$1:$I$96</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Survey_questions!$A$1:$I$96</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Survey_questions!$A$1:$I$96</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -66,317 +68,317 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1793" uniqueCount="364">
   <si>
-    <t>Store Type</t>
+    <t xml:space="preserve">Store Type</t>
   </si>
   <si>
-    <t>Segmentation (Store.Additional_attribute_2)</t>
+    <t xml:space="preserve">Segmentation (Store.Additional_attribute_2)</t>
   </si>
   <si>
-    <t>KPI Execution Condition (When no condition then Mandatory)</t>
+    <t xml:space="preserve">KPI Execution Condition (When no condition then Mandatory)</t>
   </si>
   <si>
-    <t>Mandatory Scenes</t>
+    <t xml:space="preserve">Mandatory Scenes</t>
   </si>
   <si>
-    <t>KPI name Eng</t>
+    <t xml:space="preserve">KPI name Eng</t>
   </si>
   <si>
-    <t>KPI Group</t>
+    <t xml:space="preserve">KPI Group</t>
   </si>
   <si>
-    <t>Scene Type</t>
+    <t xml:space="preserve">Scene Type</t>
   </si>
   <si>
-    <t>KPI Type</t>
+    <t xml:space="preserve">KPI Type</t>
   </si>
   <si>
-    <t>SOVI Sheet</t>
+    <t xml:space="preserve">SOVI Sheet</t>
   </si>
   <si>
-    <t>Survey Q ID</t>
+    <t xml:space="preserve">Survey Q ID</t>
   </si>
   <si>
-    <t>Multiple Survey Mode</t>
+    <t xml:space="preserve">Multiple Survey Mode</t>
   </si>
   <si>
-    <t>Tested KPI Group</t>
+    <t xml:space="preserve">Tested KPI Group</t>
   </si>
   <si>
-    <t>Target</t>
+    <t xml:space="preserve">Target</t>
   </si>
   <si>
-    <t>SCORE</t>
+    <t xml:space="preserve">SCORE</t>
   </si>
   <si>
-    <t>WEIGHT</t>
+    <t xml:space="preserve">WEIGHT</t>
   </si>
   <si>
-    <t>GAP PRIORITY</t>
+    <t xml:space="preserve">GAP PRIORITY</t>
   </si>
   <si>
-    <t>CC 10/15Oz</t>
+    <t xml:space="preserve">CC 10/15Oz</t>
   </si>
   <si>
-    <t>BPPC</t>
+    <t xml:space="preserve">BPPC</t>
   </si>
   <si>
-    <t>Cold Space</t>
+    <t xml:space="preserve">Cold Space</t>
   </si>
   <si>
-    <t>SEE BPPC_SURVEY_Q</t>
+    <t xml:space="preserve">SEE BPPC_SURVEY_Q</t>
   </si>
   <si>
-    <t>SEE BPPC_AVAILABILITY</t>
+    <t xml:space="preserve">SEE BPPC_AVAILABILITY</t>
   </si>
   <si>
-    <t>BINARY</t>
+    <t xml:space="preserve">BINARY</t>
   </si>
   <si>
-    <t>-</t>
+    <t xml:space="preserve">-</t>
   </si>
   <si>
-    <t>According to BPPC GAP PRIORITIES</t>
+    <t xml:space="preserve">According to BPPC GAP PRIORITIES</t>
   </si>
   <si>
-    <t>CC 15 Oz</t>
+    <t xml:space="preserve">CC 15 Oz</t>
   </si>
   <si>
-    <t>Spite+Fanta 10/15 Oz</t>
+    <t xml:space="preserve">Spite+Fanta 10/15 Oz</t>
   </si>
   <si>
-    <t>CC 450 ml</t>
+    <t xml:space="preserve">CC 450 ml</t>
   </si>
   <si>
-    <t>CC 590ml</t>
+    <t xml:space="preserve">CC 590ml</t>
   </si>
   <si>
-    <t>CC 1.25L</t>
+    <t xml:space="preserve">CC 1.25L</t>
   </si>
   <si>
-    <t>Cold Space,Warm Space</t>
+    <t xml:space="preserve">Cold Space,Warm Space</t>
   </si>
   <si>
-    <t>CC 1/1.25L</t>
+    <t xml:space="preserve">CC 1/1.25L</t>
   </si>
   <si>
-    <t>Splash All</t>
+    <t xml:space="preserve">Splash All</t>
   </si>
   <si>
-    <t>Splash/Pulpy All</t>
+    <t xml:space="preserve">Splash/Pulpy All</t>
   </si>
   <si>
-    <t>Vitakid</t>
+    <t xml:space="preserve">Vitakid</t>
   </si>
   <si>
-    <t>Pulpy All</t>
+    <t xml:space="preserve">Pulpy All</t>
   </si>
   <si>
-    <t>Aquarius</t>
+    <t xml:space="preserve">Aquarius</t>
   </si>
   <si>
-    <t>NT 550 ml</t>
+    <t xml:space="preserve">NT 550 ml</t>
   </si>
   <si>
-    <t>Provision Shop,Local Convenient,KO Kiosk,Food Shop,On Premise,Off Premise</t>
+    <t xml:space="preserve">Provision Shop,Local Convenient,KO Kiosk,Food Shop,On Premise,Off Premise</t>
   </si>
   <si>
-    <t>Gold,HI PO SILVER</t>
+    <t xml:space="preserve">Gold,HI PO SILVER</t>
   </si>
   <si>
-    <t>KO Cooler C250,KO Cooler C260,KO Cooler C300,KO Cooler C400,KO Cooler C511,KO Cooler C700,KO Cooler C1000</t>
+    <t xml:space="preserve">KO Cooler C250,KO Cooler C260,KO Cooler C300,KO Cooler C400,KO Cooler C511,KO Cooler C700,KO Cooler C1000</t>
   </si>
   <si>
-    <t>Purity</t>
+    <t xml:space="preserve">Purity</t>
   </si>
   <si>
-    <t>COOLER</t>
+    <t xml:space="preserve">COOLER</t>
   </si>
   <si>
-    <t>Complex Surveys</t>
+    <t xml:space="preserve">Complex Surveys</t>
   </si>
   <si>
-    <t>Survey_questions</t>
+    <t xml:space="preserve">Survey_questions</t>
   </si>
   <si>
-    <t>STRICT</t>
+    <t xml:space="preserve">STRICT</t>
   </si>
   <si>
-    <t>SILVER,BRONZE</t>
+    <t xml:space="preserve">SILVER,BRONZE</t>
   </si>
   <si>
-    <t>scene=KO Cooler;survey=16</t>
+    <t xml:space="preserve">scene=KO Cooler;survey=16</t>
   </si>
   <si>
-    <t>SOVI Cooler</t>
+    <t xml:space="preserve">SOVI Cooler</t>
   </si>
   <si>
-    <t>SOS Facings by scene</t>
+    <t xml:space="preserve">SOS Facings by scene</t>
   </si>
   <si>
-    <t>SOVI_PARAMS</t>
+    <t xml:space="preserve">SOVI_PARAMS</t>
   </si>
   <si>
-    <t>Price Tag</t>
+    <t xml:space="preserve">Price Tag</t>
   </si>
   <si>
-    <t>COMBINED</t>
+    <t xml:space="preserve">COMBINED</t>
   </si>
   <si>
-    <t>1st Position/Hot Spot</t>
+    <t xml:space="preserve">1st Position/Hot Spot</t>
   </si>
   <si>
-    <t>ONE_PER_GROUP</t>
+    <t xml:space="preserve">ONE_PER_GROUP</t>
   </si>
   <si>
-    <t>Provision Shop,Local Convenient</t>
+    <t xml:space="preserve">Provision Shop,Local Convenient</t>
   </si>
   <si>
-    <t>KO Lego Rack,KO White Rack,KO BC Rack Center,KO PM Rack</t>
+    <t xml:space="preserve">KO Lego Rack,KO White Rack,KO BC Rack Center,KO PM Rack</t>
   </si>
   <si>
-    <t>RACK</t>
+    <t xml:space="preserve">RACK</t>
   </si>
   <si>
-    <t>KO Kiosk,Food Shop,On Premise,Off Premise</t>
+    <t xml:space="preserve">KO Kiosk,Food Shop,On Premise,Off Premise</t>
   </si>
   <si>
-    <t>scene=KO Lego Rack,KO White Rack,KO BC Rack Center,KO PM Rack;survey=45</t>
+    <t xml:space="preserve">scene=KO Lego Rack,KO White Rack,KO BC Rack Center,KO PM Rack;survey=45</t>
   </si>
   <si>
-    <t>SOVI Rack</t>
+    <t xml:space="preserve">SOVI Rack</t>
   </si>
   <si>
-    <t>SOVI Cola</t>
+    <t xml:space="preserve">SOVI Cola</t>
   </si>
   <si>
-    <t>SOVI</t>
+    <t xml:space="preserve">SOVI</t>
   </si>
   <si>
-    <t>N/A</t>
+    <t xml:space="preserve">N/A</t>
   </si>
   <si>
-    <t>SOVI Sparkling</t>
+    <t xml:space="preserve">SOVI Sparkling</t>
   </si>
   <si>
-    <t>Thainamthip product 1 door</t>
+    <t xml:space="preserve">Thainamthip product 1 door</t>
   </si>
   <si>
-    <t>Trader Cooler</t>
+    <t xml:space="preserve">Trader Cooler</t>
   </si>
   <si>
-    <t>SINGLE_YES</t>
+    <t xml:space="preserve">SINGLE_YES</t>
   </si>
   <si>
-    <t>Minimum 2 Still Shelf</t>
+    <t xml:space="preserve">Minimum 2 Still Shelf</t>
   </si>
   <si>
-    <t>ONE_COMBINED</t>
+    <t xml:space="preserve">ONE_COMBINED</t>
   </si>
   <si>
-    <t>RED SCORE 2018</t>
+    <t xml:space="preserve">RED SCORE 2018</t>
   </si>
   <si>
-    <t>Percentage of Passed KPIs in GROUP</t>
+    <t xml:space="preserve">Percentage of Passed KPIs in GROUP</t>
   </si>
   <si>
-    <t>PROPORTIONAL</t>
+    <t xml:space="preserve">PROPORTIONAL</t>
   </si>
   <si>
-    <t>survey=16</t>
+    <t xml:space="preserve">survey=16</t>
   </si>
   <si>
-    <t>BY WEIGHT</t>
+    <t xml:space="preserve">BY WEIGHT</t>
   </si>
   <si>
-    <t>survey=45</t>
+    <t xml:space="preserve">survey=45</t>
   </si>
   <si>
-    <t>BONUS</t>
+    <t xml:space="preserve">BONUS</t>
   </si>
   <si>
-    <t>NORMALIZED AVERAGE OF KPIs in GROUP</t>
+    <t xml:space="preserve">NORMALIZED AVERAGE OF KPIs in GROUP</t>
   </si>
   <si>
-    <t>NORMALIZED AVERAGE</t>
+    <t xml:space="preserve">NORMALIZED AVERAGE</t>
   </si>
   <si>
-    <t>Static_data</t>
+    <t xml:space="preserve">Static_data</t>
   </si>
   <si>
-    <t>REPORT</t>
+    <t xml:space="preserve">REPORT</t>
   </si>
   <si>
-    <t>Store Id,Visit Date,Store Name,Channel,Store Type,Segment,SD,Sales Manager,Sale office,Route Manager,Presell,AD,Hybrid,VRP</t>
+    <t xml:space="preserve">Store Id,Visit Date,Store Name,Channel,Store Type,Segment,SD,Sales Manager,Sale office,Route Manager,Presell,AD,Hybrid,VRP</t>
   </si>
   <si>
-    <t>CC 10/15Oz,CC 15 Oz,Spite+Fanta 10/15 Oz,CC 450 ml,CC 590ml,CC 1.25L,CC 1/1.25L,Splash All,Splash/Pulpy All,Vitakid,Pulpy All,Aquarius,NT 550 ml</t>
+    <t xml:space="preserve">CC 10/15Oz,CC 15 Oz,Spite+Fanta 10/15 Oz,CC 450 ml,CC 590ml,CC 1.25L,CC 1/1.25L,Splash All,Splash/Pulpy All,Vitakid,Pulpy All,Aquarius,NT 550 ml</t>
   </si>
   <si>
-    <t>Other Coolers</t>
+    <t xml:space="preserve">Other Coolers</t>
   </si>
   <si>
-    <t># of Competitor Cooler:Competitor Cooler,# of Customer Cooler:Customer Cooler</t>
+    <t xml:space="preserve"># of Competitor Cooler:Competitor Cooler,# of Customer Cooler:Customer Cooler</t>
   </si>
   <si>
-    <t>SOVI Cola,SOVI Sparkling</t>
+    <t xml:space="preserve">SOVI Cola,SOVI Sparkling</t>
   </si>
   <si>
-    <t>summary</t>
+    <t xml:space="preserve">summary</t>
   </si>
   <si>
-    <t>Products</t>
+    <t xml:space="preserve">Products</t>
   </si>
   <si>
-    <t>Min. Facings Per Store Types (N/A - do not run KPI)</t>
+    <t xml:space="preserve">Min. Facings Per Store Types (N/A - do not run KPI)</t>
   </si>
   <si>
-    <t>All Regions</t>
+    <t xml:space="preserve">All Regions</t>
   </si>
   <si>
-    <t>KPI Name</t>
+    <t xml:space="preserve">KPI Name</t>
   </si>
   <si>
-    <t>Product List</t>
+    <t xml:space="preserve">Product List</t>
   </si>
   <si>
-    <t>Products EANs</t>
+    <t xml:space="preserve">Products EANs</t>
   </si>
   <si>
-    <t>Provision Shop</t>
+    <t xml:space="preserve">Provision Shop</t>
   </si>
   <si>
-    <t>Local Convenient</t>
+    <t xml:space="preserve">Local Convenient</t>
   </si>
   <si>
-    <t>KO Kiosk</t>
+    <t xml:space="preserve">KO Kiosk</t>
   </si>
   <si>
-    <t>Food Shop</t>
+    <t xml:space="preserve">Food Shop</t>
   </si>
   <si>
-    <t>On Premise</t>
+    <t xml:space="preserve">On Premise</t>
   </si>
   <si>
-    <t>Off Premise</t>
+    <t xml:space="preserve">Off Premise</t>
   </si>
   <si>
-    <t>Coke 280ml RGB
+    <t xml:space="preserve">Coke 280ml RGB
 Coke Zero 280ml RGB
 Coke 422ml RGB</t>
   </si>
   <si>
-    <t>RGB002,RGB005,RGB003</t>
+    <t xml:space="preserve">RGB002,RGB005,RGB003</t>
   </si>
   <si>
-    <t>Coke 422ml RGB</t>
+    <t xml:space="preserve">Coke 422ml RGB</t>
   </si>
   <si>
-    <t>RGB003</t>
+    <t xml:space="preserve">RGB003</t>
   </si>
   <si>
-    <t>Fanta Fruit Punch 280ml RGB
+    <t xml:space="preserve">Fanta Fruit Punch 280ml RGB
 Fanta Orange 280ml RGB
 Fanta Strawberry 280ml RGB
 Sprite 280ml RGB
@@ -388,40 +390,40 @@
 Sprite 422ml RGB</t>
   </si>
   <si>
-    <t>RGB008,RGB006,RGB012,RGB015,RGB009,RGB018,RGB033,RGB007,RGB013,RGB016</t>
+    <t xml:space="preserve">RGB008,RGB006,RGB012,RGB015,RGB009,RGB018,RGB033,RGB007,RGB013,RGB016</t>
   </si>
   <si>
-    <t>Coke 450ml PET
+    <t xml:space="preserve">Coke 450ml PET
 Coke Zero 450ml PET
 Coke 500ml PET
 Coke Zero 500ml PET</t>
   </si>
   <si>
-    <t>8851959158012,8851959158074,8851959141014,8851959141076</t>
+    <t xml:space="preserve">8851959158012,8851959158074,8851959141014,8851959141076</t>
   </si>
   <si>
-    <t>Coke 590ml PET</t>
+    <t xml:space="preserve">Coke 590ml PET</t>
   </si>
   <si>
-    <t>8851959156018</t>
+    <t xml:space="preserve">8851959156018</t>
   </si>
   <si>
-    <t>Coke 1.25L PET
+    <t xml:space="preserve">Coke 1.25L PET
 Coke Zero 1.25L PET</t>
   </si>
   <si>
-    <t>8851959144015,8851959144077</t>
+    <t xml:space="preserve">8851959144015,8851959144077</t>
   </si>
   <si>
-    <t>Coke 1L RGB
+    <t xml:space="preserve">Coke 1L RGB
 Coke 1.25L PET
 Coke Zero 1.25L PET</t>
   </si>
   <si>
-    <t>RGB004,8851959144015,8851959144077</t>
+    <t xml:space="preserve">RGB004,8851959144015,8851959144077</t>
   </si>
   <si>
-    <t>Splash Orange 250ml NRGB
+    <t xml:space="preserve">Splash Orange 250ml NRGB
 Splash Orange 250ml RGB
 Splash Strawberry 250ml NRGB
 Minute Maid Splash Orange 280 ml PET
@@ -429,17 +431,17 @@
 Splash Other</t>
   </si>
   <si>
-    <t>8851959122921,RGB019,8851959122525,8851959194928,8851959192924,Other0045</t>
+    <t xml:space="preserve">8851959122921,RGB019,8851959122525,8851959194928,8851959192924,Other0045</t>
   </si>
   <si>
-    <t>Minute Maid Vita Kids Orange 180ml Tetra
+    <t xml:space="preserve">Minute Maid Vita Kids Orange 180ml Tetra
 Minute Maid Vita Kids Orange And Mango 180ml Tetra</t>
   </si>
   <si>
-    <t>8851959192085, 8851959192092</t>
+    <t xml:space="preserve">8851959192085, 8851959192092</t>
   </si>
   <si>
-    <t>Splash Orange 250ml NRGB
+    <t xml:space="preserve">Splash Orange 250ml NRGB
 Splash Orange 250ml RGB
 Splash Strawberry 250ml NRGB
 Minute Maid Splash Orange 280 ml PET
@@ -457,10 +459,10 @@
 Splash Other</t>
   </si>
   <si>
-    <t>8851959122921,RGB019,8851959122525,8851959194928,8851959140789,8851959148952,8851959140970,8851959148976,8851959140949,8851959148945,8851959140772,8851959195604,8851959192924,Other0033,Other0045</t>
+    <t xml:space="preserve">8851959122921,RGB019,8851959122525,8851959194928,8851959140789,8851959148952,8851959140970,8851959148976,8851959140949,8851959148945,8851959140772,8851959195604,8851959192924,Other0033,Other0045</t>
   </si>
   <si>
-    <t>Minute Maid Pulpy Apple 290ml PET
+    <t xml:space="preserve">Minute Maid Pulpy Apple 290ml PET
 Minute Maid Pulpy Mango Orange 335ml PET
 Minute Maid Pulpy Mix Fruits 290ml PET
 Minute Maid Pulpy Mix Fruits 335ml PET
@@ -472,750 +474,753 @@
 Minute Maid Pulpy Other</t>
   </si>
   <si>
-    <t>8851959140789,8851959148952,8851959140970,8851959148976,8851959140949,8851959148945,8851959140772,8851959195604,Other0033</t>
+    <t xml:space="preserve">8851959140789,8851959148952,8851959140970,8851959148976,8851959140949,8851959148945,8851959140772,8851959195604,Other0033</t>
   </si>
   <si>
-    <t>Aquarius 340ml PET
+    <t xml:space="preserve">Aquarius 340ml PET
 Aquarius 350ml PET
 Aquarius Other</t>
   </si>
   <si>
-    <t>8851959181423,8851959145425,Other0005</t>
+    <t xml:space="preserve">8851959181423,8851959145425,Other0005</t>
   </si>
   <si>
-    <t>Namthip 550ml PET</t>
+    <t xml:space="preserve">Namthip 550ml PET</t>
   </si>
   <si>
-    <t>Survey Question Relevance Per Store Type Per Regions, Store Type and Addtional Attr2 (Y or N - N do not run KPI)</t>
+    <t xml:space="preserve">Survey Question Relevance Per Store Type Per Regions, Store Type and Addtional Attr2 (Y or N - N do not run KPI)</t>
   </si>
   <si>
-    <t>Survey Q Text</t>
+    <t xml:space="preserve">Survey Q Text</t>
   </si>
   <si>
-    <t>Accepted Answer</t>
+    <t xml:space="preserve">Accepted Answer</t>
   </si>
   <si>
-    <t>1. มีโค้ก 280 มล.หรือ 422 มล. 12 ขวด?</t>
+    <t xml:space="preserve">มีสินค้า CC 10/15Oz  อย่างน้อย 12 ขวด?</t>
   </si>
   <si>
-    <t>มี</t>
+    <t xml:space="preserve">มี</t>
   </si>
   <si>
-    <t>N</t>
+    <t xml:space="preserve">N</t>
   </si>
   <si>
-    <t>Y</t>
+    <t xml:space="preserve">Y</t>
   </si>
   <si>
-    <t>1. มีโค้ก 422 มล. 12 ขวด?</t>
+    <t xml:space="preserve">มีสินค้า CC 15 Oz  อย่างน้อย 12 ขวด?</t>
   </si>
   <si>
-    <t>1. มีสไปร์ท หรือ แฟนต้ารวม 280 หรือ 422 มล. 12 ขวด?</t>
+    <t xml:space="preserve">มีสินค้า Spite+Fanta 10/15 Oz  อย่างน้อย 12 ขวด?</t>
   </si>
   <si>
-    <t>1. มีโค้ก 450 มล. 12 ขวด?</t>
+    <t xml:space="preserve">CNS 240/325ml</t>
   </si>
   <si>
-    <t>1. มีโค้ก 590 มล. 12 ขวด?</t>
+    <t xml:space="preserve">มีสินค้า Coke No Sugar 240/325ml  อย่างน้อย 12 ขวด?</t>
   </si>
   <si>
-    <t>1. มีโค้ก 1.25ลิตร 12ขวด?</t>
+    <t xml:space="preserve">CNS 330/450ml</t>
   </si>
   <si>
-    <t>1. มีโค้ก 1ลิตร หรือ 1.25ลิตร 12 ขวด?</t>
+    <t xml:space="preserve">มีสินค้า Coke No Sugar 330/450ml  อย่างน้อย 12 ขวด?</t>
   </si>
   <si>
-    <t>มีสแปลชทุกชนิด  12 ขวด?</t>
+    <t xml:space="preserve">CC 450ml</t>
   </si>
   <si>
-    <t>มีสแปลชทุกชนิด  6  ขวด?</t>
+    <t xml:space="preserve">มีสินค้า CC 450 ml  อย่างน้อย 12 ขวด?</t>
   </si>
   <si>
-    <t>1. มี ไวตาคิดส์ 12 กล่อง?</t>
+    <t xml:space="preserve">มีสินค้า CC 590ml  อย่างน้อย 12 ขวด?</t>
   </si>
   <si>
-    <t>1. มี ไวตาคิดส์ 6 กล่อง?</t>
+    <t xml:space="preserve">มีสินค้า CC 1.25L  อย่างน้อย 12 ขวด?</t>
   </si>
   <si>
-    <t>มีสแปลช และ มินิเมทพัลพี รวม 12 ขวด?</t>
+    <t xml:space="preserve">มีสินค้า CC 1/1.25L  อย่างน้อย 12 ขวด?</t>
   </si>
   <si>
-    <t>มีสแปลช และ มินิเมทพัลพี รวม 6 ขวด?</t>
+    <t xml:space="preserve">มีสินค้า Splash All  อย่างน้อย 12 ขวด?</t>
   </si>
   <si>
-    <t>1. มีมินิเมทพัลพี 290 มล.หรือ 300 มล. รวม 12 ขวด?</t>
+    <t xml:space="preserve">มีสินค้า Splash All  อย่างน้อย 6 ขวด?</t>
   </si>
   <si>
-    <t>มี,ม</t>
+    <t xml:space="preserve">มีสินค้า Splash/Pulpy All  อย่างน้อย 12 ขวด?</t>
   </si>
   <si>
-    <t>1. มีมินิเมทพัลพี 290 มล. หรือ 300 มล. รวม 6 ขวด?</t>
+    <t xml:space="preserve">มีสินค้า Splash/Pulpy All  อย่างน้อย 6 ขวด?</t>
   </si>
   <si>
-    <t>1. มี อควาเรียส 340มล. 6 ขวด?</t>
+    <t xml:space="preserve">มีสินค้า Pulpy All  อย่างน้อย 12 ขวด?</t>
   </si>
   <si>
-    <t>1. มีน้ำทิพย์ 550 มล. 12 ขวด?</t>
+    <t xml:space="preserve">มีสินค้า Pulpy All  อย่างน้อย 6 ขวด?</t>
   </si>
   <si>
-    <t>1. มีน้ำทิพย์ 550 มล. 6 ขวด?</t>
+    <t xml:space="preserve">มีสินค้า NT 550 ml  อย่างน้อย 12 ขวด?</t>
   </si>
   <si>
-    <t>Input Priority or N/A</t>
+    <t xml:space="preserve">มีสินค้า NT 550 ml  อย่างน้อย 6 ขวด?</t>
   </si>
   <si>
-    <t>KPI</t>
+    <t xml:space="preserve">Input Priority or N/A</t>
   </si>
   <si>
-    <t>Type_Numerator</t>
+    <t xml:space="preserve">KPI</t>
   </si>
   <si>
-    <t>Numerator</t>
+    <t xml:space="preserve">Type_Numerator</t>
   </si>
   <si>
-    <t>Type_Denominator</t>
+    <t xml:space="preserve">Numerator</t>
   </si>
   <si>
-    <t>Denominator</t>
+    <t xml:space="preserve">Type_Denominator</t>
   </si>
   <si>
-    <t>Facing Target</t>
+    <t xml:space="preserve">Denominator</t>
   </si>
   <si>
-    <t>remark</t>
+    <t xml:space="preserve">Facing Target</t>
   </si>
   <si>
-    <t>brand_name</t>
+    <t xml:space="preserve">remark</t>
   </si>
   <si>
-    <t>Coke,Coke light,Coke Zero</t>
+    <t xml:space="preserve">brand_name</t>
   </si>
   <si>
-    <t>all</t>
+    <t xml:space="preserve">Coke,Coke light,Coke Zero</t>
   </si>
   <si>
-    <t>All Facings (Including Irrelevant and Empty)</t>
+    <t xml:space="preserve">all</t>
   </si>
   <si>
-    <t>At least 8 Facings belonging Category "Still" and Manufactuer "Thainamthip" for each KO Cooler Scene</t>
+    <t xml:space="preserve">All Facings (Including Irrelevant and Empty)</t>
   </si>
   <si>
-    <t>product_name</t>
+    <t xml:space="preserve">At least 8 Facings belonging Category "Still" and Manufactuer "Thainamthip" for each KO Cooler Scene</t>
   </si>
   <si>
-    <t>Coke 1.5L PET,Coke 1.6 L PET,Coke 1.25L PET,Coke 1L RGB,Coke 2L PET,Coke Zero 1.25L PET</t>
+    <t xml:space="preserve">product_name</t>
   </si>
   <si>
-    <t>Coke,Coke light,Coke Zero,Pepsi,Pepsi Max,Pepsi Vivo,EST Cola,Big Cola,Big Cola Chocolate</t>
+    <t xml:space="preserve">Coke 1.5L PET,Coke 1.6 L PET,Coke 1.25L PET,Coke 1L RGB,Coke 2L PET,Coke Zero 1.25L PET</t>
   </si>
   <si>
-    <t>Coke,Coke light,Coke Zero,Sprite,A&amp;W,Schweppes,Fanta</t>
+    <t xml:space="preserve">Coke,Coke light,Coke Zero,Pepsi,Pepsi Max,Pepsi Vivo,EST Cola,Big Cola,Big Cola Chocolate</t>
   </si>
   <si>
-    <t>Coke,Fanta,Sprite,A&amp;W,Schweppes,Pepsi,Mirinda,7 Up,MountainDew,EST Cola,EST play,Big Cola,Coke light,Coke Zero,Big Aqua Sparkling Lime,Big Aqua Sparkling Peach,Big Coconut,Big Cola Chocolate,Big Fresh,Big Grape,Big Lemon Lime,Big Lime Soda,Big Mixed Fruit,Big Orange,Big Strawberry,EST clear,EST Orange,EST Sugar Free,Pepsi Max,Pepsi Vivo</t>
+    <t xml:space="preserve">Coke,Coke light,Coke Zero,Sprite,A&amp;W,Schweppes,Fanta</t>
   </si>
   <si>
-    <t>Question Group</t>
+    <t xml:space="preserve">Coke,Fanta,Sprite,A&amp;W,Schweppes,Pepsi,Mirinda,7 Up,MountainDew,EST Cola,EST play,Big Cola,Coke light,Coke Zero,Big Aqua Sparkling Lime,Big Aqua Sparkling Peach,Big Coconut,Big Cola Chocolate,Big Fresh,Big Grape,Big Lemon Lime,Big Lime Soda,Big Mixed Fruit,Big Orange,Big Strawberry,EST clear,EST Orange,EST Sugar Free,Pepsi Max,Pepsi Vivo</t>
   </si>
   <si>
-    <t>Question Type</t>
+    <t xml:space="preserve">Question Group</t>
   </si>
   <si>
-    <t>Question</t>
+    <t xml:space="preserve">Question Type</t>
   </si>
   <si>
-    <t>Thai Question</t>
+    <t xml:space="preserve">Question</t>
   </si>
   <si>
-    <t>Answer</t>
+    <t xml:space="preserve">Thai Question</t>
   </si>
   <si>
-    <t>Thai Answer</t>
+    <t xml:space="preserve">Answer</t>
   </si>
   <si>
-    <t>KO Cooler 1</t>
+    <t xml:space="preserve">Thai Answer</t>
   </si>
   <si>
-    <t>Is the Cooler Pure?</t>
+    <t xml:space="preserve">KO Cooler 1</t>
   </si>
   <si>
-    <t>1.มีผลิตภัณฑ์ของบริษัทเพียงอย่างเดียว?</t>
+    <t xml:space="preserve">Is the Cooler Pure?</t>
   </si>
   <si>
-    <t>Yes/No</t>
+    <t xml:space="preserve">1.มีผลิตภัณฑ์ของบริษัทเพียงอย่างเดียว?</t>
   </si>
   <si>
-    <t>ใช่/ไม่ใช่</t>
+    <t xml:space="preserve">Yes/No</t>
   </si>
   <si>
-    <t>KO Cooler 2</t>
+    <t xml:space="preserve">ใช่/ไม่ใช่</t>
   </si>
   <si>
-    <t>2.มีผลิตภัณฑ์ของบริษัทเพียงอย่างเดียว?</t>
+    <t xml:space="preserve">KO Cooler 2</t>
   </si>
   <si>
-    <t>KO Cooler 3</t>
+    <t xml:space="preserve">2.มีผลิตภัณฑ์ของบริษัทเพียงอย่างเดียว?</t>
   </si>
   <si>
-    <t>3.มีผลิตภัณฑ์ของบริษัทเพียงอย่างเดียว?</t>
+    <t xml:space="preserve">KO Cooler 3</t>
   </si>
   <si>
-    <t>KO Cooler 4</t>
+    <t xml:space="preserve">3.มีผลิตภัณฑ์ของบริษัทเพียงอย่างเดียว?</t>
   </si>
   <si>
-    <t>4.มีผลิตภัณฑ์ของบริษัทเพียงอย่างเดียว?</t>
+    <t xml:space="preserve">KO Cooler 4</t>
   </si>
   <si>
-    <t>KO Cooler 5</t>
+    <t xml:space="preserve">4.มีผลิตภัณฑ์ของบริษัทเพียงอย่างเดียว?</t>
   </si>
   <si>
-    <t>5.มีผลิตภัณฑ์ของบริษัทเพียงอย่างเดียว?</t>
+    <t xml:space="preserve">KO Cooler 5</t>
   </si>
   <si>
-    <t>csd</t>
+    <t xml:space="preserve">5.มีผลิตภัณฑ์ของบริษัทเพียงอย่างเดียว?</t>
   </si>
   <si>
-    <t>Does the Store have all CSD Price tag in KO Cooler?</t>
+    <t xml:space="preserve">csd</t>
   </si>
   <si>
-    <t>1.มีป้ายราคาสินค้า CSD ในตู้เย็นครบ?</t>
+    <t xml:space="preserve">Does the Store have all CSD Price tag in KO Cooler?</t>
   </si>
   <si>
-    <t>Yes/No/Not Applicable</t>
+    <t xml:space="preserve">1.มีป้ายราคาสินค้า CSD ในตู้เย็นครบ?</t>
   </si>
   <si>
-    <t>ผ่าน/ไม่ผ่าน/ไม่มีสินค้า</t>
+    <t xml:space="preserve">Yes/No/Not Applicable</t>
   </si>
   <si>
-    <t>still</t>
+    <t xml:space="preserve">ผ่าน/ไม่ผ่าน/ไม่มีสินค้า</t>
   </si>
   <si>
-    <t>Does the Store have all still Price tag in KO Cooler?</t>
+    <t xml:space="preserve">still</t>
   </si>
   <si>
-    <t>1.มีป้ายราคาสินค้า still ในตู้เย็นครบ?</t>
+    <t xml:space="preserve">Does the Store have all still Price tag in KO Cooler?</t>
   </si>
   <si>
-    <t>2.มีป้ายราคาสินค้า CSD ในตู้เย็นครบ?</t>
+    <t xml:space="preserve">1.มีป้ายราคาสินค้า still ในตู้เย็นครบ?</t>
   </si>
   <si>
-    <t>2.มีป้ายราคาสินค้า still ในตู้เย็นครบ?</t>
+    <t xml:space="preserve">2.มีป้ายราคาสินค้า CSD ในตู้เย็นครบ?</t>
   </si>
   <si>
-    <t>3.มีป้ายราคาสินค้า CSD ในตู้เย็นครบ?</t>
+    <t xml:space="preserve">2.มีป้ายราคาสินค้า still ในตู้เย็นครบ?</t>
   </si>
   <si>
-    <t>3.มีป้ายราคาสินค้า still ในตู้เย็นครบ?</t>
+    <t xml:space="preserve">3.มีป้ายราคาสินค้า CSD ในตู้เย็นครบ?</t>
   </si>
   <si>
-    <t>4.มีป้ายราคาสินค้า CSD ในตู้เย็นครบ?</t>
+    <t xml:space="preserve">3.มีป้ายราคาสินค้า still ในตู้เย็นครบ?</t>
   </si>
   <si>
-    <t>4.มีป้ายราคาสินค้า still ในตู้เย็นครบ?</t>
+    <t xml:space="preserve">4.มีป้ายราคาสินค้า CSD ในตู้เย็นครบ?</t>
   </si>
   <si>
-    <t>5.มีป้ายราคาสินค้า CSD ในตู้เย็นครบ?</t>
+    <t xml:space="preserve">4.มีป้ายราคาสินค้า still ในตู้เย็นครบ?</t>
   </si>
   <si>
-    <t>5.มีป้ายราคาสินค้า still ในตู้เย็นครบ?</t>
+    <t xml:space="preserve">5.มีป้ายราคาสินค้า CSD ในตู้เย็นครบ?</t>
   </si>
   <si>
-    <t>Does the KO Cooler pass the 1st position?</t>
+    <t xml:space="preserve">5.มีป้ายราคาสินค้า still ในตู้เย็นครบ?</t>
   </si>
   <si>
-    <t>1. Cooler อยู่ในตำแหน่ง First Position?</t>
+    <t xml:space="preserve">Does the KO Cooler pass the 1st position?</t>
   </si>
   <si>
-    <t>Does the KO Cooler pass the hot spot?</t>
+    <t xml:space="preserve">1. Cooler อยู่ในตำแหน่ง First Position?</t>
   </si>
   <si>
-    <t>1. Cooler อยู่ในพื้นที่ 1 ใน 3 ของร้านค้าหรือไม่?</t>
+    <t xml:space="preserve">Does the KO Cooler pass the hot spot?</t>
   </si>
   <si>
-    <t>2. Cooler อยู่ในตำแหน่ง First Position?</t>
+    <t xml:space="preserve">1. Cooler อยู่ในพื้นที่ 1 ใน 3 ของร้านค้าหรือไม่?</t>
   </si>
   <si>
-    <t>2. Cooler อยู่ในพื้นที่ 1 ใน 3 ของร้านค้าหรือไม่?</t>
+    <t xml:space="preserve">2. Cooler อยู่ในตำแหน่ง First Position?</t>
   </si>
   <si>
-    <t>3. Cooler อยู่ในตำแหน่ง First Position?</t>
+    <t xml:space="preserve">2. Cooler อยู่ในพื้นที่ 1 ใน 3 ของร้านค้าหรือไม่?</t>
   </si>
   <si>
-    <t>3. Cooler อยู่ในพื้นที่ 1 ใน 3 ของร้านค้าหรือไม่?</t>
+    <t xml:space="preserve">3. Cooler อยู่ในตำแหน่ง First Position?</t>
   </si>
   <si>
-    <t>4. Cooler อยู่ในตำแหน่ง First Position?</t>
+    <t xml:space="preserve">3. Cooler อยู่ในพื้นที่ 1 ใน 3 ของร้านค้าหรือไม่?</t>
   </si>
   <si>
-    <t>4. Cooler อยู่ในพื้นที่ 1 ใน 3 ของร้านค้าหรือไม่?</t>
+    <t xml:space="preserve">4. Cooler อยู่ในตำแหน่ง First Position?</t>
   </si>
   <si>
-    <t>5. Cooler อยู่ในตำแหน่ง First Position?</t>
+    <t xml:space="preserve">4. Cooler อยู่ในพื้นที่ 1 ใน 3 ของร้านค้าหรือไม่?</t>
   </si>
   <si>
-    <t>5. Cooler อยู่ในพื้นที่ 1 ใน 3 ของร้านค้าหรือไม่?</t>
+    <t xml:space="preserve">5. Cooler อยู่ในตำแหน่ง First Position?</t>
   </si>
   <si>
-    <t>KO Rack 1</t>
+    <t xml:space="preserve">5. Cooler อยู่ในพื้นที่ 1 ใน 3 ของร้านค้าหรือไม่?</t>
   </si>
   <si>
-    <t>Is the Rack Pure?</t>
+    <t xml:space="preserve">KO Rack 1</t>
   </si>
   <si>
-    <t>KO Rack 2</t>
+    <t xml:space="preserve">Is the Rack Pure?</t>
   </si>
   <si>
-    <t>KO Rack 3</t>
+    <t xml:space="preserve">KO Rack 2</t>
   </si>
   <si>
-    <t>KO Rack 4</t>
+    <t xml:space="preserve">KO Rack 3</t>
   </si>
   <si>
-    <t>KO Rack 5</t>
+    <t xml:space="preserve">KO Rack 4</t>
   </si>
   <si>
-    <t>KO Rack 6</t>
+    <t xml:space="preserve">KO Rack 5</t>
   </si>
   <si>
-    <t>6.มีผลิตภัณฑ์ของบริษัทเพียงอย่างเดียว?</t>
+    <t xml:space="preserve">KO Rack 6</t>
   </si>
   <si>
-    <t>KO Rack 7</t>
+    <t xml:space="preserve">6.มีผลิตภัณฑ์ของบริษัทเพียงอย่างเดียว?</t>
   </si>
   <si>
-    <t>7.มีผลิตภัณฑ์ของบริษัทเพียงอย่างเดียว?</t>
+    <t xml:space="preserve">KO Rack 7</t>
   </si>
   <si>
-    <t>KO Rack 8</t>
+    <t xml:space="preserve">7.มีผลิตภัณฑ์ของบริษัทเพียงอย่างเดียว?</t>
   </si>
   <si>
-    <t>8.มีผลิตภัณฑ์ของบริษัทเพียงอย่างเดียว?</t>
+    <t xml:space="preserve">KO Rack 8</t>
   </si>
   <si>
-    <t>KO Rack 9</t>
+    <t xml:space="preserve">8.มีผลิตภัณฑ์ของบริษัทเพียงอย่างเดียว?</t>
   </si>
   <si>
-    <t>9.มีผลิตภัณฑ์ของบริษัทเพียงอย่างเดียว?</t>
+    <t xml:space="preserve">KO Rack 9</t>
   </si>
   <si>
-    <t>KO Rack 10</t>
+    <t xml:space="preserve">9.มีผลิตภัณฑ์ของบริษัทเพียงอย่างเดียว?</t>
   </si>
   <si>
-    <t>10.มีผลิตภัณฑ์ของบริษัทเพียงอย่างเดียว?</t>
+    <t xml:space="preserve">KO Rack 10</t>
   </si>
   <si>
-    <t>Does the Store have all CSD Price tag in KO Rack?</t>
+    <t xml:space="preserve">10.มีผลิตภัณฑ์ของบริษัทเพียงอย่างเดียว?</t>
   </si>
   <si>
-    <t>1.มีป้ายราคาสินค้า CSD บนชั้นโชว์ครบ?</t>
+    <t xml:space="preserve">Does the Store have all CSD Price tag in KO Rack?</t>
   </si>
   <si>
-    <t>Does the Store have all still Price tag in KO Rack?</t>
+    <t xml:space="preserve">1.มีป้ายราคาสินค้า CSD บนชั้นโชว์ครบ?</t>
   </si>
   <si>
-    <t>1.มีป้ายราคาสินค้า still บนชั้นโชว์ครบ?</t>
+    <t xml:space="preserve">Does the Store have all still Price tag in KO Rack?</t>
   </si>
   <si>
-    <t>2.มีป้ายราคาสินค้า CSD บนชั้นโชว์ครบ?</t>
+    <t xml:space="preserve">1.มีป้ายราคาสินค้า still บนชั้นโชว์ครบ?</t>
   </si>
   <si>
-    <t>2.มีป้ายราคาสินค้า still บนชั้นโชว์ครบ?</t>
+    <t xml:space="preserve">2.มีป้ายราคาสินค้า CSD บนชั้นโชว์ครบ?</t>
   </si>
   <si>
-    <t>3.มีป้ายราคาสินค้า CSD บนชั้นโชว์ครบ?</t>
+    <t xml:space="preserve">2.มีป้ายราคาสินค้า still บนชั้นโชว์ครบ?</t>
   </si>
   <si>
-    <t>3.มีป้ายราคาสินค้า still บนชั้นโชว์ครบ?</t>
+    <t xml:space="preserve">3.มีป้ายราคาสินค้า CSD บนชั้นโชว์ครบ?</t>
   </si>
   <si>
-    <t>4.มีป้ายราคาสินค้า CSD บนชั้นโชว์ครบ?</t>
+    <t xml:space="preserve">3.มีป้ายราคาสินค้า still บนชั้นโชว์ครบ?</t>
   </si>
   <si>
-    <t>4.มีป้ายราคาสินค้า still บนชั้นโชว์ครบ?</t>
+    <t xml:space="preserve">4.มีป้ายราคาสินค้า CSD บนชั้นโชว์ครบ?</t>
   </si>
   <si>
-    <t>5.มีป้ายราคาสินค้า CSD บนชั้นโชว์ครบ?</t>
+    <t xml:space="preserve">4.มีป้ายราคาสินค้า still บนชั้นโชว์ครบ?</t>
   </si>
   <si>
-    <t>5.มีป้ายราคาสินค้า still บนชั้นโชว์ครบ?</t>
+    <t xml:space="preserve">5.มีป้ายราคาสินค้า CSD บนชั้นโชว์ครบ?</t>
   </si>
   <si>
-    <t>6.มีป้ายราคาสินค้า CSD บนชั้นโชว์ครบ?</t>
+    <t xml:space="preserve">5.มีป้ายราคาสินค้า still บนชั้นโชว์ครบ?</t>
   </si>
   <si>
-    <t>6.มีป้ายราคาสินค้า still บนชั้นโชว์ครบ?</t>
+    <t xml:space="preserve">6.มีป้ายราคาสินค้า CSD บนชั้นโชว์ครบ?</t>
   </si>
   <si>
-    <t>7.มีป้ายราคาสินค้า CSD บนชั้นโชว์ครบ?</t>
+    <t xml:space="preserve">6.มีป้ายราคาสินค้า still บนชั้นโชว์ครบ?</t>
   </si>
   <si>
-    <t>7.มีป้ายราคาสินค้า still บนชั้นโชว์ครบ?</t>
+    <t xml:space="preserve">7.มีป้ายราคาสินค้า CSD บนชั้นโชว์ครบ?</t>
   </si>
   <si>
-    <t>8.มีป้ายราคาสินค้า CSD บนชั้นโชว์ครบ?</t>
+    <t xml:space="preserve">7.มีป้ายราคาสินค้า still บนชั้นโชว์ครบ?</t>
   </si>
   <si>
-    <t>8.มีป้ายราคาสินค้า still บนชั้นโชว์ครบ?</t>
+    <t xml:space="preserve">8.มีป้ายราคาสินค้า CSD บนชั้นโชว์ครบ?</t>
   </si>
   <si>
-    <t>9.มีป้ายราคาสินค้า CSD บนชั้นโชว์ครบ?</t>
+    <t xml:space="preserve">8.มีป้ายราคาสินค้า still บนชั้นโชว์ครบ?</t>
   </si>
   <si>
-    <t>9.มีป้ายราคาสินค้า still บนชั้นโชว์ครบ?</t>
+    <t xml:space="preserve">9.มีป้ายราคาสินค้า CSD บนชั้นโชว์ครบ?</t>
   </si>
   <si>
-    <t>10.มีป้ายราคาสินค้า CSD บนชั้นโชว์ครบ?</t>
+    <t xml:space="preserve">9.มีป้ายราคาสินค้า still บนชั้นโชว์ครบ?</t>
   </si>
   <si>
-    <t>10.มีป้ายราคาสินค้า still บนชั้นโชว์ครบ?</t>
+    <t xml:space="preserve">10.มีป้ายราคาสินค้า CSD บนชั้นโชว์ครบ?</t>
   </si>
   <si>
-    <t>Does the KO Rack pass the 1st position?</t>
+    <t xml:space="preserve">10.มีป้ายราคาสินค้า still บนชั้นโชว์ครบ?</t>
   </si>
   <si>
-    <t>1. Rack อยู่ในตำแหน่ง First Position?</t>
+    <t xml:space="preserve">Does the KO Rack pass the 1st position?</t>
   </si>
   <si>
-    <t>Does the KO Rack pass the hot spot?</t>
+    <t xml:space="preserve">1. Rack อยู่ในตำแหน่ง First Position?</t>
   </si>
   <si>
-    <t>1. Rack อยู่ในพื้นที่ 1 ใน 3 ของร้านค้าหรือไม่?</t>
+    <t xml:space="preserve">Does the KO Rack pass the hot spot?</t>
   </si>
   <si>
-    <t>2. Rack อยู่ในตำแหน่ง First Position?</t>
+    <t xml:space="preserve">1. Rack อยู่ในพื้นที่ 1 ใน 3 ของร้านค้าหรือไม่?</t>
   </si>
   <si>
-    <t>2. Rack อยู่ในพื้นที่ 1 ใน 3 ของร้านค้าหรือไม่?</t>
+    <t xml:space="preserve">2. Rack อยู่ในตำแหน่ง First Position?</t>
   </si>
   <si>
-    <t>3. Rack อยู่ในตำแหน่ง First Position?</t>
+    <t xml:space="preserve">2. Rack อยู่ในพื้นที่ 1 ใน 3 ของร้านค้าหรือไม่?</t>
   </si>
   <si>
-    <t>3. Rack อยู่ในพื้นที่ 1 ใน 3 ของร้านค้าหรือไม่?</t>
+    <t xml:space="preserve">3. Rack อยู่ในตำแหน่ง First Position?</t>
   </si>
   <si>
-    <t>4. Rack อยู่ในตำแหน่ง First Position?</t>
+    <t xml:space="preserve">3. Rack อยู่ในพื้นที่ 1 ใน 3 ของร้านค้าหรือไม่?</t>
   </si>
   <si>
-    <t>4. Rack อยู่ในพื้นที่ 1 ใน 3 ของร้านค้าหรือไม่?</t>
+    <t xml:space="preserve">4. Rack อยู่ในตำแหน่ง First Position?</t>
   </si>
   <si>
-    <t>5. Rack อยู่ในตำแหน่ง First Position?</t>
+    <t xml:space="preserve">4. Rack อยู่ในพื้นที่ 1 ใน 3 ของร้านค้าหรือไม่?</t>
   </si>
   <si>
-    <t>5. Rack อยู่ในพื้นที่ 1 ใน 3 ของร้านค้าหรือไม่?</t>
+    <t xml:space="preserve">5. Rack อยู่ในตำแหน่ง First Position?</t>
   </si>
   <si>
-    <t>6. Rack อยู่ในตำแหน่ง First Position?</t>
+    <t xml:space="preserve">5. Rack อยู่ในพื้นที่ 1 ใน 3 ของร้านค้าหรือไม่?</t>
   </si>
   <si>
-    <t>6. Rack อยู่ในพื้นที่ 1 ใน 3 ของร้านค้าหรือไม่?</t>
+    <t xml:space="preserve">6. Rack อยู่ในตำแหน่ง First Position?</t>
   </si>
   <si>
-    <t>7. Rack อยู่ในตำแหน่ง First Position?</t>
+    <t xml:space="preserve">6. Rack อยู่ในพื้นที่ 1 ใน 3 ของร้านค้าหรือไม่?</t>
   </si>
   <si>
-    <t>7. Rack อยู่ในพื้นที่ 1 ใน 3 ของร้านค้าหรือไม่?</t>
+    <t xml:space="preserve">7. Rack อยู่ในตำแหน่ง First Position?</t>
   </si>
   <si>
-    <t>8. Rack อยู่ในตำแหน่ง First Position?</t>
+    <t xml:space="preserve">7. Rack อยู่ในพื้นที่ 1 ใน 3 ของร้านค้าหรือไม่?</t>
   </si>
   <si>
-    <t>8. Rack อยู่ในพื้นที่ 1 ใน 3 ของร้านค้าหรือไม่?</t>
+    <t xml:space="preserve">8. Rack อยู่ในตำแหน่ง First Position?</t>
   </si>
   <si>
-    <t>9. Rack อยู่ในตำแหน่ง First Position?</t>
+    <t xml:space="preserve">8. Rack อยู่ในพื้นที่ 1 ใน 3 ของร้านค้าหรือไม่?</t>
   </si>
   <si>
-    <t>9. Rack อยู่ในพื้นที่ 1 ใน 3 ของร้านค้าหรือไม่?</t>
+    <t xml:space="preserve">9. Rack อยู่ในตำแหน่ง First Position?</t>
   </si>
   <si>
-    <t>10. Rack อยู่ในตำแหน่ง First Position?</t>
+    <t xml:space="preserve">9. Rack อยู่ในพื้นที่ 1 ใน 3 ของร้านค้าหรือไม่?</t>
   </si>
   <si>
-    <t>10. Rack อยู่ในพื้นที่ 1 ใน 3 ของร้านค้าหรือไม่?</t>
+    <t xml:space="preserve">10. Rack อยู่ในตำแหน่ง First Position?</t>
   </si>
   <si>
-    <t>Customer Cooler 1</t>
+    <t xml:space="preserve">10. Rack อยู่ในพื้นที่ 1 ใน 3 ของร้านค้าหรือไม่?</t>
   </si>
   <si>
-    <t>Have Thainamthip product at least 1 door?</t>
+    <t xml:space="preserve">Customer Cooler 1</t>
   </si>
   <si>
-    <t>1.มีสินค้าของไทยน้ำทิพย์อย่างน้อย 1 บาน</t>
+    <t xml:space="preserve">Have Thainamthip product at least 1 door?</t>
   </si>
   <si>
-    <t>Customer Cooler 2</t>
+    <t xml:space="preserve">1.มีสินค้าของไทยน้ำทิพย์อย่างน้อย 1 บาน</t>
   </si>
   <si>
-    <t>2.มีสินค้าของไทยน้ำทิพย์อย่างน้อย 1 บาน</t>
+    <t xml:space="preserve">Customer Cooler 2</t>
   </si>
   <si>
-    <t>Customer Cooler 3</t>
+    <t xml:space="preserve">2.มีสินค้าของไทยน้ำทิพย์อย่างน้อย 1 บาน</t>
   </si>
   <si>
-    <t>3.มีสินค้าของไทยน้ำทิพย์อย่างน้อย 1 บาน</t>
+    <t xml:space="preserve">Customer Cooler 3</t>
   </si>
   <si>
-    <t>Customer Cooler 4</t>
+    <t xml:space="preserve">3.มีสินค้าของไทยน้ำทิพย์อย่างน้อย 1 บาน</t>
   </si>
   <si>
-    <t>4.มีสินค้าของไทยน้ำทิพย์อย่างน้อย 1 บาน</t>
+    <t xml:space="preserve">Customer Cooler 4</t>
   </si>
   <si>
-    <t>Customer Cooler 5</t>
+    <t xml:space="preserve">4.มีสินค้าของไทยน้ำทิพย์อย่างน้อย 1 บาน</t>
   </si>
   <si>
-    <t>5.มีสินค้าของไทยน้ำทิพย์อย่างน้อย 1 บาน</t>
+    <t xml:space="preserve">Customer Cooler 5</t>
   </si>
   <si>
-    <t>Have at least 2 Still Shelves?</t>
+    <t xml:space="preserve">5.มีสินค้าของไทยน้ำทิพย์อย่างน้อย 1 บาน</t>
   </si>
   <si>
-    <t>1.มีสินค้า still อย่างน้อย 2 ชั้น</t>
+    <t xml:space="preserve">Have at least 2 Still Shelves?</t>
   </si>
   <si>
-    <t>2.มีสินค้า still อย่างน้อย 2 ชั้น</t>
+    <t xml:space="preserve">1.มีสินค้า still อย่างน้อย 2 ชั้น</t>
   </si>
   <si>
-    <t>3.มีสินค้า still อย่างน้อย 2 ชั้น</t>
+    <t xml:space="preserve">2.มีสินค้า still อย่างน้อย 2 ชั้น</t>
   </si>
   <si>
-    <t>4.มีสินค้า still อย่างน้อย 2 ชั้น</t>
+    <t xml:space="preserve">3.มีสินค้า still อย่างน้อย 2 ชั้น</t>
   </si>
   <si>
-    <t>5.มีสินค้า still อย่างน้อย 2 ชั้น</t>
+    <t xml:space="preserve">4.มีสินค้า still อย่างน้อย 2 ชั้น</t>
   </si>
   <si>
-    <t>Does the Store have all CSD Price tag in Trader Cooler?</t>
+    <t xml:space="preserve">5.มีสินค้า still อย่างน้อย 2 ชั้น</t>
   </si>
   <si>
-    <t>Does the Store have all still Price tag in Trader Cooler?</t>
+    <t xml:space="preserve">Does the Store have all CSD Price tag in Trader Cooler?</t>
   </si>
   <si>
-    <t>Scene Types</t>
+    <t xml:space="preserve">Does the Store have all still Price tag in Trader Cooler?</t>
   </si>
   <si>
-    <t>KO Cooler C250</t>
+    <t xml:space="preserve">Scene Types</t>
   </si>
   <si>
-    <t>Cold</t>
+    <t xml:space="preserve">KO Cooler C250</t>
   </si>
   <si>
-    <t>KO Cooler C260</t>
+    <t xml:space="preserve">Cold</t>
   </si>
   <si>
-    <t>KO Cooler C300</t>
+    <t xml:space="preserve">KO Cooler C260</t>
   </si>
   <si>
-    <t>Ko Cooler C400</t>
+    <t xml:space="preserve">KO Cooler C300</t>
   </si>
   <si>
-    <t>KO Cooler C511</t>
+    <t xml:space="preserve">Ko Cooler C400</t>
   </si>
   <si>
-    <t>Ko Cooler C700</t>
+    <t xml:space="preserve">KO Cooler C511</t>
   </si>
   <si>
-    <t>KO Cooler C1000</t>
+    <t xml:space="preserve">Ko Cooler C700</t>
   </si>
   <si>
-    <t>KO Cooler other</t>
+    <t xml:space="preserve">KO Cooler C1000</t>
   </si>
   <si>
-    <t>Competitor Cooler</t>
+    <t xml:space="preserve">KO Cooler other</t>
   </si>
   <si>
-    <t>Customer Cooler</t>
+    <t xml:space="preserve">Competitor Cooler</t>
   </si>
   <si>
-    <t>Ice Chest</t>
+    <t xml:space="preserve">Customer Cooler</t>
   </si>
   <si>
-    <t>Ice Cooler</t>
+    <t xml:space="preserve">Ice Chest</t>
   </si>
   <si>
-    <t>Warm space</t>
+    <t xml:space="preserve">Ice Cooler</t>
   </si>
   <si>
-    <t>KO BC Rack Center</t>
+    <t xml:space="preserve">Warm space</t>
   </si>
   <si>
-    <t>Warm</t>
+    <t xml:space="preserve">KO BC Rack Center</t>
   </si>
   <si>
-    <t>KO Lego Rack</t>
+    <t xml:space="preserve">Warm</t>
   </si>
   <si>
-    <t>KO White Rack</t>
+    <t xml:space="preserve">KO Lego Rack</t>
   </si>
   <si>
-    <t>KO PM Rack</t>
+    <t xml:space="preserve">KO White Rack</t>
   </si>
   <si>
-    <t>KO Rack Other</t>
+    <t xml:space="preserve">KO PM Rack</t>
   </si>
   <si>
-    <t>Competitor Rack</t>
+    <t xml:space="preserve">KO Rack Other</t>
   </si>
   <si>
-    <t>Customer Shelf</t>
+    <t xml:space="preserve">Competitor Rack</t>
   </si>
   <si>
-    <t>Table</t>
+    <t xml:space="preserve">Customer Shelf</t>
   </si>
   <si>
-    <t>Rack on table</t>
+    <t xml:space="preserve">Table</t>
   </si>
   <si>
-    <t>KO Floor Display</t>
+    <t xml:space="preserve">Rack on table</t>
   </si>
   <si>
-    <t>Segmentation</t>
+    <t xml:space="preserve">KO Floor Display</t>
   </si>
   <si>
-    <t>Cooler</t>
+    <t xml:space="preserve">Segmentation</t>
   </si>
   <si>
-    <t>Rack</t>
+    <t xml:space="preserve">Cooler</t>
   </si>
   <si>
-    <t>Gold &amp; Hipo</t>
+    <t xml:space="preserve">Rack</t>
   </si>
   <si>
-    <t>Must</t>
+    <t xml:space="preserve">Gold &amp; Hipo</t>
   </si>
   <si>
-    <t>Conditional</t>
+    <t xml:space="preserve">Must</t>
   </si>
   <si>
-    <t>Silver &amp; Bronze</t>
+    <t xml:space="preserve">Conditional</t>
   </si>
   <si>
-    <t>Atomic</t>
+    <t xml:space="preserve">Silver &amp; Bronze</t>
   </si>
   <si>
-    <t>Calculation Source</t>
+    <t xml:space="preserve">Atomic</t>
   </si>
   <si>
-    <t>Criteria</t>
+    <t xml:space="preserve">Calculation Source</t>
   </si>
   <si>
-    <t>Weight</t>
+    <t xml:space="preserve">Criteria</t>
   </si>
   <si>
-    <t>Remarks</t>
+    <t xml:space="preserve">Weight</t>
   </si>
   <si>
-    <t>See BPPC_Availability</t>
+    <t xml:space="preserve">Remarks</t>
   </si>
   <si>
-    <t>Recognition and Surveys</t>
+    <t xml:space="preserve">See BPPC_Availability</t>
   </si>
   <si>
-    <t>No Change in Criteria</t>
+    <t xml:space="preserve">Recognition and Surveys</t>
   </si>
   <si>
-    <t>Regular Red SCORE</t>
+    <t xml:space="preserve">No Change in Criteria</t>
   </si>
   <si>
-    <t>Surveys</t>
+    <t xml:space="preserve">Regular Red SCORE</t>
   </si>
   <si>
-    <t>All 'Yes' answers to Specific Question on any answered Question Group (KO Cooler 1-5) - (See Survey Questions)</t>
+    <t xml:space="preserve">Surveys</t>
   </si>
   <si>
-    <t>Recognition</t>
+    <t xml:space="preserve">All 'Yes' answers to Specific Question on any answered Question Group (KO Cooler 1-5) - (See Survey Questions)</t>
   </si>
   <si>
-    <t>SOVI &gt;= 50% (see SOVI Calculation Tab) for each KO Cooler Scene</t>
+    <t xml:space="preserve">Recognition</t>
   </si>
   <si>
-    <t>Minimum Still</t>
+    <t xml:space="preserve">SOVI &gt;= 50% (see SOVI Calculation Tab) for each KO Cooler Scene</t>
   </si>
   <si>
-    <t>All 'Yes' answers to Specific Question,
+    <t xml:space="preserve">Minimum Still</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All 'Yes' answers to Specific Question,
 or answers are in combination of 'Yes' and 'Not Applicable' on any answered Question Group (KO Cooler 1-5) - (See Survey Questions)
 Note: KPI fails on below conditions:
 1. There is at least 1 'No' Answer.
 2. All answers are 'Not Applicable'.</t>
   </si>
   <si>
-    <t>1st Position/Hotspot</t>
+    <t xml:space="preserve">1st Position/Hotspot</t>
   </si>
   <si>
-    <t>At least 1 'Yes' answer out of 2 questions per Question Group (KO Rack 1-10) - (See Survey Questions)</t>
+    <t xml:space="preserve">At least 1 'Yes' answer out of 2 questions per Question Group (KO Rack 1-10) - (See Survey Questions)</t>
   </si>
   <si>
-    <t>All 'Yes' answers to Specific Question on any answered Question Group (KO Rack 1-10) - (See Survey Questions)</t>
+    <t xml:space="preserve">All 'Yes' answers to Specific Question on any answered Question Group (KO Rack 1-10) - (See Survey Questions)</t>
   </si>
   <si>
-    <t>SOVI &gt;= 50% (see SOVI Calculation Tab) for each KO Rack Scene</t>
+    <t xml:space="preserve">SOVI &gt;= 50% (see SOVI Calculation Tab) for each KO Rack Scene</t>
   </si>
   <si>
-    <t>All 'Yes' answers to Specific Question,
+    <t xml:space="preserve">All 'Yes' answers to Specific Question,
 or answers are in combination of 'Yes' and 'Not Applicable' on any answered Question Group (KO Rack 1-5) - (See Survey Questions)
 Note: KPI fails on below conditions:
 1. There is at least 1 'No' Answer.
 2. All answers are 'Not Applicable'.</t>
   </si>
   <si>
-    <t>SOVI &gt;= 60% (see SOVI Calculation Tab)</t>
+    <t xml:space="preserve">SOVI &gt;= 60% (see SOVI Calculation Tab)</t>
   </si>
   <si>
-    <t>"Yes" at least one question group</t>
+    <t xml:space="preserve">"Yes" at least one question group</t>
   </si>
   <si>
-    <t>Bonus Point (Added to score)
+    <t xml:space="preserve">Bonus Point (Added to score)
 Maximum Total Red Score = 100%</t>
   </si>
   <si>
-    <t>At least 1 group should have either below answer combination:
+    <t xml:space="preserve">At least 1 group should have either below answer combination:
 1. Both Yes
 2. Yes and Not Applicable
 See Questions at "Survey Question' Tab</t>
   </si>
   <si>
-    <t>Gap Priority</t>
+    <t xml:space="preserve">Gap Priority</t>
   </si>
   <si>
-    <t>Priority</t>
+    <t xml:space="preserve">Priority</t>
   </si>
   <si>
-    <t>Bonus Point Calculation</t>
+    <t xml:space="preserve">Bonus Point Calculation</t>
   </si>
   <si>
-    <t>Total Maximum Score (from Regular Red Score)</t>
+    <t xml:space="preserve">Total Maximum Score (from Regular Red Score)</t>
   </si>
   <si>
-    <t>Store</t>
+    <t xml:space="preserve">Store</t>
   </si>
   <si>
-    <t>Segment</t>
+    <t xml:space="preserve">Segment</t>
   </si>
   <si>
-    <t>Total</t>
+    <t xml:space="preserve">Total</t>
   </si>
   <si>
-    <t>Red Score</t>
+    <t xml:space="preserve">Red Score</t>
   </si>
   <si>
-    <t>Store 1</t>
+    <t xml:space="preserve">Store 1</t>
   </si>
   <si>
-    <t>Gold</t>
+    <t xml:space="preserve">Gold</t>
   </si>
   <si>
-    <t>=75/100 = 75%</t>
+    <t xml:space="preserve">=75/100 = 75%</t>
   </si>
   <si>
-    <t>Store 2</t>
+    <t xml:space="preserve">Store 2</t>
   </si>
   <si>
-    <t>Silver</t>
+    <t xml:space="preserve">Silver</t>
   </si>
   <si>
-    <t>=100%(Maximum score)</t>
+    <t xml:space="preserve">=100%(Maximum score)</t>
   </si>
 </sst>
 </file>
@@ -1223,7 +1228,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="0%"/>
     <numFmt numFmtId="167" formatCode="#,##0.00"/>
@@ -1635,13 +1640,6 @@
     <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right/>
       <top style="thin"/>
       <bottom style="medium"/>
       <diagonal/>
@@ -1658,6 +1656,13 @@
       <right style="medium"/>
       <top style="medium"/>
       <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -1753,7 +1758,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="290">
+  <cellXfs count="272">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2327,15 +2332,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2346,95 +2347,47 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="10" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="10" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="10" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="10" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="10" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="10" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="10" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="10" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="10" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="10" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="10" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="10" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="10" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="8" fillId="8" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="8" fillId="8" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="8" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2454,10 +2407,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="11" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2471,14 +2420,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="11" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="10" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2502,16 +2443,8 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="10" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="10" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2694,7 +2627,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2710,7 +2643,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2718,7 +2651,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2726,7 +2659,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2742,7 +2675,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3005,7 +2938,7 @@
   </sheetPr>
   <dimension ref="1:53"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="C46" activeCellId="0" sqref="C46"/>
@@ -3013,21 +2946,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="71.2348178137652"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="31.7085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="76.6963562753036"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="54.3076923076923"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="33.7408906882591"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="71.8785425101215"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="31.9230769230769"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="77.3400809716599"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="54.7368421052632"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="34.0647773279352"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="22.3886639676113"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="2" width="11.7813765182186"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="24.9595141700405"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="2" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="21.1012145748988"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="2" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="31.9230769230769"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="32.1376518218623"/>
     <col collapsed="false" hidden="false" max="1020" min="17" style="2" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1021" style="0" width="9.10526315789474"/>
   </cols>
@@ -38869,7 +38802,7 @@
       <c r="AMJ53" s="106"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P45"/>
+  <autoFilter ref="A1:P1"/>
   <conditionalFormatting sqref="E11">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
@@ -38900,9 +38833,9 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.5951417004049"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.919028340081"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="33.2064777327935"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.7125506072874"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="2" width="8.57085020242915"/>
@@ -39408,31 +39341,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:Q24"/>
+  <dimension ref="B1:Q23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="35.6720647773279"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="35.9919028340081"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="19.8178137651822"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="2" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="2" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="2" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="2" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="1025" min="18" style="2" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -39594,903 +39527,819 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="143" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="144" t="s">
         <v>126</v>
       </c>
-      <c r="D7" s="145" t="n">
-        <v>228</v>
-      </c>
-      <c r="E7" s="146" t="s">
+      <c r="D7" s="145"/>
+      <c r="E7" s="145" t="s">
         <v>127</v>
       </c>
-      <c r="F7" s="147" t="s">
+      <c r="F7" s="146" t="s">
         <v>128</v>
       </c>
-      <c r="G7" s="148" t="s">
+      <c r="G7" s="146" t="s">
         <v>128</v>
       </c>
-      <c r="H7" s="148" t="s">
+      <c r="H7" s="146" t="s">
         <v>128</v>
       </c>
-      <c r="I7" s="148" t="s">
+      <c r="I7" s="146" t="s">
         <v>128</v>
       </c>
-      <c r="J7" s="148" t="s">
+      <c r="J7" s="146" t="s">
         <v>128</v>
       </c>
-      <c r="K7" s="148" t="s">
+      <c r="K7" s="146" t="s">
         <v>128</v>
       </c>
-      <c r="L7" s="148" t="s">
+      <c r="L7" s="146" t="s">
         <v>129</v>
       </c>
-      <c r="M7" s="148" t="s">
+      <c r="M7" s="146" t="s">
         <v>129</v>
       </c>
-      <c r="N7" s="148" t="s">
+      <c r="N7" s="146" t="s">
         <v>129</v>
       </c>
-      <c r="O7" s="148" t="s">
+      <c r="O7" s="146" t="s">
         <v>129</v>
       </c>
-      <c r="P7" s="148" t="s">
+      <c r="P7" s="146" t="s">
         <v>128</v>
       </c>
-      <c r="Q7" s="149" t="s">
+      <c r="Q7" s="146" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="150" t="s">
+    <row r="8" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="147" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="151" t="s">
+      <c r="C8" s="148" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="152" t="n">
-        <v>227</v>
-      </c>
-      <c r="E8" s="153" t="s">
+      <c r="D8" s="149"/>
+      <c r="E8" s="149" t="s">
         <v>127</v>
       </c>
-      <c r="F8" s="154" t="s">
+      <c r="F8" s="150" t="s">
         <v>129</v>
       </c>
-      <c r="G8" s="155" t="s">
+      <c r="G8" s="150" t="s">
         <v>129</v>
       </c>
-      <c r="H8" s="155" t="s">
+      <c r="H8" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="I8" s="155" t="s">
+      <c r="I8" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="J8" s="155" t="s">
+      <c r="J8" s="150" t="s">
         <v>129</v>
       </c>
-      <c r="K8" s="155" t="s">
+      <c r="K8" s="150" t="s">
         <v>129</v>
       </c>
-      <c r="L8" s="155" t="s">
+      <c r="L8" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="M8" s="155" t="s">
+      <c r="M8" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="N8" s="155" t="s">
+      <c r="N8" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="O8" s="155" t="s">
+      <c r="O8" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="P8" s="155" t="s">
+      <c r="P8" s="150" t="s">
         <v>129</v>
       </c>
-      <c r="Q8" s="156" t="s">
+      <c r="Q8" s="150" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="150" t="s">
+    <row r="9" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="147" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="151" t="s">
         <v>131</v>
       </c>
-      <c r="D9" s="152" t="n">
-        <v>229</v>
-      </c>
-      <c r="E9" s="153" t="s">
+      <c r="D9" s="149"/>
+      <c r="E9" s="149" t="s">
         <v>127</v>
       </c>
-      <c r="F9" s="154" t="s">
+      <c r="F9" s="152" t="s">
         <v>128</v>
       </c>
-      <c r="G9" s="155" t="s">
+      <c r="G9" s="152" t="s">
         <v>128</v>
       </c>
-      <c r="H9" s="155" t="s">
+      <c r="H9" s="152" t="s">
         <v>128</v>
       </c>
-      <c r="I9" s="155" t="s">
+      <c r="I9" s="152" t="s">
         <v>128</v>
       </c>
-      <c r="J9" s="155" t="s">
+      <c r="J9" s="152" t="s">
         <v>128</v>
       </c>
-      <c r="K9" s="155" t="s">
+      <c r="K9" s="152" t="s">
         <v>128</v>
       </c>
-      <c r="L9" s="155" t="s">
+      <c r="L9" s="152" t="s">
         <v>129</v>
       </c>
-      <c r="M9" s="155" t="s">
+      <c r="M9" s="152" t="s">
         <v>129</v>
       </c>
-      <c r="N9" s="155" t="s">
+      <c r="N9" s="152" t="s">
         <v>129</v>
       </c>
-      <c r="O9" s="155" t="s">
+      <c r="O9" s="152" t="s">
         <v>129</v>
       </c>
-      <c r="P9" s="155" t="s">
+      <c r="P9" s="152" t="s">
         <v>128</v>
       </c>
-      <c r="Q9" s="156" t="s">
+      <c r="Q9" s="152" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="150" t="s">
-        <v>26</v>
+    <row r="10" customFormat="false" ht="26.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="143" t="s">
+        <v>132</v>
       </c>
       <c r="C10" s="151" t="s">
-        <v>132</v>
-      </c>
-      <c r="D10" s="152" t="n">
-        <v>226</v>
-      </c>
-      <c r="E10" s="153" t="s">
+        <v>133</v>
+      </c>
+      <c r="D10" s="149"/>
+      <c r="E10" s="149" t="s">
         <v>127</v>
       </c>
-      <c r="F10" s="154" t="s">
+      <c r="F10" s="152" t="s">
+        <v>128</v>
+      </c>
+      <c r="G10" s="152" t="s">
+        <v>128</v>
+      </c>
+      <c r="H10" s="152" t="s">
+        <v>128</v>
+      </c>
+      <c r="I10" s="152" t="s">
+        <v>128</v>
+      </c>
+      <c r="J10" s="152" t="s">
+        <v>128</v>
+      </c>
+      <c r="K10" s="152" t="s">
+        <v>128</v>
+      </c>
+      <c r="L10" s="152" t="s">
         <v>129</v>
       </c>
-      <c r="G10" s="155" t="s">
+      <c r="M10" s="152" t="s">
         <v>129</v>
       </c>
-      <c r="H10" s="155" t="s">
+      <c r="N10" s="152" t="s">
         <v>129</v>
       </c>
-      <c r="I10" s="155" t="s">
+      <c r="O10" s="152" t="s">
         <v>129</v>
       </c>
-      <c r="J10" s="155" t="s">
+      <c r="P10" s="152" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q10" s="152" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="26.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="147" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="151" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="149"/>
+      <c r="E11" s="149" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11" s="150" t="s">
         <v>129</v>
       </c>
-      <c r="K10" s="155" t="s">
+      <c r="G11" s="150" t="s">
         <v>129</v>
       </c>
-      <c r="L10" s="155" t="s">
+      <c r="H11" s="150" t="s">
+        <v>129</v>
+      </c>
+      <c r="I11" s="150" t="s">
+        <v>129</v>
+      </c>
+      <c r="J11" s="150" t="s">
+        <v>129</v>
+      </c>
+      <c r="K11" s="150" t="s">
+        <v>129</v>
+      </c>
+      <c r="L11" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="M10" s="155" t="s">
+      <c r="M11" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="N10" s="155" t="s">
+      <c r="N11" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="O10" s="155" t="s">
+      <c r="O11" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="P10" s="155" t="s">
+      <c r="P11" s="150" t="s">
         <v>129</v>
       </c>
-      <c r="Q10" s="156" t="s">
+      <c r="Q11" s="150" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="150" t="s">
+    <row r="12" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="147" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="151" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" s="149"/>
+      <c r="E12" s="149" t="s">
+        <v>127</v>
+      </c>
+      <c r="F12" s="150" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" s="150" t="s">
+        <v>129</v>
+      </c>
+      <c r="H12" s="150" t="s">
+        <v>129</v>
+      </c>
+      <c r="I12" s="150" t="s">
+        <v>129</v>
+      </c>
+      <c r="J12" s="150" t="s">
+        <v>129</v>
+      </c>
+      <c r="K12" s="150" t="s">
+        <v>129</v>
+      </c>
+      <c r="L12" s="150" t="s">
+        <v>128</v>
+      </c>
+      <c r="M12" s="150" t="s">
+        <v>128</v>
+      </c>
+      <c r="N12" s="150" t="s">
+        <v>128</v>
+      </c>
+      <c r="O12" s="150" t="s">
+        <v>128</v>
+      </c>
+      <c r="P12" s="150" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q12" s="150" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="151" t="s">
-        <v>133</v>
-      </c>
-      <c r="D11" s="152" t="n">
-        <v>502</v>
-      </c>
-      <c r="E11" s="153" t="s">
+      <c r="C13" s="148" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" s="149"/>
+      <c r="E13" s="149" t="s">
         <v>127</v>
       </c>
-      <c r="F11" s="154" t="s">
+      <c r="F13" s="150" t="s">
         <v>129</v>
       </c>
-      <c r="G11" s="155" t="s">
+      <c r="G13" s="150" t="s">
         <v>129</v>
       </c>
-      <c r="H11" s="155" t="s">
+      <c r="H13" s="150" t="s">
         <v>129</v>
       </c>
-      <c r="I11" s="155" t="s">
+      <c r="I13" s="150" t="s">
         <v>129</v>
       </c>
-      <c r="J11" s="155" t="s">
+      <c r="J13" s="150" t="s">
         <v>129</v>
       </c>
-      <c r="K11" s="155" t="s">
+      <c r="K13" s="150" t="s">
         <v>129</v>
       </c>
-      <c r="L11" s="155" t="s">
+      <c r="L13" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="M11" s="155" t="s">
+      <c r="M13" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="N11" s="155" t="s">
+      <c r="N13" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="O11" s="155" t="s">
+      <c r="O13" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="P11" s="155" t="s">
+      <c r="P13" s="150" t="s">
         <v>129</v>
       </c>
-      <c r="Q11" s="156" t="s">
+      <c r="Q13" s="150" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="150" t="s">
+    <row r="14" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="151" t="s">
-        <v>134</v>
-      </c>
-      <c r="D12" s="152" t="n">
-        <v>223</v>
-      </c>
-      <c r="E12" s="153" t="s">
+      <c r="C14" s="148" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="149"/>
+      <c r="E14" s="149" t="s">
         <v>127</v>
       </c>
-      <c r="F12" s="154" t="s">
+      <c r="F14" s="152" t="s">
         <v>128</v>
       </c>
-      <c r="G12" s="155" t="s">
+      <c r="G14" s="152" t="s">
         <v>128</v>
       </c>
-      <c r="H12" s="155" t="s">
+      <c r="H14" s="152" t="s">
         <v>129</v>
       </c>
-      <c r="I12" s="155" t="s">
+      <c r="I14" s="152" t="s">
         <v>129</v>
       </c>
-      <c r="J12" s="155" t="s">
+      <c r="J14" s="152" t="s">
         <v>128</v>
       </c>
-      <c r="K12" s="155" t="s">
+      <c r="K14" s="152" t="s">
         <v>128</v>
       </c>
-      <c r="L12" s="155" t="s">
+      <c r="L14" s="152" t="s">
         <v>128</v>
       </c>
-      <c r="M12" s="155" t="s">
+      <c r="M14" s="152" t="s">
         <v>128</v>
       </c>
-      <c r="N12" s="155" t="s">
+      <c r="N14" s="152" t="s">
         <v>128</v>
       </c>
-      <c r="O12" s="155" t="s">
+      <c r="O14" s="152" t="s">
         <v>128</v>
       </c>
-      <c r="P12" s="155" t="s">
+      <c r="P14" s="152" t="s">
         <v>128</v>
       </c>
-      <c r="Q12" s="156" t="s">
+      <c r="Q14" s="152" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="150" t="s">
+    <row r="15" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="147" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="151" t="s">
-        <v>135</v>
-      </c>
-      <c r="D13" s="152" t="n">
-        <v>224</v>
-      </c>
-      <c r="E13" s="153" t="s">
+      <c r="C15" s="148" t="s">
+        <v>140</v>
+      </c>
+      <c r="D15" s="149"/>
+      <c r="E15" s="149" t="s">
         <v>127</v>
       </c>
-      <c r="F13" s="154" t="s">
+      <c r="F15" s="150" t="s">
         <v>129</v>
       </c>
-      <c r="G13" s="155" t="s">
+      <c r="G15" s="150" t="s">
         <v>129</v>
       </c>
-      <c r="H13" s="155" t="s">
+      <c r="H15" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="I13" s="157" t="s">
+      <c r="I15" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="J13" s="157" t="s">
+      <c r="J15" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="K13" s="157" t="s">
+      <c r="K15" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="L13" s="155" t="s">
+      <c r="L15" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="M13" s="155" t="s">
+      <c r="M15" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="N13" s="155" t="s">
+      <c r="N15" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="O13" s="155" t="s">
+      <c r="O15" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="P13" s="155" t="s">
+      <c r="P15" s="150" t="s">
         <v>129</v>
       </c>
-      <c r="Q13" s="156" t="s">
+      <c r="Q15" s="150" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="150" t="s">
+    <row r="16" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="147" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="151" t="s">
-        <v>136</v>
-      </c>
-      <c r="D14" s="152" t="n">
-        <v>309</v>
-      </c>
-      <c r="E14" s="153" t="s">
+      <c r="C16" s="148" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" s="149"/>
+      <c r="E16" s="149" t="s">
         <v>127</v>
       </c>
-      <c r="F14" s="154" t="s">
+      <c r="F16" s="150" t="s">
         <v>129</v>
       </c>
-      <c r="G14" s="155" t="s">
+      <c r="G16" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="H14" s="155" t="s">
+      <c r="H16" s="150" t="s">
         <v>129</v>
       </c>
-      <c r="I14" s="157" t="s">
+      <c r="I16" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="J14" s="157" t="s">
+      <c r="J16" s="150" t="s">
         <v>129</v>
       </c>
-      <c r="K14" s="157" t="s">
+      <c r="K16" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="L14" s="155" t="s">
+      <c r="L16" s="150" t="s">
         <v>129</v>
       </c>
-      <c r="M14" s="155" t="s">
+      <c r="M16" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="N14" s="155" t="s">
+      <c r="N16" s="150" t="s">
         <v>129</v>
       </c>
-      <c r="O14" s="155" t="s">
+      <c r="O16" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="P14" s="155" t="s">
+      <c r="P16" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="Q14" s="156" t="s">
+      <c r="Q16" s="150" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="150" t="s">
+    <row r="17" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="147" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="151" t="s">
-        <v>137</v>
-      </c>
-      <c r="D15" s="152" t="n">
-        <v>310</v>
-      </c>
-      <c r="E15" s="153" t="s">
+      <c r="C17" s="151" t="s">
+        <v>142</v>
+      </c>
+      <c r="D17" s="149"/>
+      <c r="E17" s="149" t="s">
         <v>127</v>
       </c>
-      <c r="F15" s="154" t="s">
+      <c r="F17" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="G15" s="155" t="s">
+      <c r="G17" s="150" t="s">
         <v>129</v>
       </c>
-      <c r="H15" s="155" t="s">
+      <c r="H17" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="I15" s="157" t="s">
+      <c r="I17" s="150" t="s">
         <v>129</v>
       </c>
-      <c r="J15" s="157" t="s">
+      <c r="J17" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="K15" s="157" t="s">
+      <c r="K17" s="150" t="s">
         <v>129</v>
       </c>
-      <c r="L15" s="155" t="s">
+      <c r="L17" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="M15" s="155" t="s">
+      <c r="M17" s="150" t="s">
         <v>129</v>
       </c>
-      <c r="N15" s="155" t="s">
+      <c r="N17" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="O15" s="155" t="s">
+      <c r="O17" s="150" t="s">
         <v>129</v>
       </c>
-      <c r="P15" s="155" t="s">
+      <c r="P17" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="Q15" s="156" t="s">
+      <c r="Q17" s="150" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="158" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="151" t="s">
-        <v>138</v>
-      </c>
-      <c r="D16" s="152" t="n">
-        <v>503</v>
-      </c>
-      <c r="E16" s="153" t="s">
+    <row r="18" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="147" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="151" t="s">
+        <v>143</v>
+      </c>
+      <c r="D18" s="149"/>
+      <c r="E18" s="149" t="s">
         <v>127</v>
       </c>
-      <c r="F16" s="154" t="s">
+      <c r="F18" s="150" t="s">
+        <v>128</v>
+      </c>
+      <c r="G18" s="150" t="s">
+        <v>128</v>
+      </c>
+      <c r="H18" s="150" t="s">
+        <v>128</v>
+      </c>
+      <c r="I18" s="150" t="s">
+        <v>128</v>
+      </c>
+      <c r="J18" s="150" t="s">
+        <v>128</v>
+      </c>
+      <c r="K18" s="150" t="s">
+        <v>128</v>
+      </c>
+      <c r="L18" s="150" t="s">
+        <v>128</v>
+      </c>
+      <c r="M18" s="150" t="s">
+        <v>128</v>
+      </c>
+      <c r="N18" s="150" t="s">
+        <v>128</v>
+      </c>
+      <c r="O18" s="150" t="s">
+        <v>128</v>
+      </c>
+      <c r="P18" s="150" t="s">
         <v>129</v>
       </c>
-      <c r="G16" s="155" t="s">
+      <c r="Q18" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="H16" s="155" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="147" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="151" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" s="149"/>
+      <c r="E19" s="149" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" s="150" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19" s="150" t="s">
+        <v>128</v>
+      </c>
+      <c r="H19" s="150" t="s">
+        <v>128</v>
+      </c>
+      <c r="I19" s="150" t="s">
+        <v>128</v>
+      </c>
+      <c r="J19" s="150" t="s">
+        <v>128</v>
+      </c>
+      <c r="K19" s="150" t="s">
+        <v>128</v>
+      </c>
+      <c r="L19" s="150" t="s">
+        <v>128</v>
+      </c>
+      <c r="M19" s="150" t="s">
+        <v>128</v>
+      </c>
+      <c r="N19" s="150" t="s">
+        <v>128</v>
+      </c>
+      <c r="O19" s="150" t="s">
+        <v>128</v>
+      </c>
+      <c r="P19" s="150" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q19" s="150" t="s">
         <v>129</v>
       </c>
-      <c r="I16" s="157" t="s">
+    </row>
+    <row r="20" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="147" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="D20" s="149"/>
+      <c r="E20" s="149" t="s">
+        <v>127</v>
+      </c>
+      <c r="F20" s="150" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="J16" s="159" t="s">
+      <c r="H20" s="150" t="s">
         <v>129</v>
       </c>
-      <c r="K16" s="159" t="s">
+      <c r="I20" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="L16" s="160" t="s">
+      <c r="J20" s="150" t="s">
+        <v>129</v>
+      </c>
+      <c r="K20" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="M16" s="160" t="s">
+      <c r="L20" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="N16" s="160" t="s">
+      <c r="M20" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="O16" s="160" t="s">
+      <c r="N20" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="P16" s="160" t="s">
+      <c r="O20" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="Q16" s="161" t="s">
+      <c r="P20" s="150" t="s">
         <v>128</v>
       </c>
+      <c r="Q20" s="150" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="158" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="151" t="s">
-        <v>139</v>
-      </c>
-      <c r="D17" s="152" t="n">
-        <v>504</v>
-      </c>
-      <c r="E17" s="153" t="s">
+    <row r="21" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="147" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="148" t="s">
+        <v>146</v>
+      </c>
+      <c r="D21" s="149"/>
+      <c r="E21" s="149" t="s">
         <v>127</v>
       </c>
-      <c r="F17" s="154" t="s">
+      <c r="F21" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="G17" s="155" t="s">
+      <c r="G21" s="150" t="s">
         <v>129</v>
       </c>
-      <c r="H17" s="155" t="s">
+      <c r="H21" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="I17" s="157" t="s">
+      <c r="I21" s="150" t="s">
         <v>129</v>
       </c>
-      <c r="J17" s="159" t="s">
+      <c r="J21" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="K17" s="159" t="s">
+      <c r="K21" s="150" t="s">
         <v>129</v>
       </c>
-      <c r="L17" s="160" t="s">
+      <c r="L21" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="M17" s="160" t="s">
+      <c r="M21" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="N17" s="160" t="s">
+      <c r="N21" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="O17" s="160" t="s">
+      <c r="O21" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="P17" s="160" t="s">
+      <c r="P21" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="Q17" s="161" t="s">
+      <c r="Q21" s="150" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="150" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="151" t="s">
-        <v>140</v>
-      </c>
-      <c r="D18" s="152" t="n">
-        <v>505</v>
-      </c>
-      <c r="E18" s="153" t="s">
+    <row r="22" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="147" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="148" t="s">
+        <v>147</v>
+      </c>
+      <c r="D22" s="149"/>
+      <c r="E22" s="149" t="s">
         <v>127</v>
       </c>
-      <c r="F18" s="154" t="s">
+      <c r="F22" s="150" t="s">
+        <v>129</v>
+      </c>
+      <c r="G22" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="G18" s="155" t="s">
+      <c r="H22" s="150" t="s">
+        <v>129</v>
+      </c>
+      <c r="I22" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="H18" s="155" t="s">
+      <c r="J22" s="150" t="s">
+        <v>129</v>
+      </c>
+      <c r="K22" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="I18" s="157" t="s">
+      <c r="L22" s="150" t="s">
+        <v>129</v>
+      </c>
+      <c r="M22" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="J18" s="157" t="s">
+      <c r="N22" s="150" t="s">
+        <v>129</v>
+      </c>
+      <c r="O22" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="K18" s="157" t="s">
+      <c r="P22" s="150" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q22" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="L18" s="155" t="s">
+    </row>
+    <row r="23" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="153" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="148" t="s">
+        <v>148</v>
+      </c>
+      <c r="D23" s="154"/>
+      <c r="E23" s="154" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" s="155" t="s">
         <v>128</v>
       </c>
-      <c r="M18" s="155" t="s">
+      <c r="G23" s="155" t="s">
+        <v>129</v>
+      </c>
+      <c r="H23" s="155" t="s">
         <v>128</v>
       </c>
-      <c r="N18" s="155" t="s">
+      <c r="I23" s="155" t="s">
+        <v>129</v>
+      </c>
+      <c r="J23" s="155" t="s">
         <v>128</v>
       </c>
-      <c r="O18" s="155" t="s">
+      <c r="K23" s="155" t="s">
+        <v>129</v>
+      </c>
+      <c r="L23" s="155" t="s">
         <v>128</v>
       </c>
-      <c r="P18" s="155" t="s">
+      <c r="M23" s="155" t="s">
         <v>129</v>
       </c>
-      <c r="Q18" s="156" t="s">
+      <c r="N23" s="155" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="150" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="151" t="s">
-        <v>141</v>
-      </c>
-      <c r="D19" s="152" t="n">
-        <v>506</v>
-      </c>
-      <c r="E19" s="153" t="s">
-        <v>127</v>
-      </c>
-      <c r="F19" s="154" t="s">
+      <c r="O23" s="155" t="s">
+        <v>129</v>
+      </c>
+      <c r="P23" s="155" t="s">
         <v>128</v>
       </c>
-      <c r="G19" s="155" t="s">
-        <v>128</v>
-      </c>
-      <c r="H19" s="155" t="s">
-        <v>128</v>
-      </c>
-      <c r="I19" s="155" t="s">
-        <v>128</v>
-      </c>
-      <c r="J19" s="155" t="s">
-        <v>128</v>
-      </c>
-      <c r="K19" s="155" t="s">
-        <v>128</v>
-      </c>
-      <c r="L19" s="155" t="s">
-        <v>128</v>
-      </c>
-      <c r="M19" s="155" t="s">
-        <v>128</v>
-      </c>
-      <c r="N19" s="155" t="s">
-        <v>128</v>
-      </c>
-      <c r="O19" s="155" t="s">
-        <v>128</v>
-      </c>
-      <c r="P19" s="155" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q19" s="156" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="150" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="151" t="s">
-        <v>142</v>
-      </c>
-      <c r="D20" s="152" t="n">
-        <v>290</v>
-      </c>
-      <c r="E20" s="153" t="s">
-        <v>143</v>
-      </c>
-      <c r="F20" s="154" t="s">
-        <v>129</v>
-      </c>
-      <c r="G20" s="155" t="s">
-        <v>128</v>
-      </c>
-      <c r="H20" s="155" t="s">
-        <v>129</v>
-      </c>
-      <c r="I20" s="155" t="s">
-        <v>128</v>
-      </c>
-      <c r="J20" s="155" t="s">
-        <v>129</v>
-      </c>
-      <c r="K20" s="155" t="s">
-        <v>128</v>
-      </c>
-      <c r="L20" s="155" t="s">
-        <v>128</v>
-      </c>
-      <c r="M20" s="155" t="s">
-        <v>128</v>
-      </c>
-      <c r="N20" s="155" t="s">
-        <v>128</v>
-      </c>
-      <c r="O20" s="155" t="s">
-        <v>128</v>
-      </c>
-      <c r="P20" s="155" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q20" s="156" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="150" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="151" t="s">
-        <v>144</v>
-      </c>
-      <c r="D21" s="152" t="n">
-        <v>291</v>
-      </c>
-      <c r="E21" s="153" t="s">
-        <v>127</v>
-      </c>
-      <c r="F21" s="154" t="s">
-        <v>128</v>
-      </c>
-      <c r="G21" s="155" t="s">
-        <v>129</v>
-      </c>
-      <c r="H21" s="155" t="s">
-        <v>128</v>
-      </c>
-      <c r="I21" s="155" t="s">
-        <v>129</v>
-      </c>
-      <c r="J21" s="155" t="s">
-        <v>128</v>
-      </c>
-      <c r="K21" s="155" t="s">
-        <v>129</v>
-      </c>
-      <c r="L21" s="155" t="s">
-        <v>128</v>
-      </c>
-      <c r="M21" s="155" t="s">
-        <v>128</v>
-      </c>
-      <c r="N21" s="155" t="s">
-        <v>128</v>
-      </c>
-      <c r="O21" s="155" t="s">
-        <v>128</v>
-      </c>
-      <c r="P21" s="155" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q21" s="156" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="150" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="151" t="s">
-        <v>145</v>
-      </c>
-      <c r="D22" s="152" t="n">
-        <v>164</v>
-      </c>
-      <c r="E22" s="153" t="s">
-        <v>127</v>
-      </c>
-      <c r="F22" s="154" t="s">
-        <v>129</v>
-      </c>
-      <c r="G22" s="155" t="s">
-        <v>129</v>
-      </c>
-      <c r="H22" s="155" t="s">
-        <v>129</v>
-      </c>
-      <c r="I22" s="155" t="s">
-        <v>129</v>
-      </c>
-      <c r="J22" s="155" t="s">
-        <v>129</v>
-      </c>
-      <c r="K22" s="155" t="s">
-        <v>129</v>
-      </c>
-      <c r="L22" s="155" t="s">
-        <v>128</v>
-      </c>
-      <c r="M22" s="155" t="s">
-        <v>128</v>
-      </c>
-      <c r="N22" s="155" t="s">
-        <v>128</v>
-      </c>
-      <c r="O22" s="155" t="s">
-        <v>128</v>
-      </c>
-      <c r="P22" s="155" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q22" s="156" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="150" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="151" t="s">
-        <v>146</v>
-      </c>
-      <c r="D23" s="152" t="n">
-        <v>507</v>
-      </c>
-      <c r="E23" s="153" t="s">
-        <v>127</v>
-      </c>
-      <c r="F23" s="154" t="s">
-        <v>129</v>
-      </c>
-      <c r="G23" s="155" t="s">
-        <v>128</v>
-      </c>
-      <c r="H23" s="155" t="s">
-        <v>129</v>
-      </c>
-      <c r="I23" s="155" t="s">
-        <v>128</v>
-      </c>
-      <c r="J23" s="155" t="s">
-        <v>129</v>
-      </c>
-      <c r="K23" s="155" t="s">
-        <v>128</v>
-      </c>
-      <c r="L23" s="155" t="s">
-        <v>129</v>
-      </c>
-      <c r="M23" s="155" t="s">
-        <v>128</v>
-      </c>
-      <c r="N23" s="155" t="s">
-        <v>129</v>
-      </c>
-      <c r="O23" s="155" t="s">
-        <v>128</v>
-      </c>
-      <c r="P23" s="155" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q23" s="156" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="162" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="163" t="s">
-        <v>147</v>
-      </c>
-      <c r="D24" s="164" t="n">
-        <v>508</v>
-      </c>
-      <c r="E24" s="165" t="s">
-        <v>127</v>
-      </c>
-      <c r="F24" s="166" t="s">
-        <v>128</v>
-      </c>
-      <c r="G24" s="167" t="s">
-        <v>129</v>
-      </c>
-      <c r="H24" s="167" t="s">
-        <v>128</v>
-      </c>
-      <c r="I24" s="167" t="s">
-        <v>129</v>
-      </c>
-      <c r="J24" s="167" t="s">
-        <v>128</v>
-      </c>
-      <c r="K24" s="167" t="s">
-        <v>129</v>
-      </c>
-      <c r="L24" s="167" t="s">
-        <v>128</v>
-      </c>
-      <c r="M24" s="167" t="s">
-        <v>129</v>
-      </c>
-      <c r="N24" s="167" t="s">
-        <v>128</v>
-      </c>
-      <c r="O24" s="167" t="s">
-        <v>129</v>
-      </c>
-      <c r="P24" s="167" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q24" s="168" t="s">
+      <c r="Q23" s="155" t="s">
         <v>129</v>
       </c>
     </row>
@@ -40506,8 +40355,13 @@
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="P5:Q5"/>
   </mergeCells>
-  <conditionalFormatting sqref="B7:B12">
+  <conditionalFormatting sqref="B12:B14,B7:B9">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:B11">
+    <cfRule type="duplicateValues" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40535,7 +40389,7 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.0323886639676"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="0" width="8.57085020242915"/>
@@ -40544,9 +40398,9 @@
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="169"/>
+      <c r="B3" s="156"/>
       <c r="C3" s="108" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D3" s="108"/>
       <c r="E3" s="108"/>
@@ -40555,335 +40409,335 @@
       <c r="H3" s="108"/>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="169"/>
-      <c r="C4" s="170" t="s">
+      <c r="B4" s="156"/>
+      <c r="C4" s="157" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="170"/>
-      <c r="E4" s="170"/>
-      <c r="F4" s="170"/>
-      <c r="G4" s="170"/>
-      <c r="H4" s="170"/>
+      <c r="D4" s="157"/>
+      <c r="E4" s="157"/>
+      <c r="F4" s="157"/>
+      <c r="G4" s="157"/>
+      <c r="H4" s="157"/>
     </row>
     <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="171" t="s">
+      <c r="B5" s="158" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="172" t="s">
+      <c r="C5" s="159" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="173" t="s">
+      <c r="D5" s="160" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="173" t="s">
+      <c r="E5" s="160" t="s">
         <v>94</v>
       </c>
-      <c r="F5" s="173" t="s">
+      <c r="F5" s="160" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="173" t="s">
+      <c r="G5" s="160" t="s">
         <v>96</v>
       </c>
-      <c r="H5" s="174" t="s">
+      <c r="H5" s="161" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="175" t="s">
+      <c r="B6" s="143" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="176" t="s">
+      <c r="C6" s="162" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="177" t="s">
+      <c r="D6" s="163" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="177" t="s">
+      <c r="E6" s="163" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="178" t="n">
+      <c r="F6" s="164" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="178" t="n">
+      <c r="G6" s="164" t="n">
         <v>1</v>
       </c>
-      <c r="H6" s="179" t="s">
+      <c r="H6" s="165" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="180" t="s">
+      <c r="B7" s="147" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="181" t="n">
+      <c r="C7" s="150" t="n">
         <v>2</v>
       </c>
-      <c r="D7" s="182" t="s">
+      <c r="D7" s="166" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="183" t="n">
+      <c r="E7" s="167" t="n">
         <v>1</v>
       </c>
-      <c r="F7" s="182" t="s">
+      <c r="F7" s="166" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="182" t="s">
+      <c r="G7" s="166" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="184" t="n">
+      <c r="H7" s="168" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="180" t="s">
+      <c r="B8" s="147" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="185" t="s">
+      <c r="C8" s="169" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="182" t="s">
+      <c r="D8" s="166" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="182" t="s">
+      <c r="E8" s="166" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="183" t="n">
+      <c r="F8" s="167" t="n">
         <v>3</v>
       </c>
-      <c r="G8" s="183" t="n">
+      <c r="G8" s="167" t="n">
         <v>2</v>
       </c>
-      <c r="H8" s="186" t="s">
+      <c r="H8" s="170" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="180" t="s">
+      <c r="B9" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="181" t="n">
+      <c r="C9" s="150" t="n">
         <v>3</v>
       </c>
-      <c r="D9" s="183" t="n">
+      <c r="D9" s="167" t="n">
         <v>2</v>
       </c>
-      <c r="E9" s="183" t="n">
+      <c r="E9" s="167" t="n">
         <v>2</v>
       </c>
-      <c r="F9" s="182" t="s">
+      <c r="F9" s="166" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="182" t="s">
+      <c r="G9" s="166" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="184" t="n">
+      <c r="H9" s="168" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="180" t="s">
+      <c r="B10" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="181" t="n">
+      <c r="C10" s="150" t="n">
         <v>4</v>
       </c>
-      <c r="D10" s="183" t="n">
+      <c r="D10" s="167" t="n">
         <v>5</v>
       </c>
-      <c r="E10" s="183" t="n">
+      <c r="E10" s="167" t="n">
         <v>5</v>
       </c>
-      <c r="F10" s="182" t="s">
+      <c r="F10" s="166" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="182" t="s">
+      <c r="G10" s="166" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="184" t="n">
+      <c r="H10" s="168" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="180" t="s">
+      <c r="B11" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="185" t="s">
+      <c r="C11" s="169" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="183" t="n">
+      <c r="D11" s="167" t="n">
         <v>1</v>
       </c>
-      <c r="E11" s="182" t="s">
+      <c r="E11" s="166" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="182" t="s">
+      <c r="F11" s="166" t="s">
         <v>62</v>
       </c>
-      <c r="G11" s="182" t="s">
+      <c r="G11" s="166" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="186" t="s">
+      <c r="H11" s="170" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="180" t="s">
+      <c r="B12" s="147" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="181" t="n">
+      <c r="C12" s="150" t="n">
         <v>1</v>
       </c>
-      <c r="D12" s="182" t="s">
+      <c r="D12" s="166" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="182" t="s">
+      <c r="E12" s="166" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="182" t="s">
+      <c r="F12" s="166" t="s">
         <v>62</v>
       </c>
-      <c r="G12" s="182" t="s">
+      <c r="G12" s="166" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="184" t="n">
+      <c r="H12" s="168" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="180" t="s">
+      <c r="B13" s="147" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="181" t="n">
+      <c r="C13" s="150" t="n">
         <v>5</v>
       </c>
-      <c r="D13" s="183" t="n">
+      <c r="D13" s="167" t="n">
         <v>3</v>
       </c>
-      <c r="E13" s="183" t="n">
+      <c r="E13" s="167" t="n">
         <v>3</v>
       </c>
-      <c r="F13" s="183" t="n">
+      <c r="F13" s="167" t="n">
         <v>2</v>
       </c>
-      <c r="G13" s="183" t="n">
+      <c r="G13" s="167" t="n">
         <v>3</v>
       </c>
-      <c r="H13" s="186" t="s">
+      <c r="H13" s="170" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="187" t="s">
+      <c r="B14" s="171" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="181" t="n">
+      <c r="C14" s="150" t="n">
         <v>9</v>
       </c>
-      <c r="D14" s="183" t="n">
+      <c r="D14" s="167" t="n">
         <v>8</v>
       </c>
       <c r="E14" s="122" t="n">
         <v>8</v>
       </c>
-      <c r="F14" s="182" t="s">
+      <c r="F14" s="166" t="s">
         <v>62</v>
       </c>
-      <c r="G14" s="182" t="s">
+      <c r="G14" s="166" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="186" t="s">
+      <c r="H14" s="170" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="180" t="s">
+      <c r="B15" s="147" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="185" t="s">
+      <c r="C15" s="169" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="182" t="s">
+      <c r="D15" s="166" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="182" t="s">
+      <c r="E15" s="166" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="182" t="s">
+      <c r="F15" s="166" t="s">
         <v>62</v>
       </c>
-      <c r="G15" s="182" t="s">
+      <c r="G15" s="166" t="s">
         <v>62</v>
       </c>
-      <c r="H15" s="184" t="n">
+      <c r="H15" s="168" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="180" t="s">
+      <c r="B16" s="147" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="181" t="n">
+      <c r="C16" s="150" t="n">
         <v>6</v>
       </c>
-      <c r="D16" s="183" t="n">
+      <c r="D16" s="167" t="n">
         <v>4</v>
       </c>
-      <c r="E16" s="183" t="n">
+      <c r="E16" s="167" t="n">
         <v>4</v>
       </c>
-      <c r="F16" s="182" t="s">
+      <c r="F16" s="166" t="s">
         <v>62</v>
       </c>
-      <c r="G16" s="182" t="s">
+      <c r="G16" s="166" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="186" t="s">
+      <c r="H16" s="170" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="180" t="s">
+      <c r="B17" s="147" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="181" t="n">
+      <c r="C17" s="150" t="n">
         <v>8</v>
       </c>
-      <c r="D17" s="183" t="n">
+      <c r="D17" s="167" t="n">
         <v>6</v>
       </c>
-      <c r="E17" s="183" t="n">
+      <c r="E17" s="167" t="n">
         <v>6</v>
       </c>
-      <c r="F17" s="182" t="s">
+      <c r="F17" s="166" t="s">
         <v>62</v>
       </c>
-      <c r="G17" s="182" t="s">
+      <c r="G17" s="166" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="186" t="s">
+      <c r="H17" s="170" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="188" t="s">
+      <c r="B18" s="153" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="189" t="n">
+      <c r="C18" s="155" t="n">
         <v>7</v>
       </c>
-      <c r="D18" s="190" t="n">
+      <c r="D18" s="172" t="n">
         <v>7</v>
       </c>
-      <c r="E18" s="190" t="n">
+      <c r="E18" s="172" t="n">
         <v>7</v>
       </c>
-      <c r="F18" s="190" t="n">
+      <c r="F18" s="172" t="n">
         <v>4</v>
       </c>
-      <c r="G18" s="190" t="n">
+      <c r="G18" s="172" t="n">
         <v>4</v>
       </c>
-      <c r="H18" s="191" t="n">
+      <c r="H18" s="173" t="n">
         <v>5</v>
       </c>
     </row>
@@ -40923,138 +40777,138 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="40.5991902834008"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="35.0283400809717"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="35.2429149797571"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="95.7651821862348"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="96.6194331983806"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="192" t="s">
-        <v>149</v>
-      </c>
-      <c r="B1" s="193" t="s">
+      <c r="A1" s="174" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="192" t="s">
+      <c r="B1" s="175" t="s">
         <v>151</v>
       </c>
-      <c r="D1" s="193" t="s">
+      <c r="C1" s="174" t="s">
         <v>152</v>
       </c>
-      <c r="E1" s="192" t="s">
+      <c r="D1" s="175" t="s">
         <v>153</v>
       </c>
-      <c r="F1" s="194" t="s">
+      <c r="E1" s="174" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" s="176" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="195" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1" s="196" t="s">
+      <c r="G1" s="177" t="s">
         <v>155</v>
+      </c>
+      <c r="H1" s="178" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="197" t="s">
+      <c r="A2" s="179" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="198" t="s">
-        <v>156</v>
-      </c>
-      <c r="C2" s="197" t="s">
+      <c r="B2" s="180" t="s">
         <v>157</v>
       </c>
-      <c r="D2" s="198" t="s">
+      <c r="C2" s="179" t="s">
         <v>158</v>
       </c>
-      <c r="E2" s="197" t="s">
+      <c r="D2" s="180" t="s">
         <v>159</v>
       </c>
-      <c r="F2" s="199" t="s">
+      <c r="E2" s="179" t="s">
+        <v>160</v>
+      </c>
+      <c r="F2" s="181" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="200" t="n">
+      <c r="G2" s="182" t="n">
         <v>8</v>
       </c>
-      <c r="H2" s="201" t="s">
-        <v>160</v>
+      <c r="H2" s="183" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="202" t="s">
+      <c r="A3" s="184" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="203" t="s">
-        <v>161</v>
+      <c r="B3" s="185" t="s">
+        <v>162</v>
       </c>
       <c r="C3" s="116" t="s">
-        <v>162</v>
-      </c>
-      <c r="D3" s="198" t="s">
-        <v>158</v>
-      </c>
-      <c r="E3" s="202" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="180" t="s">
         <v>159</v>
       </c>
-      <c r="F3" s="199" t="s">
+      <c r="E3" s="184" t="s">
+        <v>160</v>
+      </c>
+      <c r="F3" s="181" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="204" t="n">
+      <c r="G3" s="186" t="n">
         <v>0</v>
       </c>
-      <c r="H3" s="201"/>
+      <c r="H3" s="183"/>
     </row>
     <row r="4" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="205" t="s">
+      <c r="A4" s="187" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="198" t="s">
-        <v>156</v>
-      </c>
-      <c r="C4" s="199" t="s">
+      <c r="B4" s="180" t="s">
         <v>157</v>
       </c>
-      <c r="D4" s="198" t="s">
-        <v>156</v>
-      </c>
-      <c r="E4" s="199" t="s">
-        <v>163</v>
-      </c>
-      <c r="F4" s="206" t="s">
+      <c r="C4" s="181" t="s">
         <v>158</v>
       </c>
-      <c r="G4" s="204" t="n">
+      <c r="D4" s="180" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" s="181" t="s">
+        <v>164</v>
+      </c>
+      <c r="F4" s="188" t="s">
+        <v>159</v>
+      </c>
+      <c r="G4" s="186" t="n">
         <v>0</v>
       </c>
-      <c r="H4" s="201"/>
+      <c r="H4" s="183"/>
     </row>
     <row r="5" customFormat="false" ht="127.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="207" t="s">
+      <c r="A5" s="189" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="198" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="208" t="s">
-        <v>164</v>
-      </c>
-      <c r="D5" s="198" t="s">
-        <v>156</v>
+      <c r="B5" s="180" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="190" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" s="180" t="s">
+        <v>157</v>
       </c>
       <c r="E5" s="116" t="s">
-        <v>165</v>
-      </c>
-      <c r="F5" s="206" t="s">
-        <v>158</v>
-      </c>
-      <c r="G5" s="209" t="n">
+        <v>166</v>
+      </c>
+      <c r="F5" s="188" t="s">
+        <v>159</v>
+      </c>
+      <c r="G5" s="191" t="n">
         <v>0</v>
       </c>
-      <c r="H5" s="201"/>
+      <c r="H5" s="183"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -41080,2690 +40934,2690 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="210" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="210" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="210" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="210" width="49.4898785425101"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="211" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="210" width="34.3846153846154"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="210" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="210" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="1023" min="10" style="210" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="192" width="11.4615384615385"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="192" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="192" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="192" width="49.8097165991903"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="193" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="192" width="34.5991902834008"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="192" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="192" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1023" min="10" style="192" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="212" t="s">
+      <c r="A1" s="194" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="213" t="s">
-        <v>149</v>
-      </c>
-      <c r="C1" s="213" t="s">
-        <v>166</v>
-      </c>
-      <c r="D1" s="213" t="s">
+      <c r="B1" s="195" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="195" t="s">
         <v>167</v>
       </c>
-      <c r="E1" s="213" t="s">
+      <c r="D1" s="195" t="s">
         <v>168</v>
       </c>
-      <c r="F1" s="214" t="s">
+      <c r="E1" s="195" t="s">
+        <v>169</v>
+      </c>
+      <c r="F1" s="196" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="213" t="s">
-        <v>169</v>
-      </c>
-      <c r="H1" s="213" t="s">
+      <c r="G1" s="195" t="s">
         <v>170</v>
       </c>
-      <c r="I1" s="215" t="s">
+      <c r="H1" s="195" t="s">
         <v>171</v>
+      </c>
+      <c r="I1" s="197" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="216" t="s">
+      <c r="A2" s="198" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="217" t="s">
+      <c r="B2" s="199" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="218" t="s">
-        <v>172</v>
-      </c>
-      <c r="D2" s="218"/>
-      <c r="E2" s="218" t="s">
+      <c r="C2" s="200" t="s">
         <v>173</v>
       </c>
-      <c r="F2" s="219" t="n">
+      <c r="D2" s="200"/>
+      <c r="E2" s="200" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="201" t="n">
         <v>16</v>
       </c>
-      <c r="G2" s="218" t="s">
-        <v>174</v>
-      </c>
-      <c r="H2" s="218" t="s">
+      <c r="G2" s="200" t="s">
         <v>175</v>
       </c>
-      <c r="I2" s="220" t="s">
+      <c r="H2" s="200" t="s">
         <v>176</v>
+      </c>
+      <c r="I2" s="202" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="216" t="s">
+      <c r="A3" s="198" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="217" t="s">
+      <c r="B3" s="199" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="221" t="s">
+      <c r="C3" s="203" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" s="203"/>
+      <c r="E3" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="F3" s="204" t="n">
+        <v>23</v>
+      </c>
+      <c r="G3" s="200" t="s">
+        <v>179</v>
+      </c>
+      <c r="H3" s="203" t="s">
+        <v>176</v>
+      </c>
+      <c r="I3" s="205" t="s">
         <v>177</v>
-      </c>
-      <c r="D3" s="221"/>
-      <c r="E3" s="221" t="s">
-        <v>173</v>
-      </c>
-      <c r="F3" s="222" t="n">
-        <v>23</v>
-      </c>
-      <c r="G3" s="218" t="s">
-        <v>178</v>
-      </c>
-      <c r="H3" s="221" t="s">
-        <v>175</v>
-      </c>
-      <c r="I3" s="223" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="216" t="s">
+      <c r="A4" s="198" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="217" t="s">
+      <c r="B4" s="199" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="221" t="s">
-        <v>179</v>
-      </c>
-      <c r="D4" s="221"/>
-      <c r="E4" s="221" t="s">
-        <v>173</v>
-      </c>
-      <c r="F4" s="222" t="n">
+      <c r="C4" s="203" t="s">
+        <v>180</v>
+      </c>
+      <c r="D4" s="203"/>
+      <c r="E4" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="F4" s="204" t="n">
         <v>29</v>
       </c>
-      <c r="G4" s="218" t="s">
-        <v>180</v>
-      </c>
-      <c r="H4" s="221" t="s">
-        <v>175</v>
-      </c>
-      <c r="I4" s="223" t="s">
+      <c r="G4" s="200" t="s">
+        <v>181</v>
+      </c>
+      <c r="H4" s="203" t="s">
         <v>176</v>
+      </c>
+      <c r="I4" s="205" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="216" t="s">
+      <c r="A5" s="198" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="217" t="s">
+      <c r="B5" s="199" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="221" t="s">
-        <v>181</v>
-      </c>
-      <c r="D5" s="221"/>
-      <c r="E5" s="221" t="s">
-        <v>173</v>
-      </c>
-      <c r="F5" s="222" t="n">
+      <c r="C5" s="203" t="s">
+        <v>182</v>
+      </c>
+      <c r="D5" s="203"/>
+      <c r="E5" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="F5" s="204" t="n">
         <v>35</v>
       </c>
-      <c r="G5" s="218" t="s">
-        <v>182</v>
-      </c>
-      <c r="H5" s="221" t="s">
-        <v>175</v>
-      </c>
-      <c r="I5" s="223" t="s">
+      <c r="G5" s="200" t="s">
+        <v>183</v>
+      </c>
+      <c r="H5" s="203" t="s">
         <v>176</v>
+      </c>
+      <c r="I5" s="205" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="216" t="s">
+      <c r="A6" s="198" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="217" t="s">
+      <c r="B6" s="199" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="221" t="s">
-        <v>183</v>
-      </c>
-      <c r="D6" s="221"/>
-      <c r="E6" s="221" t="s">
-        <v>173</v>
-      </c>
-      <c r="F6" s="222" t="n">
+      <c r="C6" s="203" t="s">
+        <v>184</v>
+      </c>
+      <c r="D6" s="203"/>
+      <c r="E6" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="F6" s="204" t="n">
         <v>41</v>
       </c>
-      <c r="G6" s="218" t="s">
-        <v>184</v>
-      </c>
-      <c r="H6" s="221" t="s">
-        <v>175</v>
-      </c>
-      <c r="I6" s="223" t="s">
+      <c r="G6" s="200" t="s">
+        <v>185</v>
+      </c>
+      <c r="H6" s="203" t="s">
         <v>176</v>
+      </c>
+      <c r="I6" s="205" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="216" t="s">
+      <c r="A7" s="198" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="216" t="s">
+      <c r="B7" s="198" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="224" t="s">
-        <v>172</v>
-      </c>
-      <c r="D7" s="224" t="s">
-        <v>185</v>
-      </c>
-      <c r="E7" s="221" t="s">
+      <c r="C7" s="206" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" s="206" t="s">
         <v>186</v>
       </c>
-      <c r="F7" s="222" t="n">
+      <c r="E7" s="203" t="s">
+        <v>187</v>
+      </c>
+      <c r="F7" s="204" t="n">
         <v>428</v>
       </c>
-      <c r="G7" s="221" t="s">
-        <v>187</v>
-      </c>
-      <c r="H7" s="221" t="s">
+      <c r="G7" s="203" t="s">
         <v>188</v>
       </c>
-      <c r="I7" s="223" t="s">
+      <c r="H7" s="203" t="s">
         <v>189</v>
+      </c>
+      <c r="I7" s="205" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="216" t="s">
+      <c r="A8" s="198" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="216" t="s">
+      <c r="B8" s="198" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="224" t="s">
-        <v>172</v>
-      </c>
-      <c r="D8" s="224" t="s">
+      <c r="C8" s="206" t="s">
+        <v>173</v>
+      </c>
+      <c r="D8" s="206" t="s">
+        <v>191</v>
+      </c>
+      <c r="E8" s="203" t="s">
+        <v>192</v>
+      </c>
+      <c r="F8" s="204" t="n">
+        <v>429</v>
+      </c>
+      <c r="G8" s="203" t="s">
+        <v>193</v>
+      </c>
+      <c r="H8" s="203" t="s">
+        <v>189</v>
+      </c>
+      <c r="I8" s="205" t="s">
         <v>190</v>
-      </c>
-      <c r="E8" s="221" t="s">
-        <v>191</v>
-      </c>
-      <c r="F8" s="222" t="n">
-        <v>429</v>
-      </c>
-      <c r="G8" s="221" t="s">
-        <v>192</v>
-      </c>
-      <c r="H8" s="221" t="s">
-        <v>188</v>
-      </c>
-      <c r="I8" s="223" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="216" t="s">
+      <c r="A9" s="198" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="216" t="s">
+      <c r="B9" s="198" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="224" t="s">
-        <v>177</v>
-      </c>
-      <c r="D9" s="224" t="s">
-        <v>185</v>
-      </c>
-      <c r="E9" s="221" t="s">
+      <c r="C9" s="206" t="s">
+        <v>178</v>
+      </c>
+      <c r="D9" s="206" t="s">
         <v>186</v>
       </c>
-      <c r="F9" s="222" t="n">
+      <c r="E9" s="203" t="s">
+        <v>187</v>
+      </c>
+      <c r="F9" s="204" t="n">
         <v>430</v>
       </c>
-      <c r="G9" s="221" t="s">
-        <v>193</v>
-      </c>
-      <c r="H9" s="221" t="s">
-        <v>188</v>
-      </c>
-      <c r="I9" s="223" t="s">
+      <c r="G9" s="203" t="s">
+        <v>194</v>
+      </c>
+      <c r="H9" s="203" t="s">
         <v>189</v>
+      </c>
+      <c r="I9" s="205" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="216" t="s">
+      <c r="A10" s="198" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="216" t="s">
+      <c r="B10" s="198" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="224" t="s">
-        <v>177</v>
-      </c>
-      <c r="D10" s="224" t="s">
+      <c r="C10" s="206" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" s="206" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" s="203" t="s">
+        <v>192</v>
+      </c>
+      <c r="F10" s="204" t="n">
+        <v>485</v>
+      </c>
+      <c r="G10" s="203" t="s">
+        <v>195</v>
+      </c>
+      <c r="H10" s="203" t="s">
+        <v>189</v>
+      </c>
+      <c r="I10" s="205" t="s">
         <v>190</v>
-      </c>
-      <c r="E10" s="221" t="s">
-        <v>191</v>
-      </c>
-      <c r="F10" s="222" t="n">
-        <v>485</v>
-      </c>
-      <c r="G10" s="221" t="s">
-        <v>194</v>
-      </c>
-      <c r="H10" s="221" t="s">
-        <v>188</v>
-      </c>
-      <c r="I10" s="223" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="216" t="s">
+      <c r="A11" s="198" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="216" t="s">
+      <c r="B11" s="198" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="224" t="s">
-        <v>179</v>
-      </c>
-      <c r="D11" s="224" t="s">
-        <v>185</v>
-      </c>
-      <c r="E11" s="221" t="s">
+      <c r="C11" s="206" t="s">
+        <v>180</v>
+      </c>
+      <c r="D11" s="206" t="s">
         <v>186</v>
       </c>
-      <c r="F11" s="222" t="n">
+      <c r="E11" s="203" t="s">
+        <v>187</v>
+      </c>
+      <c r="F11" s="204" t="n">
         <v>432</v>
       </c>
-      <c r="G11" s="221" t="s">
-        <v>195</v>
-      </c>
-      <c r="H11" s="221" t="s">
-        <v>188</v>
-      </c>
-      <c r="I11" s="223" t="s">
+      <c r="G11" s="203" t="s">
+        <v>196</v>
+      </c>
+      <c r="H11" s="203" t="s">
         <v>189</v>
+      </c>
+      <c r="I11" s="205" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="216" t="s">
+      <c r="A12" s="198" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="216" t="s">
+      <c r="B12" s="198" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="224" t="s">
-        <v>179</v>
-      </c>
-      <c r="D12" s="224" t="s">
+      <c r="C12" s="206" t="s">
+        <v>180</v>
+      </c>
+      <c r="D12" s="206" t="s">
+        <v>191</v>
+      </c>
+      <c r="E12" s="203" t="s">
+        <v>192</v>
+      </c>
+      <c r="F12" s="204" t="n">
+        <v>433</v>
+      </c>
+      <c r="G12" s="203" t="s">
+        <v>197</v>
+      </c>
+      <c r="H12" s="203" t="s">
+        <v>189</v>
+      </c>
+      <c r="I12" s="205" t="s">
         <v>190</v>
-      </c>
-      <c r="E12" s="221" t="s">
-        <v>191</v>
-      </c>
-      <c r="F12" s="222" t="n">
-        <v>433</v>
-      </c>
-      <c r="G12" s="221" t="s">
-        <v>196</v>
-      </c>
-      <c r="H12" s="221" t="s">
-        <v>188</v>
-      </c>
-      <c r="I12" s="223" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="216" t="s">
+      <c r="A13" s="198" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="216" t="s">
+      <c r="B13" s="198" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="224" t="s">
-        <v>181</v>
-      </c>
-      <c r="D13" s="224" t="s">
-        <v>185</v>
-      </c>
-      <c r="E13" s="221" t="s">
+      <c r="C13" s="206" t="s">
+        <v>182</v>
+      </c>
+      <c r="D13" s="206" t="s">
         <v>186</v>
       </c>
-      <c r="F13" s="222" t="n">
+      <c r="E13" s="203" t="s">
+        <v>187</v>
+      </c>
+      <c r="F13" s="204" t="n">
         <v>434</v>
       </c>
-      <c r="G13" s="221" t="s">
-        <v>197</v>
-      </c>
-      <c r="H13" s="221" t="s">
-        <v>188</v>
-      </c>
-      <c r="I13" s="223" t="s">
+      <c r="G13" s="203" t="s">
+        <v>198</v>
+      </c>
+      <c r="H13" s="203" t="s">
         <v>189</v>
+      </c>
+      <c r="I13" s="205" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="216" t="s">
+      <c r="A14" s="198" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="216" t="s">
+      <c r="B14" s="198" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="224" t="s">
-        <v>181</v>
-      </c>
-      <c r="D14" s="224" t="s">
+      <c r="C14" s="206" t="s">
+        <v>182</v>
+      </c>
+      <c r="D14" s="206" t="s">
+        <v>191</v>
+      </c>
+      <c r="E14" s="203" t="s">
+        <v>192</v>
+      </c>
+      <c r="F14" s="204" t="n">
+        <v>435</v>
+      </c>
+      <c r="G14" s="203" t="s">
+        <v>199</v>
+      </c>
+      <c r="H14" s="203" t="s">
+        <v>189</v>
+      </c>
+      <c r="I14" s="205" t="s">
         <v>190</v>
-      </c>
-      <c r="E14" s="221" t="s">
-        <v>191</v>
-      </c>
-      <c r="F14" s="222" t="n">
-        <v>435</v>
-      </c>
-      <c r="G14" s="221" t="s">
-        <v>198</v>
-      </c>
-      <c r="H14" s="221" t="s">
-        <v>188</v>
-      </c>
-      <c r="I14" s="223" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="216" t="s">
+      <c r="A15" s="198" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="216" t="s">
+      <c r="B15" s="198" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="224" t="s">
-        <v>183</v>
-      </c>
-      <c r="D15" s="224" t="s">
-        <v>185</v>
-      </c>
-      <c r="E15" s="221" t="s">
+      <c r="C15" s="206" t="s">
+        <v>184</v>
+      </c>
+      <c r="D15" s="206" t="s">
         <v>186</v>
       </c>
-      <c r="F15" s="222" t="n">
+      <c r="E15" s="203" t="s">
+        <v>187</v>
+      </c>
+      <c r="F15" s="204" t="n">
         <v>436</v>
       </c>
-      <c r="G15" s="221" t="s">
-        <v>199</v>
-      </c>
-      <c r="H15" s="221" t="s">
-        <v>188</v>
-      </c>
-      <c r="I15" s="223" t="s">
+      <c r="G15" s="203" t="s">
+        <v>200</v>
+      </c>
+      <c r="H15" s="203" t="s">
         <v>189</v>
+      </c>
+      <c r="I15" s="205" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="216" t="s">
+      <c r="A16" s="198" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="216" t="s">
+      <c r="B16" s="198" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="224" t="s">
-        <v>183</v>
-      </c>
-      <c r="D16" s="224" t="s">
+      <c r="C16" s="206" t="s">
+        <v>184</v>
+      </c>
+      <c r="D16" s="206" t="s">
+        <v>191</v>
+      </c>
+      <c r="E16" s="203" t="s">
+        <v>192</v>
+      </c>
+      <c r="F16" s="204" t="n">
+        <v>437</v>
+      </c>
+      <c r="G16" s="203" t="s">
+        <v>201</v>
+      </c>
+      <c r="H16" s="203" t="s">
+        <v>189</v>
+      </c>
+      <c r="I16" s="205" t="s">
         <v>190</v>
-      </c>
-      <c r="E16" s="221" t="s">
-        <v>191</v>
-      </c>
-      <c r="F16" s="222" t="n">
-        <v>437</v>
-      </c>
-      <c r="G16" s="221" t="s">
-        <v>200</v>
-      </c>
-      <c r="H16" s="221" t="s">
-        <v>188</v>
-      </c>
-      <c r="I16" s="223" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="216" t="s">
+      <c r="A17" s="198" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="216" t="s">
+      <c r="B17" s="198" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="225" t="s">
-        <v>172</v>
-      </c>
-      <c r="D17" s="225"/>
-      <c r="E17" s="225" t="s">
-        <v>201</v>
-      </c>
-      <c r="F17" s="226" t="n">
+      <c r="C17" s="207" t="s">
+        <v>173</v>
+      </c>
+      <c r="D17" s="207"/>
+      <c r="E17" s="207" t="s">
+        <v>202</v>
+      </c>
+      <c r="F17" s="208" t="n">
         <v>491</v>
       </c>
-      <c r="G17" s="225" t="s">
-        <v>202</v>
-      </c>
-      <c r="H17" s="225" t="s">
-        <v>175</v>
-      </c>
-      <c r="I17" s="227" t="s">
+      <c r="G17" s="207" t="s">
+        <v>203</v>
+      </c>
+      <c r="H17" s="207" t="s">
         <v>176</v>
+      </c>
+      <c r="I17" s="209" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="216" t="s">
+      <c r="A18" s="198" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="216" t="s">
+      <c r="B18" s="198" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="225" t="s">
-        <v>172</v>
-      </c>
-      <c r="D18" s="225"/>
-      <c r="E18" s="225" t="s">
-        <v>203</v>
-      </c>
-      <c r="F18" s="226" t="n">
+      <c r="C18" s="207" t="s">
+        <v>173</v>
+      </c>
+      <c r="D18" s="207"/>
+      <c r="E18" s="207" t="s">
+        <v>204</v>
+      </c>
+      <c r="F18" s="208" t="n">
         <v>492</v>
       </c>
-      <c r="G18" s="225" t="s">
-        <v>204</v>
-      </c>
-      <c r="H18" s="225" t="s">
-        <v>175</v>
-      </c>
-      <c r="I18" s="227" t="s">
+      <c r="G18" s="207" t="s">
+        <v>205</v>
+      </c>
+      <c r="H18" s="207" t="s">
         <v>176</v>
+      </c>
+      <c r="I18" s="209" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="216" t="s">
+      <c r="A19" s="198" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="216" t="s">
+      <c r="B19" s="198" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="225" t="s">
+      <c r="C19" s="207" t="s">
+        <v>178</v>
+      </c>
+      <c r="D19" s="207"/>
+      <c r="E19" s="207" t="s">
+        <v>202</v>
+      </c>
+      <c r="F19" s="208" t="n">
+        <v>493</v>
+      </c>
+      <c r="G19" s="207" t="s">
+        <v>206</v>
+      </c>
+      <c r="H19" s="207" t="s">
+        <v>176</v>
+      </c>
+      <c r="I19" s="209" t="s">
         <v>177</v>
-      </c>
-      <c r="D19" s="225"/>
-      <c r="E19" s="225" t="s">
-        <v>201</v>
-      </c>
-      <c r="F19" s="226" t="n">
-        <v>493</v>
-      </c>
-      <c r="G19" s="225" t="s">
-        <v>205</v>
-      </c>
-      <c r="H19" s="225" t="s">
-        <v>175</v>
-      </c>
-      <c r="I19" s="227" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="216" t="s">
+      <c r="A20" s="198" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="216" t="s">
+      <c r="B20" s="198" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="225" t="s">
+      <c r="C20" s="207" t="s">
+        <v>178</v>
+      </c>
+      <c r="D20" s="207"/>
+      <c r="E20" s="207" t="s">
+        <v>204</v>
+      </c>
+      <c r="F20" s="208" t="n">
+        <v>494</v>
+      </c>
+      <c r="G20" s="207" t="s">
+        <v>207</v>
+      </c>
+      <c r="H20" s="207" t="s">
+        <v>176</v>
+      </c>
+      <c r="I20" s="209" t="s">
         <v>177</v>
-      </c>
-      <c r="D20" s="225"/>
-      <c r="E20" s="225" t="s">
-        <v>203</v>
-      </c>
-      <c r="F20" s="226" t="n">
-        <v>494</v>
-      </c>
-      <c r="G20" s="225" t="s">
-        <v>206</v>
-      </c>
-      <c r="H20" s="225" t="s">
-        <v>175</v>
-      </c>
-      <c r="I20" s="227" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="216" t="s">
+      <c r="A21" s="198" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="216" t="s">
+      <c r="B21" s="198" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="225" t="s">
-        <v>179</v>
-      </c>
-      <c r="D21" s="225"/>
-      <c r="E21" s="225" t="s">
-        <v>201</v>
-      </c>
-      <c r="F21" s="226" t="n">
+      <c r="C21" s="207" t="s">
+        <v>180</v>
+      </c>
+      <c r="D21" s="207"/>
+      <c r="E21" s="207" t="s">
+        <v>202</v>
+      </c>
+      <c r="F21" s="208" t="n">
         <v>495</v>
       </c>
-      <c r="G21" s="225" t="s">
-        <v>207</v>
-      </c>
-      <c r="H21" s="225" t="s">
-        <v>175</v>
-      </c>
-      <c r="I21" s="227" t="s">
+      <c r="G21" s="207" t="s">
+        <v>208</v>
+      </c>
+      <c r="H21" s="207" t="s">
         <v>176</v>
+      </c>
+      <c r="I21" s="209" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="216" t="s">
+      <c r="A22" s="198" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="216" t="s">
+      <c r="B22" s="198" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="225" t="s">
-        <v>179</v>
-      </c>
-      <c r="D22" s="225"/>
-      <c r="E22" s="225" t="s">
-        <v>203</v>
-      </c>
-      <c r="F22" s="226" t="n">
+      <c r="C22" s="207" t="s">
+        <v>180</v>
+      </c>
+      <c r="D22" s="207"/>
+      <c r="E22" s="207" t="s">
+        <v>204</v>
+      </c>
+      <c r="F22" s="208" t="n">
         <v>496</v>
       </c>
-      <c r="G22" s="225" t="s">
-        <v>208</v>
-      </c>
-      <c r="H22" s="225" t="s">
-        <v>175</v>
-      </c>
-      <c r="I22" s="227" t="s">
+      <c r="G22" s="207" t="s">
+        <v>209</v>
+      </c>
+      <c r="H22" s="207" t="s">
         <v>176</v>
+      </c>
+      <c r="I22" s="209" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="216" t="s">
+      <c r="A23" s="198" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="216" t="s">
+      <c r="B23" s="198" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="225" t="s">
-        <v>181</v>
-      </c>
-      <c r="D23" s="225"/>
-      <c r="E23" s="225" t="s">
-        <v>201</v>
-      </c>
-      <c r="F23" s="226" t="n">
+      <c r="C23" s="207" t="s">
+        <v>182</v>
+      </c>
+      <c r="D23" s="207"/>
+      <c r="E23" s="207" t="s">
+        <v>202</v>
+      </c>
+      <c r="F23" s="208" t="n">
         <v>497</v>
       </c>
-      <c r="G23" s="225" t="s">
-        <v>209</v>
-      </c>
-      <c r="H23" s="225" t="s">
-        <v>175</v>
-      </c>
-      <c r="I23" s="227" t="s">
+      <c r="G23" s="207" t="s">
+        <v>210</v>
+      </c>
+      <c r="H23" s="207" t="s">
         <v>176</v>
+      </c>
+      <c r="I23" s="209" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="216" t="s">
+      <c r="A24" s="198" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="216" t="s">
+      <c r="B24" s="198" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="225" t="s">
-        <v>181</v>
-      </c>
-      <c r="D24" s="225"/>
-      <c r="E24" s="225" t="s">
-        <v>203</v>
-      </c>
-      <c r="F24" s="226" t="n">
+      <c r="C24" s="207" t="s">
+        <v>182</v>
+      </c>
+      <c r="D24" s="207"/>
+      <c r="E24" s="207" t="s">
+        <v>204</v>
+      </c>
+      <c r="F24" s="208" t="n">
         <v>498</v>
       </c>
-      <c r="G24" s="225" t="s">
-        <v>210</v>
-      </c>
-      <c r="H24" s="225" t="s">
-        <v>175</v>
-      </c>
-      <c r="I24" s="227" t="s">
+      <c r="G24" s="207" t="s">
+        <v>211</v>
+      </c>
+      <c r="H24" s="207" t="s">
         <v>176</v>
+      </c>
+      <c r="I24" s="209" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="216" t="s">
+      <c r="A25" s="198" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="216" t="s">
+      <c r="B25" s="198" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="225" t="s">
-        <v>183</v>
-      </c>
-      <c r="D25" s="225"/>
-      <c r="E25" s="225" t="s">
-        <v>201</v>
-      </c>
-      <c r="F25" s="226" t="n">
+      <c r="C25" s="207" t="s">
+        <v>184</v>
+      </c>
+      <c r="D25" s="207"/>
+      <c r="E25" s="207" t="s">
+        <v>202</v>
+      </c>
+      <c r="F25" s="208" t="n">
         <v>499</v>
       </c>
-      <c r="G25" s="225" t="s">
-        <v>211</v>
-      </c>
-      <c r="H25" s="225" t="s">
-        <v>175</v>
-      </c>
-      <c r="I25" s="227" t="s">
+      <c r="G25" s="207" t="s">
+        <v>212</v>
+      </c>
+      <c r="H25" s="207" t="s">
         <v>176</v>
+      </c>
+      <c r="I25" s="209" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="216" t="s">
+      <c r="A26" s="198" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="216" t="s">
+      <c r="B26" s="198" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="225" t="s">
-        <v>183</v>
-      </c>
-      <c r="D26" s="225"/>
-      <c r="E26" s="225" t="s">
-        <v>203</v>
-      </c>
-      <c r="F26" s="226" t="n">
+      <c r="C26" s="207" t="s">
+        <v>184</v>
+      </c>
+      <c r="D26" s="207"/>
+      <c r="E26" s="207" t="s">
+        <v>204</v>
+      </c>
+      <c r="F26" s="208" t="n">
         <v>500</v>
       </c>
-      <c r="G26" s="225" t="s">
-        <v>212</v>
-      </c>
-      <c r="H26" s="225" t="s">
-        <v>175</v>
-      </c>
-      <c r="I26" s="227" t="s">
+      <c r="G26" s="207" t="s">
+        <v>213</v>
+      </c>
+      <c r="H26" s="207" t="s">
         <v>176</v>
+      </c>
+      <c r="I26" s="209" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="216" t="s">
+      <c r="A27" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="216" t="s">
+      <c r="B27" s="198" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="221" t="s">
-        <v>213</v>
-      </c>
-      <c r="D27" s="221"/>
-      <c r="E27" s="221" t="s">
+      <c r="C27" s="203" t="s">
         <v>214</v>
       </c>
-      <c r="F27" s="222" t="n">
+      <c r="D27" s="203"/>
+      <c r="E27" s="203" t="s">
+        <v>215</v>
+      </c>
+      <c r="F27" s="204" t="n">
         <v>45</v>
       </c>
-      <c r="G27" s="218" t="s">
-        <v>174</v>
-      </c>
-      <c r="H27" s="221" t="s">
+      <c r="G27" s="200" t="s">
         <v>175</v>
       </c>
-      <c r="I27" s="223" t="s">
+      <c r="H27" s="203" t="s">
         <v>176</v>
+      </c>
+      <c r="I27" s="205" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="216" t="s">
+      <c r="A28" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="216" t="s">
+      <c r="B28" s="198" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="221" t="s">
+      <c r="C28" s="203" t="s">
+        <v>216</v>
+      </c>
+      <c r="D28" s="203"/>
+      <c r="E28" s="203" t="s">
         <v>215</v>
       </c>
-      <c r="D28" s="221"/>
-      <c r="E28" s="221" t="s">
-        <v>214</v>
-      </c>
-      <c r="F28" s="222" t="n">
+      <c r="F28" s="204" t="n">
         <v>50</v>
       </c>
-      <c r="G28" s="218" t="s">
-        <v>178</v>
-      </c>
-      <c r="H28" s="221" t="s">
-        <v>175</v>
-      </c>
-      <c r="I28" s="223" t="s">
+      <c r="G28" s="200" t="s">
+        <v>179</v>
+      </c>
+      <c r="H28" s="203" t="s">
         <v>176</v>
+      </c>
+      <c r="I28" s="205" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="216" t="s">
+      <c r="A29" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="216" t="s">
+      <c r="B29" s="198" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="221" t="s">
-        <v>216</v>
-      </c>
-      <c r="D29" s="221"/>
-      <c r="E29" s="221" t="s">
-        <v>214</v>
-      </c>
-      <c r="F29" s="222" t="n">
+      <c r="C29" s="203" t="s">
+        <v>217</v>
+      </c>
+      <c r="D29" s="203"/>
+      <c r="E29" s="203" t="s">
+        <v>215</v>
+      </c>
+      <c r="F29" s="204" t="n">
         <v>53</v>
       </c>
-      <c r="G29" s="218" t="s">
-        <v>180</v>
-      </c>
-      <c r="H29" s="221" t="s">
-        <v>175</v>
-      </c>
-      <c r="I29" s="223" t="s">
+      <c r="G29" s="200" t="s">
+        <v>181</v>
+      </c>
+      <c r="H29" s="203" t="s">
         <v>176</v>
+      </c>
+      <c r="I29" s="205" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="216" t="s">
+      <c r="A30" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="216" t="s">
+      <c r="B30" s="198" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="221" t="s">
-        <v>217</v>
-      </c>
-      <c r="D30" s="221"/>
-      <c r="E30" s="221" t="s">
-        <v>214</v>
-      </c>
-      <c r="F30" s="222" t="n">
+      <c r="C30" s="203" t="s">
+        <v>218</v>
+      </c>
+      <c r="D30" s="203"/>
+      <c r="E30" s="203" t="s">
+        <v>215</v>
+      </c>
+      <c r="F30" s="204" t="n">
         <v>56</v>
       </c>
-      <c r="G30" s="218" t="s">
-        <v>182</v>
-      </c>
-      <c r="H30" s="221" t="s">
-        <v>175</v>
-      </c>
-      <c r="I30" s="223" t="s">
+      <c r="G30" s="200" t="s">
+        <v>183</v>
+      </c>
+      <c r="H30" s="203" t="s">
         <v>176</v>
+      </c>
+      <c r="I30" s="205" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="216" t="s">
+      <c r="A31" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="216" t="s">
+      <c r="B31" s="198" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="221" t="s">
-        <v>218</v>
-      </c>
-      <c r="D31" s="221"/>
-      <c r="E31" s="221" t="s">
-        <v>214</v>
-      </c>
-      <c r="F31" s="222" t="n">
+      <c r="C31" s="203" t="s">
+        <v>219</v>
+      </c>
+      <c r="D31" s="203"/>
+      <c r="E31" s="203" t="s">
+        <v>215</v>
+      </c>
+      <c r="F31" s="204" t="n">
         <v>59</v>
       </c>
-      <c r="G31" s="218" t="s">
-        <v>184</v>
-      </c>
-      <c r="H31" s="221" t="s">
-        <v>175</v>
-      </c>
-      <c r="I31" s="223" t="s">
+      <c r="G31" s="200" t="s">
+        <v>185</v>
+      </c>
+      <c r="H31" s="203" t="s">
         <v>176</v>
+      </c>
+      <c r="I31" s="205" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="216" t="s">
+      <c r="A32" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="216" t="s">
+      <c r="B32" s="198" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="221" t="s">
-        <v>219</v>
-      </c>
-      <c r="D32" s="221"/>
-      <c r="E32" s="221" t="s">
-        <v>214</v>
-      </c>
-      <c r="F32" s="222" t="n">
+      <c r="C32" s="203" t="s">
+        <v>220</v>
+      </c>
+      <c r="D32" s="203"/>
+      <c r="E32" s="203" t="s">
+        <v>215</v>
+      </c>
+      <c r="F32" s="204" t="n">
         <v>62</v>
       </c>
-      <c r="G32" s="218" t="s">
-        <v>220</v>
-      </c>
-      <c r="H32" s="221" t="s">
-        <v>175</v>
-      </c>
-      <c r="I32" s="223" t="s">
+      <c r="G32" s="200" t="s">
+        <v>221</v>
+      </c>
+      <c r="H32" s="203" t="s">
         <v>176</v>
+      </c>
+      <c r="I32" s="205" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="216" t="s">
+      <c r="A33" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="216" t="s">
+      <c r="B33" s="198" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="221" t="s">
-        <v>221</v>
-      </c>
-      <c r="D33" s="221"/>
-      <c r="E33" s="221" t="s">
-        <v>214</v>
-      </c>
-      <c r="F33" s="222" t="n">
+      <c r="C33" s="203" t="s">
+        <v>222</v>
+      </c>
+      <c r="D33" s="203"/>
+      <c r="E33" s="203" t="s">
+        <v>215</v>
+      </c>
+      <c r="F33" s="204" t="n">
         <v>65</v>
       </c>
-      <c r="G33" s="218" t="s">
-        <v>222</v>
-      </c>
-      <c r="H33" s="221" t="s">
-        <v>175</v>
-      </c>
-      <c r="I33" s="223" t="s">
+      <c r="G33" s="200" t="s">
+        <v>223</v>
+      </c>
+      <c r="H33" s="203" t="s">
         <v>176</v>
+      </c>
+      <c r="I33" s="205" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="216" t="s">
+      <c r="A34" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="216" t="s">
+      <c r="B34" s="198" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="221" t="s">
-        <v>223</v>
-      </c>
-      <c r="D34" s="221"/>
-      <c r="E34" s="221" t="s">
-        <v>214</v>
-      </c>
-      <c r="F34" s="222" t="n">
+      <c r="C34" s="203" t="s">
+        <v>224</v>
+      </c>
+      <c r="D34" s="203"/>
+      <c r="E34" s="203" t="s">
+        <v>215</v>
+      </c>
+      <c r="F34" s="204" t="n">
         <v>68</v>
       </c>
-      <c r="G34" s="218" t="s">
-        <v>224</v>
-      </c>
-      <c r="H34" s="221" t="s">
-        <v>175</v>
-      </c>
-      <c r="I34" s="223" t="s">
+      <c r="G34" s="200" t="s">
+        <v>225</v>
+      </c>
+      <c r="H34" s="203" t="s">
         <v>176</v>
+      </c>
+      <c r="I34" s="205" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="216" t="s">
+      <c r="A35" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="216" t="s">
+      <c r="B35" s="198" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="221" t="s">
-        <v>225</v>
-      </c>
-      <c r="D35" s="221"/>
-      <c r="E35" s="221" t="s">
-        <v>214</v>
-      </c>
-      <c r="F35" s="222" t="n">
+      <c r="C35" s="203" t="s">
+        <v>226</v>
+      </c>
+      <c r="D35" s="203"/>
+      <c r="E35" s="203" t="s">
+        <v>215</v>
+      </c>
+      <c r="F35" s="204" t="n">
         <v>71</v>
       </c>
-      <c r="G35" s="218" t="s">
-        <v>226</v>
-      </c>
-      <c r="H35" s="221" t="s">
-        <v>175</v>
-      </c>
-      <c r="I35" s="223" t="s">
+      <c r="G35" s="200" t="s">
+        <v>227</v>
+      </c>
+      <c r="H35" s="203" t="s">
         <v>176</v>
+      </c>
+      <c r="I35" s="205" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="216" t="s">
+      <c r="A36" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="B36" s="216" t="s">
+      <c r="B36" s="198" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="221" t="s">
-        <v>227</v>
-      </c>
-      <c r="D36" s="221"/>
-      <c r="E36" s="221" t="s">
-        <v>214</v>
-      </c>
-      <c r="F36" s="222" t="n">
+      <c r="C36" s="203" t="s">
+        <v>228</v>
+      </c>
+      <c r="D36" s="203"/>
+      <c r="E36" s="203" t="s">
+        <v>215</v>
+      </c>
+      <c r="F36" s="204" t="n">
         <v>74</v>
       </c>
-      <c r="G36" s="218" t="s">
-        <v>228</v>
-      </c>
-      <c r="H36" s="221" t="s">
-        <v>175</v>
-      </c>
-      <c r="I36" s="223" t="s">
+      <c r="G36" s="200" t="s">
+        <v>229</v>
+      </c>
+      <c r="H36" s="203" t="s">
         <v>176</v>
+      </c>
+      <c r="I36" s="205" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="216" t="s">
+      <c r="A37" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="216" t="s">
+      <c r="B37" s="198" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="224" t="s">
-        <v>213</v>
-      </c>
-      <c r="D37" s="224" t="s">
-        <v>185</v>
-      </c>
-      <c r="E37" s="221" t="s">
-        <v>229</v>
-      </c>
-      <c r="F37" s="228" t="n">
+      <c r="C37" s="206" t="s">
+        <v>214</v>
+      </c>
+      <c r="D37" s="206" t="s">
+        <v>186</v>
+      </c>
+      <c r="E37" s="203" t="s">
+        <v>230</v>
+      </c>
+      <c r="F37" s="210" t="n">
         <v>486</v>
       </c>
-      <c r="G37" s="221" t="s">
-        <v>230</v>
-      </c>
-      <c r="H37" s="221" t="s">
-        <v>188</v>
-      </c>
-      <c r="I37" s="223" t="s">
+      <c r="G37" s="203" t="s">
+        <v>231</v>
+      </c>
+      <c r="H37" s="203" t="s">
         <v>189</v>
+      </c>
+      <c r="I37" s="205" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="216" t="s">
+      <c r="A38" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="216" t="s">
+      <c r="B38" s="198" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="224" t="s">
-        <v>213</v>
-      </c>
-      <c r="D38" s="224" t="s">
+      <c r="C38" s="206" t="s">
+        <v>214</v>
+      </c>
+      <c r="D38" s="206" t="s">
+        <v>191</v>
+      </c>
+      <c r="E38" s="203" t="s">
+        <v>232</v>
+      </c>
+      <c r="F38" s="210" t="n">
+        <v>484</v>
+      </c>
+      <c r="G38" s="203" t="s">
+        <v>233</v>
+      </c>
+      <c r="H38" s="203" t="s">
+        <v>189</v>
+      </c>
+      <c r="I38" s="205" t="s">
         <v>190</v>
-      </c>
-      <c r="E38" s="221" t="s">
-        <v>231</v>
-      </c>
-      <c r="F38" s="228" t="n">
-        <v>484</v>
-      </c>
-      <c r="G38" s="221" t="s">
-        <v>232</v>
-      </c>
-      <c r="H38" s="221" t="s">
-        <v>188</v>
-      </c>
-      <c r="I38" s="223" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="216" t="s">
+      <c r="A39" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="B39" s="216" t="s">
+      <c r="B39" s="198" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="224" t="s">
-        <v>215</v>
-      </c>
-      <c r="D39" s="224" t="s">
-        <v>185</v>
-      </c>
-      <c r="E39" s="221" t="s">
-        <v>229</v>
-      </c>
-      <c r="F39" s="229" t="n">
+      <c r="C39" s="206" t="s">
+        <v>216</v>
+      </c>
+      <c r="D39" s="206" t="s">
+        <v>186</v>
+      </c>
+      <c r="E39" s="203" t="s">
+        <v>230</v>
+      </c>
+      <c r="F39" s="211" t="n">
         <v>489</v>
       </c>
-      <c r="G39" s="221" t="s">
-        <v>233</v>
-      </c>
-      <c r="H39" s="221" t="s">
-        <v>188</v>
-      </c>
-      <c r="I39" s="223" t="s">
+      <c r="G39" s="203" t="s">
+        <v>234</v>
+      </c>
+      <c r="H39" s="203" t="s">
         <v>189</v>
+      </c>
+      <c r="I39" s="205" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="216" t="s">
+      <c r="A40" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="216" t="s">
+      <c r="B40" s="198" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="224" t="s">
-        <v>215</v>
-      </c>
-      <c r="D40" s="224" t="s">
+      <c r="C40" s="206" t="s">
+        <v>216</v>
+      </c>
+      <c r="D40" s="206" t="s">
+        <v>191</v>
+      </c>
+      <c r="E40" s="203" t="s">
+        <v>232</v>
+      </c>
+      <c r="F40" s="211" t="n">
+        <v>439</v>
+      </c>
+      <c r="G40" s="203" t="s">
+        <v>235</v>
+      </c>
+      <c r="H40" s="203" t="s">
+        <v>189</v>
+      </c>
+      <c r="I40" s="205" t="s">
         <v>190</v>
-      </c>
-      <c r="E40" s="221" t="s">
-        <v>231</v>
-      </c>
-      <c r="F40" s="229" t="n">
-        <v>439</v>
-      </c>
-      <c r="G40" s="221" t="s">
-        <v>234</v>
-      </c>
-      <c r="H40" s="221" t="s">
-        <v>188</v>
-      </c>
-      <c r="I40" s="223" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="216" t="s">
+      <c r="A41" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="216" t="s">
+      <c r="B41" s="198" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="224" t="s">
-        <v>216</v>
-      </c>
-      <c r="D41" s="224" t="s">
-        <v>185</v>
-      </c>
-      <c r="E41" s="221" t="s">
-        <v>229</v>
-      </c>
-      <c r="F41" s="228" t="n">
+      <c r="C41" s="206" t="s">
+        <v>217</v>
+      </c>
+      <c r="D41" s="206" t="s">
+        <v>186</v>
+      </c>
+      <c r="E41" s="203" t="s">
+        <v>230</v>
+      </c>
+      <c r="F41" s="210" t="n">
         <v>440</v>
       </c>
-      <c r="G41" s="221" t="s">
-        <v>235</v>
-      </c>
-      <c r="H41" s="221" t="s">
-        <v>188</v>
-      </c>
-      <c r="I41" s="223" t="s">
+      <c r="G41" s="203" t="s">
+        <v>236</v>
+      </c>
+      <c r="H41" s="203" t="s">
         <v>189</v>
+      </c>
+      <c r="I41" s="205" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="216" t="s">
+      <c r="A42" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="B42" s="216" t="s">
+      <c r="B42" s="198" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="224" t="s">
-        <v>216</v>
-      </c>
-      <c r="D42" s="224" t="s">
+      <c r="C42" s="206" t="s">
+        <v>217</v>
+      </c>
+      <c r="D42" s="206" t="s">
+        <v>191</v>
+      </c>
+      <c r="E42" s="203" t="s">
+        <v>232</v>
+      </c>
+      <c r="F42" s="210" t="n">
+        <v>441</v>
+      </c>
+      <c r="G42" s="203" t="s">
+        <v>237</v>
+      </c>
+      <c r="H42" s="203" t="s">
+        <v>189</v>
+      </c>
+      <c r="I42" s="205" t="s">
         <v>190</v>
-      </c>
-      <c r="E42" s="221" t="s">
-        <v>231</v>
-      </c>
-      <c r="F42" s="228" t="n">
-        <v>441</v>
-      </c>
-      <c r="G42" s="221" t="s">
-        <v>236</v>
-      </c>
-      <c r="H42" s="221" t="s">
-        <v>188</v>
-      </c>
-      <c r="I42" s="223" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="216" t="s">
+      <c r="A43" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="216" t="s">
+      <c r="B43" s="198" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="224" t="s">
-        <v>217</v>
-      </c>
-      <c r="D43" s="224" t="s">
-        <v>185</v>
-      </c>
-      <c r="E43" s="221" t="s">
-        <v>229</v>
-      </c>
-      <c r="F43" s="230" t="n">
+      <c r="C43" s="206" t="s">
+        <v>218</v>
+      </c>
+      <c r="D43" s="206" t="s">
+        <v>186</v>
+      </c>
+      <c r="E43" s="203" t="s">
+        <v>230</v>
+      </c>
+      <c r="F43" s="212" t="n">
         <v>442</v>
       </c>
-      <c r="G43" s="221" t="s">
-        <v>237</v>
-      </c>
-      <c r="H43" s="221" t="s">
-        <v>188</v>
-      </c>
-      <c r="I43" s="223" t="s">
+      <c r="G43" s="203" t="s">
+        <v>238</v>
+      </c>
+      <c r="H43" s="203" t="s">
         <v>189</v>
+      </c>
+      <c r="I43" s="205" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="216" t="s">
+      <c r="A44" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="B44" s="216" t="s">
+      <c r="B44" s="198" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="224" t="s">
-        <v>217</v>
-      </c>
-      <c r="D44" s="224" t="s">
+      <c r="C44" s="206" t="s">
+        <v>218</v>
+      </c>
+      <c r="D44" s="206" t="s">
+        <v>191</v>
+      </c>
+      <c r="E44" s="203" t="s">
+        <v>232</v>
+      </c>
+      <c r="F44" s="212" t="n">
+        <v>443</v>
+      </c>
+      <c r="G44" s="203" t="s">
+        <v>239</v>
+      </c>
+      <c r="H44" s="203" t="s">
+        <v>189</v>
+      </c>
+      <c r="I44" s="205" t="s">
         <v>190</v>
-      </c>
-      <c r="E44" s="221" t="s">
-        <v>231</v>
-      </c>
-      <c r="F44" s="230" t="n">
-        <v>443</v>
-      </c>
-      <c r="G44" s="221" t="s">
-        <v>238</v>
-      </c>
-      <c r="H44" s="221" t="s">
-        <v>188</v>
-      </c>
-      <c r="I44" s="223" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="216" t="s">
+      <c r="A45" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="216" t="s">
+      <c r="B45" s="198" t="s">
         <v>50</v>
       </c>
-      <c r="C45" s="224" t="s">
-        <v>218</v>
-      </c>
-      <c r="D45" s="224" t="s">
-        <v>185</v>
-      </c>
-      <c r="E45" s="221" t="s">
-        <v>229</v>
-      </c>
-      <c r="F45" s="230" t="n">
+      <c r="C45" s="206" t="s">
+        <v>219</v>
+      </c>
+      <c r="D45" s="206" t="s">
+        <v>186</v>
+      </c>
+      <c r="E45" s="203" t="s">
+        <v>230</v>
+      </c>
+      <c r="F45" s="212" t="n">
         <v>444</v>
       </c>
-      <c r="G45" s="221" t="s">
-        <v>239</v>
-      </c>
-      <c r="H45" s="221" t="s">
-        <v>188</v>
-      </c>
-      <c r="I45" s="223" t="s">
+      <c r="G45" s="203" t="s">
+        <v>240</v>
+      </c>
+      <c r="H45" s="203" t="s">
         <v>189</v>
+      </c>
+      <c r="I45" s="205" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="216" t="s">
+      <c r="A46" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="B46" s="216" t="s">
+      <c r="B46" s="198" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="224" t="s">
-        <v>218</v>
-      </c>
-      <c r="D46" s="224" t="s">
+      <c r="C46" s="206" t="s">
+        <v>219</v>
+      </c>
+      <c r="D46" s="206" t="s">
+        <v>191</v>
+      </c>
+      <c r="E46" s="203" t="s">
+        <v>232</v>
+      </c>
+      <c r="F46" s="212" t="n">
+        <v>445</v>
+      </c>
+      <c r="G46" s="203" t="s">
+        <v>241</v>
+      </c>
+      <c r="H46" s="203" t="s">
+        <v>189</v>
+      </c>
+      <c r="I46" s="205" t="s">
         <v>190</v>
-      </c>
-      <c r="E46" s="221" t="s">
-        <v>231</v>
-      </c>
-      <c r="F46" s="230" t="n">
-        <v>445</v>
-      </c>
-      <c r="G46" s="221" t="s">
-        <v>240</v>
-      </c>
-      <c r="H46" s="221" t="s">
-        <v>188</v>
-      </c>
-      <c r="I46" s="223" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="216" t="s">
+      <c r="A47" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="216" t="s">
+      <c r="B47" s="198" t="s">
         <v>50</v>
       </c>
-      <c r="C47" s="224" t="s">
-        <v>219</v>
-      </c>
-      <c r="D47" s="224" t="s">
-        <v>185</v>
-      </c>
-      <c r="E47" s="221" t="s">
-        <v>229</v>
-      </c>
-      <c r="F47" s="228" t="n">
+      <c r="C47" s="206" t="s">
+        <v>220</v>
+      </c>
+      <c r="D47" s="206" t="s">
+        <v>186</v>
+      </c>
+      <c r="E47" s="203" t="s">
+        <v>230</v>
+      </c>
+      <c r="F47" s="210" t="n">
         <v>446</v>
       </c>
-      <c r="G47" s="221" t="s">
-        <v>241</v>
-      </c>
-      <c r="H47" s="221" t="s">
-        <v>188</v>
-      </c>
-      <c r="I47" s="223" t="s">
+      <c r="G47" s="203" t="s">
+        <v>242</v>
+      </c>
+      <c r="H47" s="203" t="s">
         <v>189</v>
+      </c>
+      <c r="I47" s="205" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="216" t="s">
+      <c r="A48" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="216" t="s">
+      <c r="B48" s="198" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="224" t="s">
-        <v>219</v>
-      </c>
-      <c r="D48" s="224" t="s">
+      <c r="C48" s="206" t="s">
+        <v>220</v>
+      </c>
+      <c r="D48" s="206" t="s">
+        <v>191</v>
+      </c>
+      <c r="E48" s="203" t="s">
+        <v>232</v>
+      </c>
+      <c r="F48" s="210" t="n">
+        <v>447</v>
+      </c>
+      <c r="G48" s="203" t="s">
+        <v>243</v>
+      </c>
+      <c r="H48" s="203" t="s">
+        <v>189</v>
+      </c>
+      <c r="I48" s="205" t="s">
         <v>190</v>
-      </c>
-      <c r="E48" s="221" t="s">
-        <v>231</v>
-      </c>
-      <c r="F48" s="228" t="n">
-        <v>447</v>
-      </c>
-      <c r="G48" s="221" t="s">
-        <v>242</v>
-      </c>
-      <c r="H48" s="221" t="s">
-        <v>188</v>
-      </c>
-      <c r="I48" s="223" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="216" t="s">
+      <c r="A49" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="B49" s="216" t="s">
+      <c r="B49" s="198" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="224" t="s">
-        <v>221</v>
-      </c>
-      <c r="D49" s="224" t="s">
-        <v>185</v>
-      </c>
-      <c r="E49" s="221" t="s">
-        <v>229</v>
-      </c>
-      <c r="F49" s="228" t="n">
+      <c r="C49" s="206" t="s">
+        <v>222</v>
+      </c>
+      <c r="D49" s="206" t="s">
+        <v>186</v>
+      </c>
+      <c r="E49" s="203" t="s">
+        <v>230</v>
+      </c>
+      <c r="F49" s="210" t="n">
         <v>448</v>
       </c>
-      <c r="G49" s="221" t="s">
-        <v>243</v>
-      </c>
-      <c r="H49" s="221" t="s">
-        <v>188</v>
-      </c>
-      <c r="I49" s="223" t="s">
+      <c r="G49" s="203" t="s">
+        <v>244</v>
+      </c>
+      <c r="H49" s="203" t="s">
         <v>189</v>
+      </c>
+      <c r="I49" s="205" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="216" t="s">
+      <c r="A50" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="216" t="s">
+      <c r="B50" s="198" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="224" t="s">
-        <v>221</v>
-      </c>
-      <c r="D50" s="224" t="s">
+      <c r="C50" s="206" t="s">
+        <v>222</v>
+      </c>
+      <c r="D50" s="206" t="s">
+        <v>191</v>
+      </c>
+      <c r="E50" s="203" t="s">
+        <v>232</v>
+      </c>
+      <c r="F50" s="210" t="n">
+        <v>449</v>
+      </c>
+      <c r="G50" s="203" t="s">
+        <v>245</v>
+      </c>
+      <c r="H50" s="203" t="s">
+        <v>189</v>
+      </c>
+      <c r="I50" s="205" t="s">
         <v>190</v>
-      </c>
-      <c r="E50" s="221" t="s">
-        <v>231</v>
-      </c>
-      <c r="F50" s="228" t="n">
-        <v>449</v>
-      </c>
-      <c r="G50" s="221" t="s">
-        <v>244</v>
-      </c>
-      <c r="H50" s="221" t="s">
-        <v>188</v>
-      </c>
-      <c r="I50" s="223" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="216" t="s">
+      <c r="A51" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="216" t="s">
+      <c r="B51" s="198" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="224" t="s">
-        <v>223</v>
-      </c>
-      <c r="D51" s="224" t="s">
-        <v>185</v>
-      </c>
-      <c r="E51" s="221" t="s">
-        <v>229</v>
-      </c>
-      <c r="F51" s="228" t="n">
+      <c r="C51" s="206" t="s">
+        <v>224</v>
+      </c>
+      <c r="D51" s="206" t="s">
+        <v>186</v>
+      </c>
+      <c r="E51" s="203" t="s">
+        <v>230</v>
+      </c>
+      <c r="F51" s="210" t="n">
         <v>450</v>
       </c>
-      <c r="G51" s="221" t="s">
-        <v>245</v>
-      </c>
-      <c r="H51" s="221" t="s">
-        <v>188</v>
-      </c>
-      <c r="I51" s="223" t="s">
+      <c r="G51" s="203" t="s">
+        <v>246</v>
+      </c>
+      <c r="H51" s="203" t="s">
         <v>189</v>
+      </c>
+      <c r="I51" s="205" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="216" t="s">
+      <c r="A52" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="216" t="s">
+      <c r="B52" s="198" t="s">
         <v>50</v>
       </c>
-      <c r="C52" s="224" t="s">
-        <v>223</v>
-      </c>
-      <c r="D52" s="224" t="s">
+      <c r="C52" s="206" t="s">
+        <v>224</v>
+      </c>
+      <c r="D52" s="206" t="s">
+        <v>191</v>
+      </c>
+      <c r="E52" s="203" t="s">
+        <v>232</v>
+      </c>
+      <c r="F52" s="210" t="n">
+        <v>451</v>
+      </c>
+      <c r="G52" s="203" t="s">
+        <v>247</v>
+      </c>
+      <c r="H52" s="203" t="s">
+        <v>189</v>
+      </c>
+      <c r="I52" s="205" t="s">
         <v>190</v>
-      </c>
-      <c r="E52" s="221" t="s">
-        <v>231</v>
-      </c>
-      <c r="F52" s="228" t="n">
-        <v>451</v>
-      </c>
-      <c r="G52" s="221" t="s">
-        <v>246</v>
-      </c>
-      <c r="H52" s="221" t="s">
-        <v>188</v>
-      </c>
-      <c r="I52" s="223" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="216" t="s">
+      <c r="A53" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="216" t="s">
+      <c r="B53" s="198" t="s">
         <v>50</v>
       </c>
-      <c r="C53" s="224" t="s">
-        <v>225</v>
-      </c>
-      <c r="D53" s="224" t="s">
-        <v>185</v>
-      </c>
-      <c r="E53" s="221" t="s">
-        <v>229</v>
-      </c>
-      <c r="F53" s="228" t="n">
+      <c r="C53" s="206" t="s">
+        <v>226</v>
+      </c>
+      <c r="D53" s="206" t="s">
+        <v>186</v>
+      </c>
+      <c r="E53" s="203" t="s">
+        <v>230</v>
+      </c>
+      <c r="F53" s="210" t="n">
         <v>452</v>
       </c>
-      <c r="G53" s="221" t="s">
-        <v>247</v>
-      </c>
-      <c r="H53" s="221" t="s">
-        <v>188</v>
-      </c>
-      <c r="I53" s="223" t="s">
+      <c r="G53" s="203" t="s">
+        <v>248</v>
+      </c>
+      <c r="H53" s="203" t="s">
         <v>189</v>
+      </c>
+      <c r="I53" s="205" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="216" t="s">
+      <c r="A54" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="B54" s="216" t="s">
+      <c r="B54" s="198" t="s">
         <v>50</v>
       </c>
-      <c r="C54" s="224" t="s">
-        <v>225</v>
-      </c>
-      <c r="D54" s="224" t="s">
+      <c r="C54" s="206" t="s">
+        <v>226</v>
+      </c>
+      <c r="D54" s="206" t="s">
+        <v>191</v>
+      </c>
+      <c r="E54" s="203" t="s">
+        <v>232</v>
+      </c>
+      <c r="F54" s="210" t="n">
+        <v>453</v>
+      </c>
+      <c r="G54" s="203" t="s">
+        <v>249</v>
+      </c>
+      <c r="H54" s="203" t="s">
+        <v>189</v>
+      </c>
+      <c r="I54" s="205" t="s">
         <v>190</v>
-      </c>
-      <c r="E54" s="221" t="s">
-        <v>231</v>
-      </c>
-      <c r="F54" s="228" t="n">
-        <v>453</v>
-      </c>
-      <c r="G54" s="221" t="s">
-        <v>248</v>
-      </c>
-      <c r="H54" s="221" t="s">
-        <v>188</v>
-      </c>
-      <c r="I54" s="223" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="216" t="s">
+      <c r="A55" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="B55" s="216" t="s">
+      <c r="B55" s="198" t="s">
         <v>50</v>
       </c>
-      <c r="C55" s="224" t="s">
-        <v>227</v>
-      </c>
-      <c r="D55" s="224" t="s">
-        <v>185</v>
-      </c>
-      <c r="E55" s="221" t="s">
-        <v>229</v>
-      </c>
-      <c r="F55" s="222" t="n">
+      <c r="C55" s="206" t="s">
+        <v>228</v>
+      </c>
+      <c r="D55" s="206" t="s">
+        <v>186</v>
+      </c>
+      <c r="E55" s="203" t="s">
+        <v>230</v>
+      </c>
+      <c r="F55" s="204" t="n">
         <v>454</v>
       </c>
-      <c r="G55" s="221" t="s">
-        <v>249</v>
-      </c>
-      <c r="H55" s="221" t="s">
-        <v>188</v>
-      </c>
-      <c r="I55" s="223" t="s">
+      <c r="G55" s="203" t="s">
+        <v>250</v>
+      </c>
+      <c r="H55" s="203" t="s">
         <v>189</v>
+      </c>
+      <c r="I55" s="205" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="216" t="s">
+      <c r="A56" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="216" t="s">
+      <c r="B56" s="198" t="s">
         <v>50</v>
       </c>
-      <c r="C56" s="224" t="s">
-        <v>227</v>
-      </c>
-      <c r="D56" s="224" t="s">
+      <c r="C56" s="206" t="s">
+        <v>228</v>
+      </c>
+      <c r="D56" s="206" t="s">
+        <v>191</v>
+      </c>
+      <c r="E56" s="203" t="s">
+        <v>232</v>
+      </c>
+      <c r="F56" s="204" t="n">
+        <v>455</v>
+      </c>
+      <c r="G56" s="203" t="s">
+        <v>251</v>
+      </c>
+      <c r="H56" s="203" t="s">
+        <v>189</v>
+      </c>
+      <c r="I56" s="205" t="s">
         <v>190</v>
-      </c>
-      <c r="E56" s="221" t="s">
-        <v>231</v>
-      </c>
-      <c r="F56" s="222" t="n">
-        <v>455</v>
-      </c>
-      <c r="G56" s="221" t="s">
-        <v>250</v>
-      </c>
-      <c r="H56" s="221" t="s">
-        <v>188</v>
-      </c>
-      <c r="I56" s="223" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="216" t="s">
+      <c r="A57" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="216" t="s">
+      <c r="B57" s="198" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="225" t="s">
-        <v>213</v>
-      </c>
-      <c r="D57" s="225"/>
-      <c r="E57" s="225" t="s">
-        <v>251</v>
-      </c>
-      <c r="F57" s="226" t="n">
+      <c r="C57" s="207" t="s">
+        <v>214</v>
+      </c>
+      <c r="D57" s="207"/>
+      <c r="E57" s="207" t="s">
+        <v>252</v>
+      </c>
+      <c r="F57" s="208" t="n">
         <v>151</v>
       </c>
-      <c r="G57" s="225" t="s">
-        <v>252</v>
-      </c>
-      <c r="H57" s="225" t="s">
-        <v>175</v>
-      </c>
-      <c r="I57" s="227" t="s">
+      <c r="G57" s="207" t="s">
+        <v>253</v>
+      </c>
+      <c r="H57" s="207" t="s">
         <v>176</v>
+      </c>
+      <c r="I57" s="209" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="216" t="s">
+      <c r="A58" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="216" t="s">
+      <c r="B58" s="198" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="225" t="s">
-        <v>213</v>
-      </c>
-      <c r="D58" s="225"/>
-      <c r="E58" s="225" t="s">
-        <v>253</v>
-      </c>
-      <c r="F58" s="226" t="n">
+      <c r="C58" s="207" t="s">
+        <v>214</v>
+      </c>
+      <c r="D58" s="207"/>
+      <c r="E58" s="207" t="s">
+        <v>254</v>
+      </c>
+      <c r="F58" s="208" t="n">
         <v>276</v>
       </c>
-      <c r="G58" s="225" t="s">
-        <v>254</v>
-      </c>
-      <c r="H58" s="225" t="s">
-        <v>175</v>
-      </c>
-      <c r="I58" s="227" t="s">
+      <c r="G58" s="207" t="s">
+        <v>255</v>
+      </c>
+      <c r="H58" s="207" t="s">
         <v>176</v>
+      </c>
+      <c r="I58" s="209" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="216" t="s">
+      <c r="A59" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="B59" s="216" t="s">
+      <c r="B59" s="198" t="s">
         <v>52</v>
       </c>
-      <c r="C59" s="225" t="s">
-        <v>215</v>
-      </c>
-      <c r="D59" s="225"/>
-      <c r="E59" s="225" t="s">
-        <v>251</v>
-      </c>
-      <c r="F59" s="226" t="n">
+      <c r="C59" s="207" t="s">
+        <v>216</v>
+      </c>
+      <c r="D59" s="207"/>
+      <c r="E59" s="207" t="s">
+        <v>252</v>
+      </c>
+      <c r="F59" s="208" t="n">
         <v>152</v>
       </c>
-      <c r="G59" s="225" t="s">
-        <v>255</v>
-      </c>
-      <c r="H59" s="225" t="s">
-        <v>175</v>
-      </c>
-      <c r="I59" s="227" t="s">
+      <c r="G59" s="207" t="s">
+        <v>256</v>
+      </c>
+      <c r="H59" s="207" t="s">
         <v>176</v>
+      </c>
+      <c r="I59" s="209" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="216" t="s">
+      <c r="A60" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="B60" s="216" t="s">
+      <c r="B60" s="198" t="s">
         <v>52</v>
       </c>
-      <c r="C60" s="225" t="s">
-        <v>215</v>
-      </c>
-      <c r="D60" s="225"/>
-      <c r="E60" s="225" t="s">
-        <v>253</v>
-      </c>
-      <c r="F60" s="226" t="n">
+      <c r="C60" s="207" t="s">
+        <v>216</v>
+      </c>
+      <c r="D60" s="207"/>
+      <c r="E60" s="207" t="s">
+        <v>254</v>
+      </c>
+      <c r="F60" s="208" t="n">
         <v>372</v>
       </c>
-      <c r="G60" s="225" t="s">
-        <v>256</v>
-      </c>
-      <c r="H60" s="225" t="s">
-        <v>175</v>
-      </c>
-      <c r="I60" s="227" t="s">
+      <c r="G60" s="207" t="s">
+        <v>257</v>
+      </c>
+      <c r="H60" s="207" t="s">
         <v>176</v>
+      </c>
+      <c r="I60" s="209" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="216" t="s">
+      <c r="A61" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="B61" s="216" t="s">
+      <c r="B61" s="198" t="s">
         <v>52</v>
       </c>
-      <c r="C61" s="225" t="s">
-        <v>216</v>
-      </c>
-      <c r="D61" s="225"/>
-      <c r="E61" s="225" t="s">
-        <v>251</v>
-      </c>
-      <c r="F61" s="226" t="n">
+      <c r="C61" s="207" t="s">
+        <v>217</v>
+      </c>
+      <c r="D61" s="207"/>
+      <c r="E61" s="207" t="s">
+        <v>252</v>
+      </c>
+      <c r="F61" s="208" t="n">
         <v>153</v>
       </c>
-      <c r="G61" s="225" t="s">
-        <v>257</v>
-      </c>
-      <c r="H61" s="225" t="s">
-        <v>175</v>
-      </c>
-      <c r="I61" s="227" t="s">
+      <c r="G61" s="207" t="s">
+        <v>258</v>
+      </c>
+      <c r="H61" s="207" t="s">
         <v>176</v>
+      </c>
+      <c r="I61" s="209" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="216" t="s">
+      <c r="A62" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="B62" s="216" t="s">
+      <c r="B62" s="198" t="s">
         <v>52</v>
       </c>
-      <c r="C62" s="225" t="s">
-        <v>216</v>
-      </c>
-      <c r="D62" s="225"/>
-      <c r="E62" s="225" t="s">
-        <v>253</v>
-      </c>
-      <c r="F62" s="226" t="n">
+      <c r="C62" s="207" t="s">
+        <v>217</v>
+      </c>
+      <c r="D62" s="207"/>
+      <c r="E62" s="207" t="s">
+        <v>254</v>
+      </c>
+      <c r="F62" s="208" t="n">
         <v>376</v>
       </c>
-      <c r="G62" s="225" t="s">
-        <v>258</v>
-      </c>
-      <c r="H62" s="225" t="s">
-        <v>175</v>
-      </c>
-      <c r="I62" s="227" t="s">
+      <c r="G62" s="207" t="s">
+        <v>259</v>
+      </c>
+      <c r="H62" s="207" t="s">
         <v>176</v>
+      </c>
+      <c r="I62" s="209" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="216" t="s">
+      <c r="A63" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="B63" s="216" t="s">
+      <c r="B63" s="198" t="s">
         <v>52</v>
       </c>
-      <c r="C63" s="225" t="s">
-        <v>217</v>
-      </c>
-      <c r="D63" s="225"/>
-      <c r="E63" s="225" t="s">
-        <v>251</v>
-      </c>
-      <c r="F63" s="226" t="n">
+      <c r="C63" s="207" t="s">
+        <v>218</v>
+      </c>
+      <c r="D63" s="207"/>
+      <c r="E63" s="207" t="s">
+        <v>252</v>
+      </c>
+      <c r="F63" s="208" t="n">
         <v>154</v>
       </c>
-      <c r="G63" s="225" t="s">
-        <v>259</v>
-      </c>
-      <c r="H63" s="225" t="s">
-        <v>175</v>
-      </c>
-      <c r="I63" s="227" t="s">
+      <c r="G63" s="207" t="s">
+        <v>260</v>
+      </c>
+      <c r="H63" s="207" t="s">
         <v>176</v>
+      </c>
+      <c r="I63" s="209" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="216" t="s">
+      <c r="A64" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="B64" s="216" t="s">
+      <c r="B64" s="198" t="s">
         <v>52</v>
       </c>
-      <c r="C64" s="225" t="s">
-        <v>217</v>
-      </c>
-      <c r="D64" s="225"/>
-      <c r="E64" s="225" t="s">
-        <v>253</v>
-      </c>
-      <c r="F64" s="226" t="n">
+      <c r="C64" s="207" t="s">
+        <v>218</v>
+      </c>
+      <c r="D64" s="207"/>
+      <c r="E64" s="207" t="s">
+        <v>254</v>
+      </c>
+      <c r="F64" s="208" t="n">
         <v>380</v>
       </c>
-      <c r="G64" s="225" t="s">
-        <v>260</v>
-      </c>
-      <c r="H64" s="225" t="s">
-        <v>175</v>
-      </c>
-      <c r="I64" s="227" t="s">
+      <c r="G64" s="207" t="s">
+        <v>261</v>
+      </c>
+      <c r="H64" s="207" t="s">
         <v>176</v>
+      </c>
+      <c r="I64" s="209" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="216" t="s">
+      <c r="A65" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="B65" s="216" t="s">
+      <c r="B65" s="198" t="s">
         <v>52</v>
       </c>
-      <c r="C65" s="225" t="s">
-        <v>218</v>
-      </c>
-      <c r="D65" s="225"/>
-      <c r="E65" s="225" t="s">
-        <v>251</v>
-      </c>
-      <c r="F65" s="226" t="n">
+      <c r="C65" s="207" t="s">
+        <v>219</v>
+      </c>
+      <c r="D65" s="207"/>
+      <c r="E65" s="207" t="s">
+        <v>252</v>
+      </c>
+      <c r="F65" s="208" t="n">
         <v>155</v>
       </c>
-      <c r="G65" s="225" t="s">
-        <v>261</v>
-      </c>
-      <c r="H65" s="225" t="s">
-        <v>175</v>
-      </c>
-      <c r="I65" s="227" t="s">
+      <c r="G65" s="207" t="s">
+        <v>262</v>
+      </c>
+      <c r="H65" s="207" t="s">
         <v>176</v>
+      </c>
+      <c r="I65" s="209" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="216" t="s">
+      <c r="A66" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="B66" s="216" t="s">
+      <c r="B66" s="198" t="s">
         <v>52</v>
       </c>
-      <c r="C66" s="225" t="s">
-        <v>218</v>
-      </c>
-      <c r="D66" s="225"/>
-      <c r="E66" s="225" t="s">
-        <v>253</v>
-      </c>
-      <c r="F66" s="226" t="n">
+      <c r="C66" s="207" t="s">
+        <v>219</v>
+      </c>
+      <c r="D66" s="207"/>
+      <c r="E66" s="207" t="s">
+        <v>254</v>
+      </c>
+      <c r="F66" s="208" t="n">
         <v>384</v>
       </c>
-      <c r="G66" s="225" t="s">
-        <v>262</v>
-      </c>
-      <c r="H66" s="225" t="s">
-        <v>175</v>
-      </c>
-      <c r="I66" s="227" t="s">
+      <c r="G66" s="207" t="s">
+        <v>263</v>
+      </c>
+      <c r="H66" s="207" t="s">
         <v>176</v>
+      </c>
+      <c r="I66" s="209" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="216" t="s">
+      <c r="A67" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="B67" s="216" t="s">
+      <c r="B67" s="198" t="s">
         <v>52</v>
       </c>
-      <c r="C67" s="225" t="s">
-        <v>219</v>
-      </c>
-      <c r="D67" s="225"/>
-      <c r="E67" s="225" t="s">
-        <v>251</v>
-      </c>
-      <c r="F67" s="226" t="n">
+      <c r="C67" s="207" t="s">
+        <v>220</v>
+      </c>
+      <c r="D67" s="207"/>
+      <c r="E67" s="207" t="s">
+        <v>252</v>
+      </c>
+      <c r="F67" s="208" t="n">
         <v>156</v>
       </c>
-      <c r="G67" s="225" t="s">
-        <v>263</v>
-      </c>
-      <c r="H67" s="225" t="s">
-        <v>175</v>
-      </c>
-      <c r="I67" s="227" t="s">
+      <c r="G67" s="207" t="s">
+        <v>264</v>
+      </c>
+      <c r="H67" s="207" t="s">
         <v>176</v>
+      </c>
+      <c r="I67" s="209" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="216" t="s">
+      <c r="A68" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="B68" s="216" t="s">
+      <c r="B68" s="198" t="s">
         <v>52</v>
       </c>
-      <c r="C68" s="225" t="s">
-        <v>219</v>
-      </c>
-      <c r="D68" s="225"/>
-      <c r="E68" s="225" t="s">
-        <v>253</v>
-      </c>
-      <c r="F68" s="226" t="n">
+      <c r="C68" s="207" t="s">
+        <v>220</v>
+      </c>
+      <c r="D68" s="207"/>
+      <c r="E68" s="207" t="s">
+        <v>254</v>
+      </c>
+      <c r="F68" s="208" t="n">
         <v>388</v>
       </c>
-      <c r="G68" s="225" t="s">
-        <v>264</v>
-      </c>
-      <c r="H68" s="225" t="s">
-        <v>175</v>
-      </c>
-      <c r="I68" s="227" t="s">
+      <c r="G68" s="207" t="s">
+        <v>265</v>
+      </c>
+      <c r="H68" s="207" t="s">
         <v>176</v>
+      </c>
+      <c r="I68" s="209" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="216" t="s">
+      <c r="A69" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="B69" s="216" t="s">
+      <c r="B69" s="198" t="s">
         <v>52</v>
       </c>
-      <c r="C69" s="225" t="s">
-        <v>221</v>
-      </c>
-      <c r="D69" s="225"/>
-      <c r="E69" s="225" t="s">
-        <v>251</v>
-      </c>
-      <c r="F69" s="226" t="n">
+      <c r="C69" s="207" t="s">
+        <v>222</v>
+      </c>
+      <c r="D69" s="207"/>
+      <c r="E69" s="207" t="s">
+        <v>252</v>
+      </c>
+      <c r="F69" s="208" t="n">
         <v>157</v>
       </c>
-      <c r="G69" s="225" t="s">
-        <v>265</v>
-      </c>
-      <c r="H69" s="225" t="s">
-        <v>175</v>
-      </c>
-      <c r="I69" s="227" t="s">
+      <c r="G69" s="207" t="s">
+        <v>266</v>
+      </c>
+      <c r="H69" s="207" t="s">
         <v>176</v>
+      </c>
+      <c r="I69" s="209" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="216" t="s">
+      <c r="A70" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="B70" s="216" t="s">
+      <c r="B70" s="198" t="s">
         <v>52</v>
       </c>
-      <c r="C70" s="225" t="s">
-        <v>221</v>
-      </c>
-      <c r="D70" s="225"/>
-      <c r="E70" s="225" t="s">
-        <v>253</v>
-      </c>
-      <c r="F70" s="226" t="n">
+      <c r="C70" s="207" t="s">
+        <v>222</v>
+      </c>
+      <c r="D70" s="207"/>
+      <c r="E70" s="207" t="s">
+        <v>254</v>
+      </c>
+      <c r="F70" s="208" t="n">
         <v>392</v>
       </c>
-      <c r="G70" s="225" t="s">
-        <v>266</v>
-      </c>
-      <c r="H70" s="225" t="s">
-        <v>175</v>
-      </c>
-      <c r="I70" s="227" t="s">
+      <c r="G70" s="207" t="s">
+        <v>267</v>
+      </c>
+      <c r="H70" s="207" t="s">
         <v>176</v>
+      </c>
+      <c r="I70" s="209" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="216" t="s">
+      <c r="A71" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="B71" s="216" t="s">
+      <c r="B71" s="198" t="s">
         <v>52</v>
       </c>
-      <c r="C71" s="225" t="s">
-        <v>223</v>
-      </c>
-      <c r="D71" s="225"/>
-      <c r="E71" s="225" t="s">
-        <v>251</v>
-      </c>
-      <c r="F71" s="226" t="n">
+      <c r="C71" s="207" t="s">
+        <v>224</v>
+      </c>
+      <c r="D71" s="207"/>
+      <c r="E71" s="207" t="s">
+        <v>252</v>
+      </c>
+      <c r="F71" s="208" t="n">
         <v>158</v>
       </c>
-      <c r="G71" s="225" t="s">
-        <v>267</v>
-      </c>
-      <c r="H71" s="225" t="s">
-        <v>175</v>
-      </c>
-      <c r="I71" s="227" t="s">
+      <c r="G71" s="207" t="s">
+        <v>268</v>
+      </c>
+      <c r="H71" s="207" t="s">
         <v>176</v>
+      </c>
+      <c r="I71" s="209" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="216" t="s">
+      <c r="A72" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="B72" s="216" t="s">
+      <c r="B72" s="198" t="s">
         <v>52</v>
       </c>
-      <c r="C72" s="225" t="s">
-        <v>223</v>
-      </c>
-      <c r="D72" s="225"/>
-      <c r="E72" s="225" t="s">
-        <v>253</v>
-      </c>
-      <c r="F72" s="226" t="n">
+      <c r="C72" s="207" t="s">
+        <v>224</v>
+      </c>
+      <c r="D72" s="207"/>
+      <c r="E72" s="207" t="s">
+        <v>254</v>
+      </c>
+      <c r="F72" s="208" t="n">
         <v>396</v>
       </c>
-      <c r="G72" s="225" t="s">
-        <v>268</v>
-      </c>
-      <c r="H72" s="225" t="s">
-        <v>175</v>
-      </c>
-      <c r="I72" s="227" t="s">
+      <c r="G72" s="207" t="s">
+        <v>269</v>
+      </c>
+      <c r="H72" s="207" t="s">
         <v>176</v>
+      </c>
+      <c r="I72" s="209" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="216" t="s">
+      <c r="A73" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="B73" s="216" t="s">
+      <c r="B73" s="198" t="s">
         <v>52</v>
       </c>
-      <c r="C73" s="225" t="s">
-        <v>225</v>
-      </c>
-      <c r="D73" s="225"/>
-      <c r="E73" s="225" t="s">
-        <v>251</v>
-      </c>
-      <c r="F73" s="226" t="n">
+      <c r="C73" s="207" t="s">
+        <v>226</v>
+      </c>
+      <c r="D73" s="207"/>
+      <c r="E73" s="207" t="s">
+        <v>252</v>
+      </c>
+      <c r="F73" s="208" t="n">
         <v>159</v>
       </c>
-      <c r="G73" s="225" t="s">
-        <v>269</v>
-      </c>
-      <c r="H73" s="225" t="s">
-        <v>175</v>
-      </c>
-      <c r="I73" s="227" t="s">
+      <c r="G73" s="207" t="s">
+        <v>270</v>
+      </c>
+      <c r="H73" s="207" t="s">
         <v>176</v>
+      </c>
+      <c r="I73" s="209" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="216" t="s">
+      <c r="A74" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="B74" s="216" t="s">
+      <c r="B74" s="198" t="s">
         <v>52</v>
       </c>
-      <c r="C74" s="225" t="s">
-        <v>225</v>
-      </c>
-      <c r="D74" s="225"/>
-      <c r="E74" s="225" t="s">
-        <v>253</v>
-      </c>
-      <c r="F74" s="226" t="n">
+      <c r="C74" s="207" t="s">
+        <v>226</v>
+      </c>
+      <c r="D74" s="207"/>
+      <c r="E74" s="207" t="s">
+        <v>254</v>
+      </c>
+      <c r="F74" s="208" t="n">
         <v>400</v>
       </c>
-      <c r="G74" s="225" t="s">
-        <v>270</v>
-      </c>
-      <c r="H74" s="225" t="s">
-        <v>175</v>
-      </c>
-      <c r="I74" s="227" t="s">
+      <c r="G74" s="207" t="s">
+        <v>271</v>
+      </c>
+      <c r="H74" s="207" t="s">
         <v>176</v>
+      </c>
+      <c r="I74" s="209" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="216" t="s">
+      <c r="A75" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="B75" s="216" t="s">
+      <c r="B75" s="198" t="s">
         <v>52</v>
       </c>
-      <c r="C75" s="225" t="s">
-        <v>227</v>
-      </c>
-      <c r="D75" s="225"/>
-      <c r="E75" s="225" t="s">
-        <v>251</v>
-      </c>
-      <c r="F75" s="226" t="n">
+      <c r="C75" s="207" t="s">
+        <v>228</v>
+      </c>
+      <c r="D75" s="207"/>
+      <c r="E75" s="207" t="s">
+        <v>252</v>
+      </c>
+      <c r="F75" s="208" t="n">
         <v>160</v>
       </c>
-      <c r="G75" s="225" t="s">
-        <v>271</v>
-      </c>
-      <c r="H75" s="225" t="s">
-        <v>175</v>
-      </c>
-      <c r="I75" s="227" t="s">
+      <c r="G75" s="207" t="s">
+        <v>272</v>
+      </c>
+      <c r="H75" s="207" t="s">
         <v>176</v>
+      </c>
+      <c r="I75" s="209" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="216" t="s">
+      <c r="A76" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="B76" s="216" t="s">
+      <c r="B76" s="198" t="s">
         <v>52</v>
       </c>
-      <c r="C76" s="225" t="s">
-        <v>227</v>
-      </c>
-      <c r="D76" s="225"/>
-      <c r="E76" s="225" t="s">
-        <v>253</v>
-      </c>
-      <c r="F76" s="226" t="n">
+      <c r="C76" s="207" t="s">
+        <v>228</v>
+      </c>
+      <c r="D76" s="207"/>
+      <c r="E76" s="207" t="s">
+        <v>254</v>
+      </c>
+      <c r="F76" s="208" t="n">
         <v>404</v>
       </c>
-      <c r="G76" s="225" t="s">
-        <v>272</v>
-      </c>
-      <c r="H76" s="225" t="s">
-        <v>175</v>
-      </c>
-      <c r="I76" s="227" t="s">
+      <c r="G76" s="207" t="s">
+        <v>273</v>
+      </c>
+      <c r="H76" s="207" t="s">
         <v>176</v>
+      </c>
+      <c r="I76" s="209" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="B77" s="224" t="s">
+      <c r="B77" s="206" t="s">
         <v>64</v>
       </c>
-      <c r="C77" s="221" t="s">
-        <v>273</v>
-      </c>
-      <c r="D77" s="221"/>
-      <c r="E77" s="221" t="s">
+      <c r="C77" s="203" t="s">
         <v>274</v>
       </c>
-      <c r="F77" s="229" t="n">
+      <c r="D77" s="203"/>
+      <c r="E77" s="203" t="s">
+        <v>275</v>
+      </c>
+      <c r="F77" s="211" t="n">
         <v>456</v>
       </c>
-      <c r="G77" s="221" t="s">
-        <v>275</v>
-      </c>
-      <c r="H77" s="221" t="s">
-        <v>175</v>
-      </c>
-      <c r="I77" s="223" t="s">
+      <c r="G77" s="203" t="s">
+        <v>276</v>
+      </c>
+      <c r="H77" s="203" t="s">
         <v>176</v>
+      </c>
+      <c r="I77" s="205" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="B78" s="224" t="s">
+      <c r="B78" s="206" t="s">
         <v>64</v>
       </c>
-      <c r="C78" s="221" t="s">
-        <v>276</v>
-      </c>
-      <c r="D78" s="221"/>
-      <c r="E78" s="221" t="s">
-        <v>274</v>
-      </c>
-      <c r="F78" s="229" t="n">
+      <c r="C78" s="203" t="s">
+        <v>277</v>
+      </c>
+      <c r="D78" s="203"/>
+      <c r="E78" s="203" t="s">
+        <v>275</v>
+      </c>
+      <c r="F78" s="211" t="n">
         <v>461</v>
       </c>
-      <c r="G78" s="221" t="s">
-        <v>277</v>
-      </c>
-      <c r="H78" s="221" t="s">
-        <v>175</v>
-      </c>
-      <c r="I78" s="223" t="s">
+      <c r="G78" s="203" t="s">
+        <v>278</v>
+      </c>
+      <c r="H78" s="203" t="s">
         <v>176</v>
+      </c>
+      <c r="I78" s="205" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="B79" s="224" t="s">
+      <c r="B79" s="206" t="s">
         <v>64</v>
       </c>
-      <c r="C79" s="221" t="s">
-        <v>278</v>
-      </c>
-      <c r="D79" s="221"/>
-      <c r="E79" s="221" t="s">
-        <v>274</v>
-      </c>
-      <c r="F79" s="229" t="n">
+      <c r="C79" s="203" t="s">
+        <v>279</v>
+      </c>
+      <c r="D79" s="203"/>
+      <c r="E79" s="203" t="s">
+        <v>275</v>
+      </c>
+      <c r="F79" s="211" t="n">
         <v>466</v>
       </c>
-      <c r="G79" s="221" t="s">
-        <v>279</v>
-      </c>
-      <c r="H79" s="221" t="s">
-        <v>175</v>
-      </c>
-      <c r="I79" s="223" t="s">
+      <c r="G79" s="203" t="s">
+        <v>280</v>
+      </c>
+      <c r="H79" s="203" t="s">
         <v>176</v>
+      </c>
+      <c r="I79" s="205" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="B80" s="224" t="s">
+      <c r="B80" s="206" t="s">
         <v>64</v>
       </c>
-      <c r="C80" s="221" t="s">
-        <v>280</v>
-      </c>
-      <c r="D80" s="221"/>
-      <c r="E80" s="221" t="s">
-        <v>274</v>
-      </c>
-      <c r="F80" s="229" t="n">
+      <c r="C80" s="203" t="s">
+        <v>281</v>
+      </c>
+      <c r="D80" s="203"/>
+      <c r="E80" s="203" t="s">
+        <v>275</v>
+      </c>
+      <c r="F80" s="211" t="n">
         <v>471</v>
       </c>
-      <c r="G80" s="221" t="s">
-        <v>281</v>
-      </c>
-      <c r="H80" s="221" t="s">
-        <v>175</v>
-      </c>
-      <c r="I80" s="223" t="s">
+      <c r="G80" s="203" t="s">
+        <v>282</v>
+      </c>
+      <c r="H80" s="203" t="s">
         <v>176</v>
+      </c>
+      <c r="I80" s="205" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="B81" s="224" t="s">
+      <c r="B81" s="206" t="s">
         <v>64</v>
       </c>
-      <c r="C81" s="221" t="s">
-        <v>282</v>
-      </c>
-      <c r="D81" s="221"/>
-      <c r="E81" s="221" t="s">
-        <v>274</v>
-      </c>
-      <c r="F81" s="231" t="n">
+      <c r="C81" s="203" t="s">
+        <v>283</v>
+      </c>
+      <c r="D81" s="203"/>
+      <c r="E81" s="203" t="s">
+        <v>275</v>
+      </c>
+      <c r="F81" s="213" t="n">
         <v>476</v>
       </c>
-      <c r="G81" s="221" t="s">
-        <v>283</v>
-      </c>
-      <c r="H81" s="221" t="s">
-        <v>175</v>
-      </c>
-      <c r="I81" s="223" t="s">
+      <c r="G81" s="203" t="s">
+        <v>284</v>
+      </c>
+      <c r="H81" s="203" t="s">
         <v>176</v>
+      </c>
+      <c r="I81" s="205" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="B82" s="224" t="s">
+      <c r="B82" s="206" t="s">
         <v>67</v>
       </c>
-      <c r="C82" s="221" t="s">
-        <v>273</v>
-      </c>
-      <c r="D82" s="221"/>
-      <c r="E82" s="221" t="s">
-        <v>284</v>
-      </c>
-      <c r="F82" s="229" t="n">
+      <c r="C82" s="203" t="s">
+        <v>274</v>
+      </c>
+      <c r="D82" s="203"/>
+      <c r="E82" s="203" t="s">
+        <v>285</v>
+      </c>
+      <c r="F82" s="211" t="n">
         <v>457</v>
       </c>
-      <c r="G82" s="221" t="s">
-        <v>285</v>
-      </c>
-      <c r="H82" s="221" t="s">
-        <v>175</v>
-      </c>
-      <c r="I82" s="223" t="s">
+      <c r="G82" s="203" t="s">
+        <v>286</v>
+      </c>
+      <c r="H82" s="203" t="s">
         <v>176</v>
+      </c>
+      <c r="I82" s="205" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="B83" s="224" t="s">
+      <c r="B83" s="206" t="s">
         <v>67</v>
       </c>
-      <c r="C83" s="221" t="s">
-        <v>276</v>
-      </c>
-      <c r="D83" s="221"/>
-      <c r="E83" s="221" t="s">
-        <v>284</v>
-      </c>
-      <c r="F83" s="229" t="n">
+      <c r="C83" s="203" t="s">
+        <v>277</v>
+      </c>
+      <c r="D83" s="203"/>
+      <c r="E83" s="203" t="s">
+        <v>285</v>
+      </c>
+      <c r="F83" s="211" t="n">
         <v>462</v>
       </c>
-      <c r="G83" s="221" t="s">
-        <v>286</v>
-      </c>
-      <c r="H83" s="221" t="s">
-        <v>175</v>
-      </c>
-      <c r="I83" s="223" t="s">
+      <c r="G83" s="203" t="s">
+        <v>287</v>
+      </c>
+      <c r="H83" s="203" t="s">
         <v>176</v>
+      </c>
+      <c r="I83" s="205" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="B84" s="224" t="s">
+      <c r="B84" s="206" t="s">
         <v>67</v>
       </c>
-      <c r="C84" s="221" t="s">
-        <v>278</v>
-      </c>
-      <c r="D84" s="221"/>
-      <c r="E84" s="221" t="s">
-        <v>284</v>
-      </c>
-      <c r="F84" s="229" t="n">
+      <c r="C84" s="203" t="s">
+        <v>279</v>
+      </c>
+      <c r="D84" s="203"/>
+      <c r="E84" s="203" t="s">
+        <v>285</v>
+      </c>
+      <c r="F84" s="211" t="n">
         <v>467</v>
       </c>
-      <c r="G84" s="221" t="s">
-        <v>287</v>
-      </c>
-      <c r="H84" s="221" t="s">
-        <v>175</v>
-      </c>
-      <c r="I84" s="223" t="s">
+      <c r="G84" s="203" t="s">
+        <v>288</v>
+      </c>
+      <c r="H84" s="203" t="s">
         <v>176</v>
+      </c>
+      <c r="I84" s="205" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="B85" s="224" t="s">
+      <c r="B85" s="206" t="s">
         <v>67</v>
       </c>
-      <c r="C85" s="221" t="s">
-        <v>280</v>
-      </c>
-      <c r="D85" s="221"/>
-      <c r="E85" s="221" t="s">
-        <v>284</v>
-      </c>
-      <c r="F85" s="229" t="n">
+      <c r="C85" s="203" t="s">
+        <v>281</v>
+      </c>
+      <c r="D85" s="203"/>
+      <c r="E85" s="203" t="s">
+        <v>285</v>
+      </c>
+      <c r="F85" s="211" t="n">
         <v>472</v>
       </c>
-      <c r="G85" s="221" t="s">
-        <v>288</v>
-      </c>
-      <c r="H85" s="221" t="s">
-        <v>175</v>
-      </c>
-      <c r="I85" s="223" t="s">
+      <c r="G85" s="203" t="s">
+        <v>289</v>
+      </c>
+      <c r="H85" s="203" t="s">
         <v>176</v>
+      </c>
+      <c r="I85" s="205" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="B86" s="224" t="s">
+      <c r="B86" s="206" t="s">
         <v>67</v>
       </c>
-      <c r="C86" s="221" t="s">
-        <v>282</v>
-      </c>
-      <c r="D86" s="221"/>
-      <c r="E86" s="221" t="s">
-        <v>284</v>
-      </c>
-      <c r="F86" s="231" t="n">
+      <c r="C86" s="203" t="s">
+        <v>283</v>
+      </c>
+      <c r="D86" s="203"/>
+      <c r="E86" s="203" t="s">
+        <v>285</v>
+      </c>
+      <c r="F86" s="213" t="n">
         <v>477</v>
       </c>
-      <c r="G86" s="221" t="s">
-        <v>289</v>
-      </c>
-      <c r="H86" s="221" t="s">
-        <v>175</v>
-      </c>
-      <c r="I86" s="223" t="s">
+      <c r="G86" s="203" t="s">
+        <v>290</v>
+      </c>
+      <c r="H86" s="203" t="s">
         <v>176</v>
+      </c>
+      <c r="I86" s="205" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="B87" s="232" t="s">
+      <c r="B87" s="214" t="s">
         <v>50</v>
       </c>
-      <c r="C87" s="224" t="s">
-        <v>273</v>
-      </c>
-      <c r="D87" s="224" t="s">
-        <v>185</v>
-      </c>
-      <c r="E87" s="221" t="s">
-        <v>290</v>
-      </c>
-      <c r="F87" s="226" t="n">
+      <c r="C87" s="206" t="s">
+        <v>274</v>
+      </c>
+      <c r="D87" s="206" t="s">
+        <v>186</v>
+      </c>
+      <c r="E87" s="203" t="s">
+        <v>291</v>
+      </c>
+      <c r="F87" s="208" t="n">
         <v>458</v>
       </c>
-      <c r="G87" s="221" t="s">
-        <v>187</v>
-      </c>
-      <c r="H87" s="221" t="s">
+      <c r="G87" s="203" t="s">
         <v>188</v>
       </c>
-      <c r="I87" s="223" t="s">
+      <c r="H87" s="203" t="s">
         <v>189</v>
+      </c>
+      <c r="I87" s="205" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="B88" s="232" t="s">
+      <c r="B88" s="214" t="s">
         <v>50</v>
       </c>
-      <c r="C88" s="224" t="s">
-        <v>273</v>
-      </c>
-      <c r="D88" s="224" t="s">
+      <c r="C88" s="206" t="s">
+        <v>274</v>
+      </c>
+      <c r="D88" s="206" t="s">
+        <v>191</v>
+      </c>
+      <c r="E88" s="203" t="s">
+        <v>292</v>
+      </c>
+      <c r="F88" s="208" t="n">
+        <v>459</v>
+      </c>
+      <c r="G88" s="203" t="s">
+        <v>193</v>
+      </c>
+      <c r="H88" s="203" t="s">
+        <v>189</v>
+      </c>
+      <c r="I88" s="205" t="s">
         <v>190</v>
-      </c>
-      <c r="E88" s="221" t="s">
-        <v>291</v>
-      </c>
-      <c r="F88" s="226" t="n">
-        <v>459</v>
-      </c>
-      <c r="G88" s="221" t="s">
-        <v>192</v>
-      </c>
-      <c r="H88" s="221" t="s">
-        <v>188</v>
-      </c>
-      <c r="I88" s="223" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="B89" s="232" t="s">
+      <c r="B89" s="214" t="s">
         <v>50</v>
       </c>
-      <c r="C89" s="224" t="s">
-        <v>276</v>
-      </c>
-      <c r="D89" s="224" t="s">
-        <v>185</v>
-      </c>
-      <c r="E89" s="221" t="s">
-        <v>290</v>
-      </c>
-      <c r="F89" s="226" t="n">
+      <c r="C89" s="206" t="s">
+        <v>277</v>
+      </c>
+      <c r="D89" s="206" t="s">
+        <v>186</v>
+      </c>
+      <c r="E89" s="203" t="s">
+        <v>291</v>
+      </c>
+      <c r="F89" s="208" t="n">
         <v>463</v>
       </c>
-      <c r="G89" s="221" t="s">
-        <v>193</v>
-      </c>
-      <c r="H89" s="221" t="s">
-        <v>188</v>
-      </c>
-      <c r="I89" s="223" t="s">
+      <c r="G89" s="203" t="s">
+        <v>194</v>
+      </c>
+      <c r="H89" s="203" t="s">
         <v>189</v>
+      </c>
+      <c r="I89" s="205" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="B90" s="232" t="s">
+      <c r="B90" s="214" t="s">
         <v>50</v>
       </c>
-      <c r="C90" s="224" t="s">
-        <v>276</v>
-      </c>
-      <c r="D90" s="224" t="s">
+      <c r="C90" s="206" t="s">
+        <v>277</v>
+      </c>
+      <c r="D90" s="206" t="s">
+        <v>191</v>
+      </c>
+      <c r="E90" s="203" t="s">
+        <v>292</v>
+      </c>
+      <c r="F90" s="208" t="n">
+        <v>464</v>
+      </c>
+      <c r="G90" s="203" t="s">
+        <v>195</v>
+      </c>
+      <c r="H90" s="203" t="s">
+        <v>189</v>
+      </c>
+      <c r="I90" s="205" t="s">
         <v>190</v>
-      </c>
-      <c r="E90" s="221" t="s">
-        <v>291</v>
-      </c>
-      <c r="F90" s="226" t="n">
-        <v>464</v>
-      </c>
-      <c r="G90" s="221" t="s">
-        <v>194</v>
-      </c>
-      <c r="H90" s="221" t="s">
-        <v>188</v>
-      </c>
-      <c r="I90" s="223" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="B91" s="232" t="s">
+      <c r="B91" s="214" t="s">
         <v>50</v>
       </c>
-      <c r="C91" s="224" t="s">
-        <v>278</v>
-      </c>
-      <c r="D91" s="224" t="s">
-        <v>185</v>
-      </c>
-      <c r="E91" s="221" t="s">
-        <v>290</v>
-      </c>
-      <c r="F91" s="226" t="n">
+      <c r="C91" s="206" t="s">
+        <v>279</v>
+      </c>
+      <c r="D91" s="206" t="s">
+        <v>186</v>
+      </c>
+      <c r="E91" s="203" t="s">
+        <v>291</v>
+      </c>
+      <c r="F91" s="208" t="n">
         <v>468</v>
       </c>
-      <c r="G91" s="221" t="s">
-        <v>195</v>
-      </c>
-      <c r="H91" s="221" t="s">
-        <v>188</v>
-      </c>
-      <c r="I91" s="223" t="s">
+      <c r="G91" s="203" t="s">
+        <v>196</v>
+      </c>
+      <c r="H91" s="203" t="s">
         <v>189</v>
+      </c>
+      <c r="I91" s="205" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="B92" s="232" t="s">
+      <c r="B92" s="214" t="s">
         <v>50</v>
       </c>
-      <c r="C92" s="224" t="s">
-        <v>278</v>
-      </c>
-      <c r="D92" s="224" t="s">
+      <c r="C92" s="206" t="s">
+        <v>279</v>
+      </c>
+      <c r="D92" s="206" t="s">
+        <v>191</v>
+      </c>
+      <c r="E92" s="203" t="s">
+        <v>292</v>
+      </c>
+      <c r="F92" s="208" t="n">
+        <v>469</v>
+      </c>
+      <c r="G92" s="203" t="s">
+        <v>197</v>
+      </c>
+      <c r="H92" s="203" t="s">
+        <v>189</v>
+      </c>
+      <c r="I92" s="205" t="s">
         <v>190</v>
-      </c>
-      <c r="E92" s="221" t="s">
-        <v>291</v>
-      </c>
-      <c r="F92" s="226" t="n">
-        <v>469</v>
-      </c>
-      <c r="G92" s="221" t="s">
-        <v>196</v>
-      </c>
-      <c r="H92" s="221" t="s">
-        <v>188</v>
-      </c>
-      <c r="I92" s="223" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="B93" s="232" t="s">
+      <c r="B93" s="214" t="s">
         <v>50</v>
       </c>
-      <c r="C93" s="224" t="s">
-        <v>280</v>
-      </c>
-      <c r="D93" s="224" t="s">
-        <v>185</v>
-      </c>
-      <c r="E93" s="221" t="s">
-        <v>290</v>
-      </c>
-      <c r="F93" s="226" t="n">
+      <c r="C93" s="206" t="s">
+        <v>281</v>
+      </c>
+      <c r="D93" s="206" t="s">
+        <v>186</v>
+      </c>
+      <c r="E93" s="203" t="s">
+        <v>291</v>
+      </c>
+      <c r="F93" s="208" t="n">
         <v>473</v>
       </c>
-      <c r="G93" s="221" t="s">
-        <v>197</v>
-      </c>
-      <c r="H93" s="221" t="s">
-        <v>188</v>
-      </c>
-      <c r="I93" s="223" t="s">
+      <c r="G93" s="203" t="s">
+        <v>198</v>
+      </c>
+      <c r="H93" s="203" t="s">
         <v>189</v>
+      </c>
+      <c r="I93" s="205" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="B94" s="232" t="s">
+      <c r="B94" s="214" t="s">
         <v>50</v>
       </c>
-      <c r="C94" s="224" t="s">
-        <v>280</v>
-      </c>
-      <c r="D94" s="224" t="s">
+      <c r="C94" s="206" t="s">
+        <v>281</v>
+      </c>
+      <c r="D94" s="206" t="s">
+        <v>191</v>
+      </c>
+      <c r="E94" s="203" t="s">
+        <v>292</v>
+      </c>
+      <c r="F94" s="208" t="n">
+        <v>474</v>
+      </c>
+      <c r="G94" s="203" t="s">
+        <v>199</v>
+      </c>
+      <c r="H94" s="203" t="s">
+        <v>189</v>
+      </c>
+      <c r="I94" s="205" t="s">
         <v>190</v>
-      </c>
-      <c r="E94" s="221" t="s">
-        <v>291</v>
-      </c>
-      <c r="F94" s="226" t="n">
-        <v>474</v>
-      </c>
-      <c r="G94" s="221" t="s">
-        <v>198</v>
-      </c>
-      <c r="H94" s="221" t="s">
-        <v>188</v>
-      </c>
-      <c r="I94" s="223" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="B95" s="232" t="s">
+      <c r="B95" s="214" t="s">
         <v>50</v>
       </c>
-      <c r="C95" s="232" t="s">
-        <v>282</v>
-      </c>
-      <c r="D95" s="224" t="s">
-        <v>185</v>
-      </c>
-      <c r="E95" s="221" t="s">
-        <v>290</v>
-      </c>
-      <c r="F95" s="226" t="n">
+      <c r="C95" s="214" t="s">
+        <v>283</v>
+      </c>
+      <c r="D95" s="206" t="s">
+        <v>186</v>
+      </c>
+      <c r="E95" s="203" t="s">
+        <v>291</v>
+      </c>
+      <c r="F95" s="208" t="n">
         <v>478</v>
       </c>
-      <c r="G95" s="221" t="s">
-        <v>199</v>
-      </c>
-      <c r="H95" s="221" t="s">
-        <v>188</v>
-      </c>
-      <c r="I95" s="223" t="s">
+      <c r="G95" s="203" t="s">
+        <v>200</v>
+      </c>
+      <c r="H95" s="203" t="s">
         <v>189</v>
+      </c>
+      <c r="I95" s="205" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="B96" s="232" t="s">
+      <c r="B96" s="214" t="s">
         <v>50</v>
       </c>
-      <c r="C96" s="232" t="s">
-        <v>282</v>
-      </c>
-      <c r="D96" s="224" t="s">
+      <c r="C96" s="214" t="s">
+        <v>283</v>
+      </c>
+      <c r="D96" s="206" t="s">
+        <v>191</v>
+      </c>
+      <c r="E96" s="215" t="s">
+        <v>292</v>
+      </c>
+      <c r="F96" s="216" t="n">
+        <v>479</v>
+      </c>
+      <c r="G96" s="215" t="s">
+        <v>201</v>
+      </c>
+      <c r="H96" s="215" t="s">
+        <v>189</v>
+      </c>
+      <c r="I96" s="205" t="s">
         <v>190</v>
-      </c>
-      <c r="E96" s="233" t="s">
-        <v>291</v>
-      </c>
-      <c r="F96" s="234" t="n">
-        <v>479</v>
-      </c>
-      <c r="G96" s="233" t="s">
-        <v>200</v>
-      </c>
-      <c r="H96" s="233" t="s">
-        <v>188</v>
-      </c>
-      <c r="I96" s="223" t="s">
-        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -43792,201 +43646,201 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.9230769230769"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="235" t="s">
-        <v>292</v>
-      </c>
-      <c r="B1" s="236" t="s">
+      <c r="A1" s="217" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1" s="218" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="237" t="s">
-        <v>293</v>
-      </c>
-      <c r="B2" s="238" t="s">
+      <c r="A2" s="219" t="s">
         <v>294</v>
+      </c>
+      <c r="B2" s="220" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="239" t="s">
+      <c r="A3" s="221" t="s">
+        <v>296</v>
+      </c>
+      <c r="B3" s="222" t="s">
         <v>295</v>
-      </c>
-      <c r="B3" s="240" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="241" t="s">
-        <v>296</v>
-      </c>
-      <c r="B4" s="242" t="s">
-        <v>294</v>
+      <c r="A4" s="223" t="s">
+        <v>297</v>
+      </c>
+      <c r="B4" s="224" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="239" t="s">
-        <v>297</v>
-      </c>
-      <c r="B5" s="240" t="s">
-        <v>294</v>
+      <c r="A5" s="221" t="s">
+        <v>298</v>
+      </c>
+      <c r="B5" s="222" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="239" t="s">
-        <v>298</v>
-      </c>
-      <c r="B6" s="240" t="s">
-        <v>294</v>
+      <c r="A6" s="221" t="s">
+        <v>299</v>
+      </c>
+      <c r="B6" s="222" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="239" t="s">
-        <v>299</v>
-      </c>
-      <c r="B7" s="240" t="s">
-        <v>294</v>
+      <c r="A7" s="221" t="s">
+        <v>300</v>
+      </c>
+      <c r="B7" s="222" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="239" t="s">
-        <v>300</v>
-      </c>
-      <c r="B8" s="240" t="s">
-        <v>294</v>
+      <c r="A8" s="221" t="s">
+        <v>301</v>
+      </c>
+      <c r="B8" s="222" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="243" t="s">
-        <v>301</v>
-      </c>
-      <c r="B9" s="240" t="s">
-        <v>294</v>
+      <c r="A9" s="225" t="s">
+        <v>302</v>
+      </c>
+      <c r="B9" s="222" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="243" t="s">
-        <v>302</v>
-      </c>
-      <c r="B10" s="240" t="s">
-        <v>294</v>
+      <c r="A10" s="225" t="s">
+        <v>303</v>
+      </c>
+      <c r="B10" s="222" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="243" t="s">
-        <v>303</v>
-      </c>
-      <c r="B11" s="240" t="s">
-        <v>294</v>
+      <c r="A11" s="225" t="s">
+        <v>304</v>
+      </c>
+      <c r="B11" s="222" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="243" t="s">
-        <v>304</v>
-      </c>
-      <c r="B12" s="240" t="s">
-        <v>294</v>
+      <c r="A12" s="225" t="s">
+        <v>305</v>
+      </c>
+      <c r="B12" s="222" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="244" t="s">
-        <v>305</v>
-      </c>
-      <c r="B13" s="245" t="s">
-        <v>294</v>
+      <c r="A13" s="226" t="s">
+        <v>306</v>
+      </c>
+      <c r="B13" s="227" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="235" t="s">
-        <v>292</v>
-      </c>
-      <c r="B16" s="236" t="s">
-        <v>306</v>
+      <c r="A16" s="217" t="s">
+        <v>293</v>
+      </c>
+      <c r="B16" s="218" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="246" t="s">
-        <v>307</v>
-      </c>
-      <c r="B17" s="238" t="s">
+      <c r="A17" s="228" t="s">
         <v>308</v>
+      </c>
+      <c r="B17" s="220" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="247" t="s">
+      <c r="A18" s="229" t="s">
+        <v>310</v>
+      </c>
+      <c r="B18" s="222" t="s">
         <v>309</v>
-      </c>
-      <c r="B18" s="240" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="247" t="s">
-        <v>310</v>
-      </c>
-      <c r="B19" s="240" t="s">
-        <v>308</v>
+      <c r="A19" s="229" t="s">
+        <v>311</v>
+      </c>
+      <c r="B19" s="222" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="247" t="s">
-        <v>311</v>
-      </c>
-      <c r="B20" s="240" t="s">
-        <v>308</v>
+      <c r="A20" s="229" t="s">
+        <v>312</v>
+      </c>
+      <c r="B20" s="222" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="243" t="s">
-        <v>312</v>
-      </c>
-      <c r="B21" s="240" t="s">
-        <v>308</v>
+      <c r="A21" s="225" t="s">
+        <v>313</v>
+      </c>
+      <c r="B21" s="222" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="243" t="s">
-        <v>313</v>
-      </c>
-      <c r="B22" s="240" t="s">
-        <v>308</v>
+      <c r="A22" s="225" t="s">
+        <v>314</v>
+      </c>
+      <c r="B22" s="222" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="243" t="s">
-        <v>314</v>
-      </c>
-      <c r="B23" s="240" t="s">
-        <v>308</v>
+      <c r="A23" s="225" t="s">
+        <v>315</v>
+      </c>
+      <c r="B23" s="222" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="243" t="s">
-        <v>315</v>
-      </c>
-      <c r="B24" s="240" t="s">
-        <v>308</v>
+      <c r="A24" s="225" t="s">
+        <v>316</v>
+      </c>
+      <c r="B24" s="222" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="243" t="s">
-        <v>316</v>
-      </c>
-      <c r="B25" s="240" t="s">
-        <v>308</v>
+      <c r="A25" s="225" t="s">
+        <v>317</v>
+      </c>
+      <c r="B25" s="222" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="244" t="s">
-        <v>317</v>
-      </c>
-      <c r="B26" s="245" t="s">
-        <v>308</v>
+      <c r="A26" s="226" t="s">
+        <v>318</v>
+      </c>
+      <c r="B26" s="227" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -44013,284 +43867,284 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.6032388663968"/>
     <col collapsed="false" hidden="false" max="6" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1" s="248" t="n">
+      <c r="C1" s="230" t="n">
         <v>0.2</v>
       </c>
-      <c r="D1" s="248" t="n">
+      <c r="D1" s="230" t="n">
         <v>0.4</v>
       </c>
-      <c r="E1" s="248" t="n">
+      <c r="E1" s="230" t="n">
         <v>0.2</v>
       </c>
-      <c r="F1" s="248" t="n">
+      <c r="F1" s="230" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="249" t="s">
+      <c r="A2" s="231" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="250" t="s">
-        <v>318</v>
-      </c>
-      <c r="C2" s="250" t="s">
+      <c r="B2" s="232" t="s">
+        <v>319</v>
+      </c>
+      <c r="C2" s="232" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="250" t="s">
-        <v>319</v>
-      </c>
-      <c r="E2" s="250" t="s">
+      <c r="D2" s="232" t="s">
         <v>320</v>
       </c>
-      <c r="F2" s="250" t="s">
+      <c r="E2" s="232" t="s">
+        <v>321</v>
+      </c>
+      <c r="F2" s="232" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="251" t="s">
+      <c r="A3" s="233" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="252" t="s">
-        <v>321</v>
-      </c>
-      <c r="C3" s="253" t="s">
+      <c r="B3" s="234" t="s">
         <v>322</v>
       </c>
-      <c r="D3" s="253" t="s">
-        <v>322</v>
-      </c>
-      <c r="E3" s="253" t="s">
-        <v>322</v>
-      </c>
-      <c r="F3" s="253" t="s">
-        <v>322</v>
+      <c r="C3" s="235" t="s">
+        <v>323</v>
+      </c>
+      <c r="D3" s="235" t="s">
+        <v>323</v>
+      </c>
+      <c r="E3" s="235" t="s">
+        <v>323</v>
+      </c>
+      <c r="F3" s="235" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="251" t="s">
+      <c r="A4" s="233" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="252" t="s">
-        <v>321</v>
-      </c>
-      <c r="C4" s="253" t="s">
+      <c r="B4" s="234" t="s">
         <v>322</v>
       </c>
-      <c r="D4" s="253" t="s">
-        <v>322</v>
-      </c>
-      <c r="E4" s="253" t="s">
-        <v>322</v>
-      </c>
-      <c r="F4" s="253" t="s">
-        <v>322</v>
+      <c r="C4" s="235" t="s">
+        <v>323</v>
+      </c>
+      <c r="D4" s="235" t="s">
+        <v>323</v>
+      </c>
+      <c r="E4" s="235" t="s">
+        <v>323</v>
+      </c>
+      <c r="F4" s="235" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="251" t="s">
+      <c r="A5" s="233" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="252" t="s">
-        <v>321</v>
-      </c>
-      <c r="C5" s="253" t="s">
+      <c r="B5" s="234" t="s">
         <v>322</v>
       </c>
-      <c r="D5" s="253" t="s">
-        <v>322</v>
-      </c>
-      <c r="E5" s="253" t="s">
+      <c r="C5" s="235" t="s">
         <v>323</v>
       </c>
-      <c r="F5" s="253" t="s">
-        <v>322</v>
+      <c r="D5" s="235" t="s">
+        <v>323</v>
+      </c>
+      <c r="E5" s="235" t="s">
+        <v>324</v>
+      </c>
+      <c r="F5" s="235" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="251" t="s">
+      <c r="A6" s="233" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="252" t="s">
-        <v>321</v>
-      </c>
-      <c r="C6" s="253" t="s">
+      <c r="B6" s="234" t="s">
         <v>322</v>
       </c>
-      <c r="D6" s="253" t="s">
-        <v>322</v>
-      </c>
-      <c r="E6" s="253" t="s">
+      <c r="C6" s="235" t="s">
         <v>323</v>
       </c>
-      <c r="F6" s="253" t="s">
-        <v>322</v>
+      <c r="D6" s="235" t="s">
+        <v>323</v>
+      </c>
+      <c r="E6" s="235" t="s">
+        <v>324</v>
+      </c>
+      <c r="F6" s="235" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="251" t="s">
+      <c r="A7" s="233" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="252" t="s">
-        <v>321</v>
-      </c>
-      <c r="C7" s="253" t="s">
+      <c r="B7" s="234" t="s">
         <v>322</v>
       </c>
-      <c r="D7" s="253" t="s">
-        <v>322</v>
-      </c>
-      <c r="E7" s="253" t="s">
+      <c r="C7" s="235" t="s">
         <v>323</v>
       </c>
-      <c r="F7" s="253" t="s">
-        <v>322</v>
+      <c r="D7" s="235" t="s">
+        <v>323</v>
+      </c>
+      <c r="E7" s="235" t="s">
+        <v>324</v>
+      </c>
+      <c r="F7" s="235" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="251" t="s">
+      <c r="A8" s="233" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="252" t="s">
-        <v>321</v>
-      </c>
-      <c r="C8" s="253" t="s">
+      <c r="B8" s="234" t="s">
         <v>322</v>
       </c>
-      <c r="D8" s="253" t="s">
-        <v>322</v>
-      </c>
-      <c r="E8" s="253" t="s">
+      <c r="C8" s="235" t="s">
         <v>323</v>
       </c>
-      <c r="F8" s="253" t="s">
-        <v>322</v>
+      <c r="D8" s="235" t="s">
+        <v>323</v>
+      </c>
+      <c r="E8" s="235" t="s">
+        <v>324</v>
+      </c>
+      <c r="F8" s="235" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="251" t="s">
+      <c r="A9" s="233" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="252" t="s">
+      <c r="B9" s="234" t="s">
+        <v>325</v>
+      </c>
+      <c r="C9" s="235" t="s">
+        <v>323</v>
+      </c>
+      <c r="D9" s="235" t="s">
         <v>324</v>
       </c>
-      <c r="C9" s="253" t="s">
-        <v>322</v>
-      </c>
-      <c r="D9" s="253" t="s">
+      <c r="E9" s="235" t="s">
+        <v>324</v>
+      </c>
+      <c r="F9" s="235" t="s">
         <v>323</v>
-      </c>
-      <c r="E9" s="253" t="s">
-        <v>323</v>
-      </c>
-      <c r="F9" s="253" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="251" t="s">
+      <c r="A10" s="233" t="s">
         <v>93</v>
       </c>
-      <c r="B10" s="252" t="s">
+      <c r="B10" s="234" t="s">
+        <v>325</v>
+      </c>
+      <c r="C10" s="235" t="s">
+        <v>323</v>
+      </c>
+      <c r="D10" s="235" t="s">
         <v>324</v>
       </c>
-      <c r="C10" s="253" t="s">
-        <v>322</v>
-      </c>
-      <c r="D10" s="253" t="s">
+      <c r="E10" s="235" t="s">
+        <v>324</v>
+      </c>
+      <c r="F10" s="235" t="s">
         <v>323</v>
-      </c>
-      <c r="E10" s="253" t="s">
-        <v>323</v>
-      </c>
-      <c r="F10" s="253" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="251" t="s">
+      <c r="A11" s="233" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="252" t="s">
+      <c r="B11" s="234" t="s">
+        <v>325</v>
+      </c>
+      <c r="C11" s="235" t="s">
+        <v>323</v>
+      </c>
+      <c r="D11" s="235" t="s">
         <v>324</v>
       </c>
-      <c r="C11" s="253" t="s">
-        <v>322</v>
-      </c>
-      <c r="D11" s="253" t="s">
+      <c r="E11" s="235" t="s">
+        <v>324</v>
+      </c>
+      <c r="F11" s="235" t="s">
         <v>323</v>
-      </c>
-      <c r="E11" s="253" t="s">
-        <v>323</v>
-      </c>
-      <c r="F11" s="253" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="251" t="s">
+      <c r="A12" s="233" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="252" t="s">
+      <c r="B12" s="234" t="s">
+        <v>325</v>
+      </c>
+      <c r="C12" s="235" t="s">
+        <v>323</v>
+      </c>
+      <c r="D12" s="235" t="s">
         <v>324</v>
       </c>
-      <c r="C12" s="253" t="s">
-        <v>322</v>
-      </c>
-      <c r="D12" s="253" t="s">
+      <c r="E12" s="235" t="s">
+        <v>324</v>
+      </c>
+      <c r="F12" s="235" t="s">
         <v>323</v>
-      </c>
-      <c r="E12" s="253" t="s">
-        <v>323</v>
-      </c>
-      <c r="F12" s="253" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="251" t="s">
+      <c r="A13" s="233" t="s">
         <v>96</v>
       </c>
-      <c r="B13" s="252" t="s">
+      <c r="B13" s="234" t="s">
+        <v>325</v>
+      </c>
+      <c r="C13" s="235" t="s">
+        <v>323</v>
+      </c>
+      <c r="D13" s="235" t="s">
         <v>324</v>
       </c>
-      <c r="C13" s="253" t="s">
-        <v>322</v>
-      </c>
-      <c r="D13" s="253" t="s">
+      <c r="E13" s="235" t="s">
+        <v>324</v>
+      </c>
+      <c r="F13" s="235" t="s">
         <v>323</v>
-      </c>
-      <c r="E13" s="253" t="s">
-        <v>323</v>
-      </c>
-      <c r="F13" s="253" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="254" t="s">
+      <c r="A14" s="236" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="255" t="s">
+      <c r="B14" s="237" t="s">
+        <v>325</v>
+      </c>
+      <c r="C14" s="238" t="s">
+        <v>323</v>
+      </c>
+      <c r="D14" s="238" t="s">
         <v>324</v>
       </c>
-      <c r="C14" s="256" t="s">
-        <v>322</v>
-      </c>
-      <c r="D14" s="256" t="s">
+      <c r="E14" s="238" t="s">
+        <v>324</v>
+      </c>
+      <c r="F14" s="238" t="s">
         <v>323</v>
-      </c>
-      <c r="E14" s="256" t="s">
-        <v>323</v>
-      </c>
-      <c r="F14" s="256" t="s">
-        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -44317,37 +44171,37 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="257" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="257" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="257" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="257" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="257" width="100.797570850202"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="257" width="8.03238866396761"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="257" width="34.4939271255061"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="257" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="239" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="239" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="239" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="239" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="239" width="101.655870445344"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="239" width="8.03238866396761"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="239" width="34.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="239" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="258" t="s">
+      <c r="A1" s="240" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="259" t="s">
-        <v>149</v>
-      </c>
-      <c r="C1" s="259" t="s">
-        <v>325</v>
-      </c>
-      <c r="D1" s="259" t="s">
+      <c r="B1" s="241" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="241" t="s">
         <v>326</v>
       </c>
-      <c r="E1" s="259" t="s">
+      <c r="D1" s="241" t="s">
         <v>327</v>
       </c>
-      <c r="F1" s="259" t="s">
+      <c r="E1" s="241" t="s">
         <v>328</v>
       </c>
-      <c r="G1" s="260" t="s">
+      <c r="F1" s="241" t="s">
         <v>329</v>
+      </c>
+      <c r="G1" s="242" t="s">
+        <v>330</v>
       </c>
       <c r="H1" s="0"/>
       <c r="I1" s="0"/>
@@ -44355,24 +44209,24 @@
       <c r="K1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="261" t="s">
+      <c r="A2" s="243" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="262" t="s">
-        <v>330</v>
-      </c>
-      <c r="C2" s="263"/>
-      <c r="D2" s="264" t="s">
+      <c r="B2" s="244" t="s">
         <v>331</v>
       </c>
-      <c r="E2" s="262" t="s">
+      <c r="C2" s="245"/>
+      <c r="D2" s="246" t="s">
         <v>332</v>
       </c>
-      <c r="F2" s="265" t="n">
+      <c r="E2" s="244" t="s">
+        <v>333</v>
+      </c>
+      <c r="F2" s="247" t="n">
         <v>0.2</v>
       </c>
-      <c r="G2" s="266" t="s">
-        <v>333</v>
+      <c r="G2" s="248" t="s">
+        <v>334</v>
       </c>
       <c r="H2" s="0"/>
       <c r="I2" s="0"/>
@@ -44380,261 +44234,261 @@
       <c r="K2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="267" t="s">
+      <c r="A3" s="249" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="205" t="s">
+      <c r="B3" s="187" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="205"/>
-      <c r="D3" s="205" t="s">
-        <v>334</v>
-      </c>
-      <c r="E3" s="205" t="s">
+      <c r="C3" s="187"/>
+      <c r="D3" s="187" t="s">
         <v>335</v>
       </c>
-      <c r="F3" s="268" t="n">
+      <c r="E3" s="187" t="s">
+        <v>336</v>
+      </c>
+      <c r="F3" s="250" t="n">
         <v>0.1</v>
       </c>
-      <c r="G3" s="266"/>
+      <c r="G3" s="248"/>
       <c r="H3" s="0"/>
       <c r="I3" s="0"/>
       <c r="J3" s="0"/>
       <c r="K3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="267"/>
-      <c r="B4" s="205" t="s">
+      <c r="A4" s="249"/>
+      <c r="B4" s="187" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="205" t="s">
+      <c r="C4" s="187" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="205" t="s">
-        <v>336</v>
-      </c>
-      <c r="E4" s="205" t="s">
+      <c r="D4" s="187" t="s">
         <v>337</v>
       </c>
-      <c r="F4" s="268" t="n">
+      <c r="E4" s="187" t="s">
+        <v>338</v>
+      </c>
+      <c r="F4" s="250" t="n">
         <v>0.1</v>
       </c>
-      <c r="G4" s="266"/>
+      <c r="G4" s="248"/>
       <c r="H4" s="0"/>
       <c r="I4" s="0"/>
       <c r="J4" s="0"/>
       <c r="K4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="267"/>
-      <c r="B5" s="205"/>
-      <c r="C5" s="205" t="s">
-        <v>338</v>
-      </c>
-      <c r="D5" s="205" t="s">
-        <v>336</v>
-      </c>
-      <c r="E5" s="205" t="s">
-        <v>160</v>
-      </c>
-      <c r="F5" s="268"/>
-      <c r="G5" s="266"/>
+      <c r="A5" s="249"/>
+      <c r="B5" s="187"/>
+      <c r="C5" s="187" t="s">
+        <v>339</v>
+      </c>
+      <c r="D5" s="187" t="s">
+        <v>337</v>
+      </c>
+      <c r="E5" s="187" t="s">
+        <v>161</v>
+      </c>
+      <c r="F5" s="250"/>
+      <c r="G5" s="248"/>
       <c r="H5" s="0"/>
       <c r="I5" s="0"/>
       <c r="J5" s="0"/>
       <c r="K5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="85.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="267"/>
-      <c r="B6" s="205" t="s">
+      <c r="A6" s="249"/>
+      <c r="B6" s="187" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="205"/>
-      <c r="D6" s="205" t="s">
-        <v>334</v>
+      <c r="C6" s="187"/>
+      <c r="D6" s="187" t="s">
+        <v>335</v>
       </c>
       <c r="E6" s="125" t="s">
-        <v>339</v>
-      </c>
-      <c r="F6" s="268" t="n">
+        <v>340</v>
+      </c>
+      <c r="F6" s="250" t="n">
         <v>0.1</v>
       </c>
-      <c r="G6" s="266"/>
+      <c r="G6" s="248"/>
       <c r="H6" s="0"/>
       <c r="I6" s="0"/>
       <c r="J6" s="0"/>
       <c r="K6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="267"/>
-      <c r="B7" s="205" t="s">
-        <v>340</v>
-      </c>
-      <c r="C7" s="205"/>
-      <c r="D7" s="205" t="s">
-        <v>334</v>
-      </c>
-      <c r="E7" s="205" t="s">
+      <c r="A7" s="249"/>
+      <c r="B7" s="187" t="s">
         <v>341</v>
       </c>
-      <c r="F7" s="268" t="n">
+      <c r="C7" s="187"/>
+      <c r="D7" s="187" t="s">
+        <v>335</v>
+      </c>
+      <c r="E7" s="187" t="s">
+        <v>342</v>
+      </c>
+      <c r="F7" s="250" t="n">
         <v>0.1</v>
       </c>
-      <c r="G7" s="266"/>
+      <c r="G7" s="248"/>
       <c r="H7" s="0"/>
       <c r="I7" s="0"/>
       <c r="J7" s="0"/>
       <c r="K7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="267" t="s">
+      <c r="A8" s="249" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="205" t="s">
+      <c r="B8" s="187" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="205"/>
-      <c r="D8" s="205" t="s">
-        <v>334</v>
-      </c>
-      <c r="E8" s="205" t="s">
-        <v>342</v>
-      </c>
-      <c r="F8" s="268" t="n">
+      <c r="C8" s="187"/>
+      <c r="D8" s="187" t="s">
+        <v>335</v>
+      </c>
+      <c r="E8" s="187" t="s">
+        <v>343</v>
+      </c>
+      <c r="F8" s="250" t="n">
         <v>0.05</v>
       </c>
-      <c r="G8" s="266"/>
+      <c r="G8" s="248"/>
       <c r="H8" s="0"/>
       <c r="I8" s="0"/>
       <c r="J8" s="0"/>
       <c r="K8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="267"/>
-      <c r="B9" s="205" t="s">
+      <c r="A9" s="249"/>
+      <c r="B9" s="187" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="205"/>
-      <c r="D9" s="205" t="s">
-        <v>336</v>
-      </c>
-      <c r="E9" s="205" t="s">
-        <v>343</v>
-      </c>
-      <c r="F9" s="268" t="n">
+      <c r="C9" s="187"/>
+      <c r="D9" s="187" t="s">
+        <v>337</v>
+      </c>
+      <c r="E9" s="187" t="s">
+        <v>344</v>
+      </c>
+      <c r="F9" s="250" t="n">
         <v>0.05</v>
       </c>
-      <c r="G9" s="266"/>
+      <c r="G9" s="248"/>
       <c r="H9" s="0"/>
       <c r="I9" s="0"/>
       <c r="J9" s="0"/>
       <c r="K9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="85.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="267"/>
-      <c r="B10" s="205" t="s">
+      <c r="A10" s="249"/>
+      <c r="B10" s="187" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="205"/>
-      <c r="D10" s="205" t="s">
-        <v>334</v>
+      <c r="C10" s="187"/>
+      <c r="D10" s="187" t="s">
+        <v>335</v>
       </c>
       <c r="E10" s="125" t="s">
-        <v>344</v>
-      </c>
-      <c r="F10" s="268" t="n">
+        <v>345</v>
+      </c>
+      <c r="F10" s="250" t="n">
         <v>0.05</v>
       </c>
-      <c r="G10" s="266"/>
+      <c r="G10" s="248"/>
       <c r="H10" s="0"/>
       <c r="I10" s="0"/>
       <c r="J10" s="0"/>
       <c r="K10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="267"/>
-      <c r="B11" s="205" t="s">
-        <v>340</v>
-      </c>
-      <c r="C11" s="205"/>
-      <c r="D11" s="205" t="s">
-        <v>334</v>
-      </c>
-      <c r="E11" s="205" t="s">
+      <c r="A11" s="249"/>
+      <c r="B11" s="187" t="s">
         <v>341</v>
       </c>
-      <c r="F11" s="268" t="n">
+      <c r="C11" s="187"/>
+      <c r="D11" s="187" t="s">
+        <v>335</v>
+      </c>
+      <c r="E11" s="187" t="s">
+        <v>342</v>
+      </c>
+      <c r="F11" s="250" t="n">
         <v>0.05</v>
       </c>
-      <c r="G11" s="266"/>
+      <c r="G11" s="248"/>
       <c r="H11" s="0"/>
       <c r="I11" s="0"/>
       <c r="J11" s="0"/>
       <c r="K11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="269" t="s">
+      <c r="A12" s="251" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="205" t="s">
+      <c r="B12" s="187" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="205"/>
-      <c r="D12" s="205" t="s">
-        <v>336</v>
-      </c>
-      <c r="E12" s="205" t="s">
-        <v>345</v>
-      </c>
-      <c r="F12" s="268" t="n">
+      <c r="C12" s="187"/>
+      <c r="D12" s="187" t="s">
+        <v>337</v>
+      </c>
+      <c r="E12" s="187" t="s">
+        <v>346</v>
+      </c>
+      <c r="F12" s="250" t="n">
         <v>0.1</v>
       </c>
-      <c r="G12" s="266"/>
+      <c r="G12" s="248"/>
       <c r="H12" s="0"/>
       <c r="I12" s="0"/>
       <c r="J12" s="0"/>
       <c r="K12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="269"/>
-      <c r="B13" s="270" t="s">
+      <c r="A13" s="251"/>
+      <c r="B13" s="252" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="270"/>
-      <c r="D13" s="270" t="s">
-        <v>336</v>
-      </c>
-      <c r="E13" s="270" t="s">
-        <v>345</v>
-      </c>
-      <c r="F13" s="271" t="n">
+      <c r="C13" s="252"/>
+      <c r="D13" s="252" t="s">
+        <v>337</v>
+      </c>
+      <c r="E13" s="252" t="s">
+        <v>346</v>
+      </c>
+      <c r="F13" s="253" t="n">
         <v>0.1</v>
       </c>
-      <c r="G13" s="266"/>
+      <c r="G13" s="248"/>
       <c r="H13" s="0"/>
       <c r="I13" s="0"/>
       <c r="J13" s="0"/>
       <c r="K13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="272" t="s">
+      <c r="A14" s="254" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="273" t="s">
+      <c r="B14" s="255" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="274"/>
-      <c r="D14" s="274" t="s">
-        <v>334</v>
-      </c>
-      <c r="E14" s="275" t="s">
-        <v>346</v>
-      </c>
-      <c r="F14" s="276" t="n">
+      <c r="C14" s="256"/>
+      <c r="D14" s="256" t="s">
+        <v>335</v>
+      </c>
+      <c r="E14" s="257" t="s">
+        <v>347</v>
+      </c>
+      <c r="F14" s="258" t="n">
         <v>0.1</v>
       </c>
-      <c r="G14" s="277" t="s">
-        <v>347</v>
+      <c r="G14" s="259" t="s">
+        <v>348</v>
       </c>
       <c r="H14" s="0"/>
       <c r="I14" s="0"/>
@@ -44642,42 +44496,42 @@
       <c r="K14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="272"/>
-      <c r="B15" s="278" t="s">
+      <c r="A15" s="254"/>
+      <c r="B15" s="260" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="278"/>
-      <c r="D15" s="274" t="s">
-        <v>334</v>
-      </c>
-      <c r="E15" s="205" t="s">
-        <v>346</v>
-      </c>
-      <c r="F15" s="279" t="n">
+      <c r="C15" s="260"/>
+      <c r="D15" s="256" t="s">
+        <v>335</v>
+      </c>
+      <c r="E15" s="187" t="s">
+        <v>347</v>
+      </c>
+      <c r="F15" s="261" t="n">
         <v>0.05</v>
       </c>
-      <c r="G15" s="277"/>
+      <c r="G15" s="259"/>
       <c r="H15" s="0"/>
       <c r="I15" s="0"/>
       <c r="J15" s="0"/>
       <c r="K15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="272"/>
-      <c r="B16" s="280" t="s">
+      <c r="A16" s="254"/>
+      <c r="B16" s="262" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="280"/>
-      <c r="D16" s="274" t="s">
-        <v>334</v>
-      </c>
-      <c r="E16" s="281" t="s">
-        <v>348</v>
-      </c>
-      <c r="F16" s="282" t="n">
+      <c r="C16" s="262"/>
+      <c r="D16" s="256" t="s">
+        <v>335</v>
+      </c>
+      <c r="E16" s="263" t="s">
+        <v>349</v>
+      </c>
+      <c r="F16" s="264" t="n">
         <v>0.05</v>
       </c>
-      <c r="G16" s="277"/>
+      <c r="G16" s="259"/>
       <c r="H16" s="0"/>
       <c r="I16" s="0"/>
       <c r="J16" s="0"/>
@@ -44697,8 +44551,8 @@
       <c r="K17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="283" t="s">
-        <v>349</v>
+      <c r="A18" s="265" t="s">
+        <v>350</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -44712,11 +44566,11 @@
       <c r="K18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="284" t="s">
-        <v>149</v>
-      </c>
-      <c r="B19" s="284" t="s">
-        <v>350</v>
+      <c r="A19" s="266" t="s">
+        <v>150</v>
+      </c>
+      <c r="B19" s="266" t="s">
+        <v>351</v>
       </c>
       <c r="C19" s="0"/>
       <c r="D19" s="0"/>
@@ -44729,10 +44583,10 @@
       <c r="K19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="205" t="s">
+      <c r="A20" s="187" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="226" t="n">
+      <c r="B20" s="208" t="n">
         <v>1</v>
       </c>
       <c r="C20" s="0"/>
@@ -44746,10 +44600,10 @@
       <c r="K20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="205" t="s">
+      <c r="A21" s="187" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="226" t="n">
+      <c r="B21" s="208" t="n">
         <v>2</v>
       </c>
       <c r="C21" s="0"/>
@@ -44763,10 +44617,10 @@
       <c r="K21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="205" t="s">
+      <c r="A22" s="187" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="226" t="n">
+      <c r="B22" s="208" t="n">
         <v>3</v>
       </c>
       <c r="C22" s="0"/>
@@ -44780,10 +44634,10 @@
       <c r="K22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="205" t="s">
-        <v>340</v>
-      </c>
-      <c r="B23" s="226" t="n">
+      <c r="A23" s="187" t="s">
+        <v>341</v>
+      </c>
+      <c r="B23" s="208" t="n">
         <v>4</v>
       </c>
       <c r="C23" s="0"/>
@@ -44837,7 +44691,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="124" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -44854,130 +44708,130 @@
       <c r="A28" s="0"/>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
-      <c r="D28" s="285" t="n">
+      <c r="D28" s="267" t="n">
         <v>0.2</v>
       </c>
-      <c r="E28" s="285" t="n">
+      <c r="E28" s="267" t="n">
         <v>0.4</v>
       </c>
-      <c r="F28" s="285" t="n">
+      <c r="F28" s="267" t="n">
         <v>0.2</v>
       </c>
-      <c r="G28" s="285" t="n">
+      <c r="G28" s="267" t="n">
         <v>0.2</v>
       </c>
-      <c r="H28" s="286" t="n">
+      <c r="H28" s="268" t="n">
         <v>0.2</v>
       </c>
       <c r="I28" s="0"/>
       <c r="J28" s="124" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="287" t="s">
-        <v>353</v>
-      </c>
-      <c r="B29" s="287" t="s">
+      <c r="A29" s="269" t="s">
+        <v>354</v>
+      </c>
+      <c r="B29" s="269" t="s">
         <v>0</v>
       </c>
-      <c r="C29" s="287" t="s">
-        <v>354</v>
-      </c>
-      <c r="D29" s="287" t="s">
+      <c r="C29" s="269" t="s">
+        <v>355</v>
+      </c>
+      <c r="D29" s="269" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="287" t="s">
-        <v>319</v>
-      </c>
-      <c r="F29" s="287" t="s">
+      <c r="E29" s="269" t="s">
         <v>320</v>
       </c>
-      <c r="G29" s="287" t="s">
+      <c r="F29" s="269" t="s">
+        <v>321</v>
+      </c>
+      <c r="G29" s="269" t="s">
         <v>61</v>
       </c>
-      <c r="H29" s="287" t="s">
+      <c r="H29" s="269" t="s">
         <v>65</v>
       </c>
-      <c r="I29" s="287" t="s">
-        <v>355</v>
-      </c>
-      <c r="J29" s="287" t="s">
+      <c r="I29" s="269" t="s">
+        <v>356</v>
+      </c>
+      <c r="J29" s="269" t="s">
         <v>12</v>
       </c>
-      <c r="K29" s="287" t="s">
-        <v>356</v>
+      <c r="K29" s="269" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="205" t="s">
-        <v>357</v>
-      </c>
-      <c r="B30" s="205" t="s">
+      <c r="A30" s="187" t="s">
+        <v>358</v>
+      </c>
+      <c r="B30" s="187" t="s">
         <v>92</v>
       </c>
-      <c r="C30" s="205" t="s">
-        <v>358</v>
-      </c>
-      <c r="D30" s="288" t="n">
+      <c r="C30" s="187" t="s">
+        <v>359</v>
+      </c>
+      <c r="D30" s="270" t="n">
         <v>0.2</v>
       </c>
-      <c r="E30" s="288" t="n">
+      <c r="E30" s="270" t="n">
         <v>0.3</v>
       </c>
-      <c r="F30" s="288" t="n">
+      <c r="F30" s="270" t="n">
         <v>0.1</v>
       </c>
-      <c r="G30" s="288" t="n">
+      <c r="G30" s="270" t="n">
         <v>0.05</v>
       </c>
-      <c r="H30" s="288" t="n">
+      <c r="H30" s="270" t="n">
         <v>0.1</v>
       </c>
-      <c r="I30" s="288" t="n">
+      <c r="I30" s="270" t="n">
         <v>0.75</v>
       </c>
-      <c r="J30" s="288" t="n">
+      <c r="J30" s="270" t="n">
         <v>1</v>
       </c>
-      <c r="K30" s="205" t="s">
-        <v>359</v>
+      <c r="K30" s="187" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="205" t="s">
-        <v>360</v>
-      </c>
-      <c r="B31" s="205" t="s">
+      <c r="A31" s="187" t="s">
+        <v>361</v>
+      </c>
+      <c r="B31" s="187" t="s">
         <v>97</v>
       </c>
-      <c r="C31" s="205" t="s">
-        <v>361</v>
-      </c>
-      <c r="D31" s="288" t="n">
+      <c r="C31" s="187" t="s">
+        <v>362</v>
+      </c>
+      <c r="D31" s="270" t="n">
         <v>0.2</v>
       </c>
-      <c r="E31" s="288" t="n">
+      <c r="E31" s="270" t="n">
         <v>0.4</v>
       </c>
-      <c r="F31" s="289" t="s">
+      <c r="F31" s="271" t="s">
         <v>62</v>
       </c>
-      <c r="G31" s="288" t="n">
+      <c r="G31" s="270" t="n">
         <v>0.2</v>
       </c>
-      <c r="H31" s="288" t="n">
+      <c r="H31" s="270" t="n">
         <v>0.2</v>
       </c>
-      <c r="I31" s="288" t="n">
+      <c r="I31" s="270" t="n">
         <v>1</v>
       </c>
-      <c r="J31" s="288" t="n">
+      <c r="J31" s="270" t="n">
         <v>0.8</v>
       </c>
-      <c r="K31" s="205" t="s">
-        <v>362</v>
+      <c r="K31" s="187" t="s">
+        <v>363</v>
       </c>
     </row>
   </sheetData>
